--- a/Offres_2022.xlsx
+++ b/Offres_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayeu\CASSIOPEE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume12321/Documents/GitHub/carpooling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7DC11C-CC28-4D63-A95D-E7ED5C8C2A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387D5F92-954A-B84E-84E4-DF20FEF95957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18980" windowHeight="16380" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Offres" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="234">
   <si>
     <t xml:space="preserve">Nombre de demandes </t>
   </si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>Mateo DINJOUR</t>
+  </si>
+  <si>
+    <t>Number of offers</t>
   </si>
 </sst>
 </file>
@@ -3775,10 +3778,190 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="146" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="148" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="141" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="142" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="150" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="132" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3787,190 +3970,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="150" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="132" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="146" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="148" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="141" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="142" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4291,20 +4294,20 @@
       <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.81640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" style="4" customWidth="1"/>
     <col min="2" max="4" width="20" style="5" customWidth="1"/>
     <col min="5" max="5" width="20" style="197" customWidth="1"/>
     <col min="6" max="8" width="20" style="269" customWidth="1"/>
     <col min="9" max="9" width="20" style="154" customWidth="1"/>
-    <col min="10" max="10" width="10.81640625"/>
-    <col min="11" max="11" width="9.1796875" style="4"/>
-    <col min="13" max="13" width="9.1796875" style="4"/>
-    <col min="60" max="60" width="12.26953125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125"/>
+    <col min="11" max="11" width="9.1640625" style="4"/>
+    <col min="13" max="13" width="9.1640625" style="4"/>
+    <col min="60" max="60" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:73" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E1" s="197" t="s">
         <v>0</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:73" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:73" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -4658,7 +4661,7 @@
       <c r="BT2" s="8"/>
       <c r="BU2" s="9"/>
     </row>
-    <row r="3" spans="1:73" ht="20" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:73" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>36</v>
       </c>
@@ -4671,57 +4674,57 @@
       <c r="D3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="364">
+      <c r="E3" s="307">
         <v>9</v>
       </c>
-      <c r="F3" s="364">
+      <c r="F3" s="307">
         <v>3</v>
       </c>
-      <c r="G3" s="364">
+      <c r="G3" s="307">
         <v>0</v>
       </c>
-      <c r="H3" s="364">
+      <c r="H3" s="307">
         <v>1</v>
       </c>
       <c r="I3" s="205"/>
       <c r="J3" s="239" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="341" t="s">
+      <c r="K3" s="334" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="224"/>
-      <c r="M3" s="339" t="s">
+      <c r="M3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="N3" s="31"/>
-      <c r="O3" s="339" t="s">
+      <c r="O3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="P3" s="31"/>
-      <c r="Q3" s="339" t="s">
+      <c r="Q3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="R3" s="31"/>
-      <c r="S3" s="339" t="s">
+      <c r="S3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="T3" s="31"/>
-      <c r="U3" s="339" t="s">
+      <c r="U3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="V3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="339" t="s">
+      <c r="W3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="X3" s="31"/>
-      <c r="Y3" s="339" t="s">
+      <c r="Y3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="Z3" s="31"/>
-      <c r="AA3" s="339" t="s">
+      <c r="AA3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AB3" s="31"/>
@@ -4729,77 +4732,77 @@
         <v>40</v>
       </c>
       <c r="AD3" s="31"/>
-      <c r="AE3" s="339" t="s">
+      <c r="AE3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AF3" s="31"/>
-      <c r="AG3" s="339" t="s">
+      <c r="AG3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AH3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="360" t="s">
+      <c r="AI3" s="303" t="s">
         <v>39</v>
       </c>
       <c r="AJ3" s="31"/>
-      <c r="AK3" s="339" t="s">
+      <c r="AK3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AL3" s="31"/>
-      <c r="AM3" s="339" t="s">
+      <c r="AM3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AN3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AO3" s="343" t="s">
+      <c r="AO3" s="340" t="s">
         <v>39</v>
       </c>
       <c r="AP3" s="31"/>
-      <c r="AQ3" s="339" t="s">
+      <c r="AQ3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AR3" s="31"/>
-      <c r="AS3" s="339" t="s">
+      <c r="AS3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AT3" s="31"/>
-      <c r="AU3" s="339" t="s">
+      <c r="AU3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AV3" s="66"/>
-      <c r="AW3" s="339" t="s">
+      <c r="AW3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AX3" s="31"/>
-      <c r="AY3" s="339" t="s">
+      <c r="AY3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AZ3" s="31"/>
-      <c r="BA3" s="339" t="s">
+      <c r="BA3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="BB3" s="31"/>
-      <c r="BC3" s="339" t="s">
+      <c r="BC3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="BD3" s="31"/>
-      <c r="BE3" s="339" t="s">
+      <c r="BE3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="BF3" s="31"/>
-      <c r="BG3" s="339" t="s">
+      <c r="BG3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="BH3" s="31"/>
-      <c r="BI3" s="341" t="s">
+      <c r="BI3" s="334" t="s">
         <v>40</v>
       </c>
       <c r="BJ3" s="1"/>
       <c r="BK3" s="1"/>
     </row>
-    <row r="4" spans="1:73" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:73" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="33"/>
       <c r="B4" s="34"/>
       <c r="C4" s="35" t="s">
@@ -4808,77 +4811,77 @@
       <c r="D4" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="365"/>
-      <c r="F4" s="365"/>
-      <c r="G4" s="365"/>
-      <c r="H4" s="365"/>
+      <c r="E4" s="308"/>
+      <c r="F4" s="308"/>
+      <c r="G4" s="308"/>
+      <c r="H4" s="308"/>
       <c r="I4" s="206"/>
       <c r="J4" s="240" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="342"/>
+      <c r="K4" s="335"/>
       <c r="L4" s="225"/>
-      <c r="M4" s="340"/>
+      <c r="M4" s="315"/>
       <c r="N4" s="38"/>
-      <c r="O4" s="340"/>
+      <c r="O4" s="315"/>
       <c r="P4" s="38"/>
-      <c r="Q4" s="340"/>
+      <c r="Q4" s="315"/>
       <c r="R4" s="38"/>
-      <c r="S4" s="340"/>
+      <c r="S4" s="315"/>
       <c r="T4" s="38"/>
-      <c r="U4" s="340"/>
+      <c r="U4" s="315"/>
       <c r="V4" s="38"/>
-      <c r="W4" s="340"/>
+      <c r="W4" s="315"/>
       <c r="X4" s="38"/>
-      <c r="Y4" s="340"/>
+      <c r="Y4" s="315"/>
       <c r="Z4" s="38"/>
-      <c r="AA4" s="340"/>
+      <c r="AA4" s="315"/>
       <c r="AB4" s="38"/>
       <c r="AC4" s="39"/>
       <c r="AD4" s="38"/>
-      <c r="AE4" s="340"/>
+      <c r="AE4" s="315"/>
       <c r="AF4" s="38"/>
-      <c r="AG4" s="340"/>
+      <c r="AG4" s="315"/>
       <c r="AH4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="361"/>
+      <c r="AI4" s="304"/>
       <c r="AJ4" s="38"/>
-      <c r="AK4" s="340"/>
+      <c r="AK4" s="315"/>
       <c r="AL4" s="38"/>
-      <c r="AM4" s="340"/>
+      <c r="AM4" s="315"/>
       <c r="AN4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" s="344"/>
+      <c r="AO4" s="341"/>
       <c r="AP4" s="38"/>
-      <c r="AQ4" s="340"/>
+      <c r="AQ4" s="315"/>
       <c r="AR4" s="38"/>
-      <c r="AS4" s="340"/>
+      <c r="AS4" s="315"/>
       <c r="AT4" s="38"/>
-      <c r="AU4" s="340"/>
+      <c r="AU4" s="315"/>
       <c r="AV4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" s="340"/>
+      <c r="AW4" s="315"/>
       <c r="AX4" s="38"/>
-      <c r="AY4" s="340"/>
+      <c r="AY4" s="315"/>
       <c r="AZ4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="BA4" s="340"/>
+      <c r="BA4" s="315"/>
       <c r="BB4" s="38"/>
-      <c r="BC4" s="340"/>
+      <c r="BC4" s="315"/>
       <c r="BD4" s="38"/>
-      <c r="BE4" s="340"/>
+      <c r="BE4" s="315"/>
       <c r="BF4" s="38"/>
-      <c r="BG4" s="340"/>
+      <c r="BG4" s="315"/>
       <c r="BH4" s="38"/>
-      <c r="BI4" s="342"/>
+      <c r="BI4" s="335"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
     </row>
-    <row r="5" spans="1:73" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:73" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
         <v>42</v>
       </c>
@@ -5023,7 +5026,7 @@
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
     </row>
-    <row r="6" spans="1:73" ht="20.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:73" ht="22" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="163" t="s">
         <v>44</v>
       </c>
@@ -5098,7 +5101,7 @@
       <c r="BJ6" s="1"/>
       <c r="BK6" s="1"/>
     </row>
-    <row r="7" spans="1:73" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:73" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>47</v>
       </c>
@@ -5243,7 +5246,7 @@
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
     </row>
-    <row r="8" spans="1:73" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:73" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="44" t="s">
         <v>49</v>
       </c>
@@ -5390,7 +5393,7 @@
       <c r="BJ8" s="1"/>
       <c r="BK8" s="1"/>
     </row>
-    <row r="9" spans="1:73" ht="20" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:73" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>51</v>
       </c>
@@ -5403,23 +5406,23 @@
       <c r="D9" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="366">
+      <c r="E9" s="309">
         <v>19</v>
       </c>
-      <c r="F9" s="366">
+      <c r="F9" s="309">
         <v>5</v>
       </c>
-      <c r="G9" s="366">
+      <c r="G9" s="309">
         <v>2</v>
       </c>
-      <c r="H9" s="366">
+      <c r="H9" s="309">
         <v>9</v>
       </c>
       <c r="I9" s="209"/>
       <c r="J9" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="350" t="s">
+      <c r="K9" s="320" t="s">
         <v>40</v>
       </c>
       <c r="L9" s="227"/>
@@ -5437,7 +5440,7 @@
       <c r="R9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="325" t="s">
+      <c r="S9" s="344" t="s">
         <v>39</v>
       </c>
       <c r="T9" s="66"/>
@@ -5447,7 +5450,7 @@
       <c r="V9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="W9" s="325" t="s">
+      <c r="W9" s="344" t="s">
         <v>39</v>
       </c>
       <c r="X9" s="66"/>
@@ -5485,13 +5488,13 @@
       <c r="AL9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AM9" s="325" t="s">
+      <c r="AM9" s="344" t="s">
         <v>39</v>
       </c>
       <c r="AN9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AO9" s="325" t="s">
+      <c r="AO9" s="344" t="s">
         <v>39</v>
       </c>
       <c r="AP9" s="66"/>
@@ -5519,7 +5522,7 @@
       <c r="AZ9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BA9" s="325" t="s">
+      <c r="BA9" s="344" t="s">
         <v>39</v>
       </c>
       <c r="BB9" s="66"/>
@@ -5537,13 +5540,13 @@
         <v>40</v>
       </c>
       <c r="BH9" s="66"/>
-      <c r="BI9" s="338" t="s">
+      <c r="BI9" s="342" t="s">
         <v>40</v>
       </c>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
     </row>
-    <row r="10" spans="1:73" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:73" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="67"/>
       <c r="B10" s="68"/>
       <c r="C10" s="69" t="s">
@@ -5552,85 +5555,85 @@
       <c r="D10" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="363"/>
-      <c r="F10" s="363"/>
-      <c r="G10" s="363"/>
-      <c r="H10" s="363"/>
+      <c r="E10" s="306"/>
+      <c r="F10" s="306"/>
+      <c r="G10" s="306"/>
+      <c r="H10" s="306"/>
       <c r="I10" s="210"/>
       <c r="J10" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="352"/>
+      <c r="K10" s="321"/>
       <c r="L10" s="141"/>
-      <c r="M10" s="304"/>
+      <c r="M10" s="313"/>
       <c r="N10" s="72"/>
-      <c r="O10" s="304"/>
+      <c r="O10" s="313"/>
       <c r="P10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="304"/>
+      <c r="Q10" s="313"/>
       <c r="R10" s="72"/>
-      <c r="S10" s="337"/>
+      <c r="S10" s="323"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="304"/>
+      <c r="U10" s="313"/>
       <c r="V10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="W10" s="337"/>
+      <c r="W10" s="323"/>
       <c r="X10" s="72"/>
-      <c r="Y10" s="304"/>
+      <c r="Y10" s="313"/>
       <c r="Z10" s="72"/>
-      <c r="AA10" s="304"/>
+      <c r="AA10" s="313"/>
       <c r="AB10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AC10" s="304"/>
+      <c r="AC10" s="313"/>
       <c r="AD10" s="72"/>
-      <c r="AE10" s="304"/>
+      <c r="AE10" s="313"/>
       <c r="AF10" s="72"/>
-      <c r="AG10" s="304"/>
+      <c r="AG10" s="313"/>
       <c r="AH10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI10" s="304"/>
+      <c r="AI10" s="313"/>
       <c r="AJ10" s="72"/>
-      <c r="AK10" s="304"/>
+      <c r="AK10" s="313"/>
       <c r="AL10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AM10" s="337"/>
+      <c r="AM10" s="323"/>
       <c r="AN10" s="72"/>
-      <c r="AO10" s="337"/>
+      <c r="AO10" s="323"/>
       <c r="AP10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AQ10" s="304"/>
+      <c r="AQ10" s="313"/>
       <c r="AR10" s="72"/>
-      <c r="AS10" s="304"/>
+      <c r="AS10" s="313"/>
       <c r="AT10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AU10" s="304"/>
+      <c r="AU10" s="313"/>
       <c r="AV10" s="72"/>
-      <c r="AW10" s="304"/>
+      <c r="AW10" s="313"/>
       <c r="AX10" s="72"/>
-      <c r="AY10" s="304"/>
+      <c r="AY10" s="313"/>
       <c r="AZ10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BA10" s="337"/>
+      <c r="BA10" s="323"/>
       <c r="BB10" s="72"/>
-      <c r="BC10" s="304"/>
+      <c r="BC10" s="313"/>
       <c r="BD10" s="72"/>
-      <c r="BE10" s="304"/>
+      <c r="BE10" s="313"/>
       <c r="BF10" s="72"/>
-      <c r="BG10" s="304"/>
+      <c r="BG10" s="313"/>
       <c r="BH10" s="72"/>
-      <c r="BI10" s="335"/>
+      <c r="BI10" s="343"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
     </row>
-    <row r="11" spans="1:73" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:73" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="73" t="s">
         <v>55</v>
       </c>
@@ -5773,7 +5776,7 @@
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
     </row>
-    <row r="12" spans="1:73" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:73" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="83" t="s">
         <v>57</v>
       </c>
@@ -5914,7 +5917,7 @@
       <c r="BJ12" s="1"/>
       <c r="BK12" s="1"/>
     </row>
-    <row r="13" spans="1:73" ht="20" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:73" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="84" t="s">
         <v>59</v>
       </c>
@@ -5927,7 +5930,7 @@
       <c r="D13" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="362">
+      <c r="E13" s="305">
         <v>11</v>
       </c>
       <c r="F13" s="271"/>
@@ -5937,7 +5940,7 @@
       <c r="J13" s="251" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="354" t="s">
+      <c r="K13" s="338" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="228"/>
@@ -5963,7 +5966,7 @@
       <c r="V13" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="358" t="s">
+      <c r="W13" s="318" t="s">
         <v>39</v>
       </c>
       <c r="X13" s="176"/>
@@ -5989,7 +5992,7 @@
       <c r="AH13" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="AI13" s="358" t="s">
+      <c r="AI13" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AJ13" s="176"/>
@@ -6003,7 +6006,7 @@
       <c r="AN13" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="AO13" s="358" t="s">
+      <c r="AO13" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AP13" s="176"/>
@@ -6029,29 +6032,29 @@
       <c r="AZ13" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="BA13" s="336" t="s">
+      <c r="BA13" s="322" t="s">
         <v>39</v>
       </c>
       <c r="BB13" s="176"/>
-      <c r="BC13" s="356" t="s">
+      <c r="BC13" s="316" t="s">
         <v>40</v>
       </c>
       <c r="BD13" s="176"/>
-      <c r="BE13" s="356" t="s">
+      <c r="BE13" s="316" t="s">
         <v>40</v>
       </c>
       <c r="BF13" s="176"/>
-      <c r="BG13" s="356" t="s">
+      <c r="BG13" s="316" t="s">
         <v>40</v>
       </c>
       <c r="BH13" s="176"/>
-      <c r="BI13" s="356" t="s">
+      <c r="BI13" s="316" t="s">
         <v>40</v>
       </c>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
     </row>
-    <row r="14" spans="1:73" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:73" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="67"/>
       <c r="B14" s="68"/>
       <c r="C14" s="69" t="s">
@@ -6060,7 +6063,7 @@
       <c r="D14" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="363"/>
+      <c r="E14" s="306"/>
       <c r="F14" s="272"/>
       <c r="G14" s="272"/>
       <c r="H14" s="272"/>
@@ -6068,75 +6071,75 @@
       <c r="J14" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="355"/>
+      <c r="K14" s="339"/>
       <c r="L14" s="229"/>
-      <c r="M14" s="304"/>
+      <c r="M14" s="313"/>
       <c r="N14" s="178"/>
-      <c r="O14" s="304"/>
+      <c r="O14" s="313"/>
       <c r="P14" s="178"/>
-      <c r="Q14" s="304"/>
+      <c r="Q14" s="313"/>
       <c r="R14" s="178"/>
-      <c r="S14" s="304"/>
+      <c r="S14" s="313"/>
       <c r="T14" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="304"/>
+      <c r="U14" s="313"/>
       <c r="V14" s="179"/>
-      <c r="W14" s="359"/>
+      <c r="W14" s="319"/>
       <c r="X14" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="Y14" s="304"/>
+      <c r="Y14" s="313"/>
       <c r="Z14" s="178"/>
-      <c r="AA14" s="304"/>
+      <c r="AA14" s="313"/>
       <c r="AB14" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="AC14" s="304"/>
+      <c r="AC14" s="313"/>
       <c r="AD14" s="178"/>
-      <c r="AE14" s="304"/>
+      <c r="AE14" s="313"/>
       <c r="AF14" s="178"/>
-      <c r="AG14" s="304"/>
+      <c r="AG14" s="313"/>
       <c r="AH14" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="AI14" s="359"/>
+      <c r="AI14" s="319"/>
       <c r="AJ14" s="178"/>
-      <c r="AK14" s="304"/>
+      <c r="AK14" s="313"/>
       <c r="AL14" s="178"/>
-      <c r="AM14" s="304"/>
+      <c r="AM14" s="313"/>
       <c r="AN14" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="AO14" s="359"/>
+      <c r="AO14" s="319"/>
       <c r="AP14" s="191" t="s">
         <v>63</v>
       </c>
-      <c r="AQ14" s="304"/>
+      <c r="AQ14" s="313"/>
       <c r="AR14" s="178"/>
-      <c r="AS14" s="304"/>
+      <c r="AS14" s="313"/>
       <c r="AT14" s="178"/>
-      <c r="AU14" s="304"/>
+      <c r="AU14" s="313"/>
       <c r="AV14" s="178"/>
-      <c r="AW14" s="304"/>
+      <c r="AW14" s="313"/>
       <c r="AX14" s="178"/>
-      <c r="AY14" s="304"/>
+      <c r="AY14" s="313"/>
       <c r="AZ14" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="BA14" s="337"/>
+      <c r="BA14" s="323"/>
       <c r="BB14" s="178"/>
-      <c r="BC14" s="357"/>
+      <c r="BC14" s="317"/>
       <c r="BD14" s="178"/>
-      <c r="BE14" s="357"/>
+      <c r="BE14" s="317"/>
       <c r="BF14" s="178"/>
-      <c r="BG14" s="357"/>
+      <c r="BG14" s="317"/>
       <c r="BH14" s="178"/>
-      <c r="BI14" s="357"/>
+      <c r="BI14" s="317"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
     </row>
-    <row r="15" spans="1:73" ht="20" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:73" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="84" t="s">
         <v>64</v>
       </c>
@@ -6149,7 +6152,7 @@
       <c r="D15" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="362">
+      <c r="E15" s="305">
         <v>20</v>
       </c>
       <c r="F15" s="201"/>
@@ -6159,131 +6162,131 @@
       <c r="J15" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="353" t="s">
+      <c r="K15" s="337" t="s">
         <v>39</v>
       </c>
       <c r="L15" s="140"/>
-      <c r="M15" s="333" t="s">
+      <c r="M15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="N15" s="89"/>
-      <c r="O15" s="333" t="s">
+      <c r="O15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="P15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="336" t="s">
+      <c r="Q15" s="322" t="s">
         <v>39</v>
       </c>
       <c r="R15" s="89"/>
-      <c r="S15" s="333" t="s">
+      <c r="S15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="T15" s="89"/>
-      <c r="U15" s="333" t="s">
+      <c r="U15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="V15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W15" s="333" t="s">
+      <c r="W15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="X15" s="89"/>
-      <c r="Y15" s="333" t="s">
+      <c r="Y15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="Z15" s="89"/>
-      <c r="AA15" s="333" t="s">
+      <c r="AA15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AB15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AC15" s="333" t="s">
+      <c r="AC15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AD15" s="89"/>
-      <c r="AE15" s="333" t="s">
+      <c r="AE15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AF15" s="89"/>
-      <c r="AG15" s="333" t="s">
+      <c r="AG15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AH15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AI15" s="336" t="s">
+      <c r="AI15" s="322" t="s">
         <v>39</v>
       </c>
       <c r="AJ15" s="89"/>
-      <c r="AK15" s="333" t="s">
+      <c r="AK15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AL15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AM15" s="333" t="s">
+      <c r="AM15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AN15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AO15" s="336" t="s">
+      <c r="AO15" s="322" t="s">
         <v>39</v>
       </c>
       <c r="AP15" s="89"/>
-      <c r="AQ15" s="333" t="s">
+      <c r="AQ15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AR15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AS15" s="336" t="s">
+      <c r="AS15" s="322" t="s">
         <v>39</v>
       </c>
       <c r="AT15" s="90"/>
-      <c r="AU15" s="333" t="s">
+      <c r="AU15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AV15" s="89"/>
-      <c r="AW15" s="333" t="s">
+      <c r="AW15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AX15" s="89"/>
-      <c r="AY15" s="333" t="s">
+      <c r="AY15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AZ15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="BA15" s="336" t="s">
+      <c r="BA15" s="322" t="s">
         <v>39</v>
       </c>
       <c r="BB15" s="89"/>
-      <c r="BC15" s="333" t="s">
+      <c r="BC15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="BD15" s="89"/>
-      <c r="BE15" s="333" t="s">
+      <c r="BE15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="BF15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="BG15" s="336" t="s">
+      <c r="BG15" s="322" t="s">
         <v>39</v>
       </c>
       <c r="BH15" s="89"/>
-      <c r="BI15" s="334" t="s">
+      <c r="BI15" s="345" t="s">
         <v>40</v>
       </c>
       <c r="BJ15" s="1"/>
       <c r="BK15" s="1"/>
     </row>
-    <row r="16" spans="1:73" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:73" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="67"/>
       <c r="B16" s="68"/>
       <c r="C16" s="69" t="s">
@@ -6292,7 +6295,7 @@
       <c r="D16" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="363"/>
+      <c r="E16" s="306"/>
       <c r="F16" s="270"/>
       <c r="G16" s="270"/>
       <c r="H16" s="270"/>
@@ -6300,79 +6303,79 @@
       <c r="J16" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="349"/>
+      <c r="K16" s="330"/>
       <c r="L16" s="141"/>
-      <c r="M16" s="304"/>
+      <c r="M16" s="313"/>
       <c r="N16" s="72"/>
-      <c r="O16" s="304"/>
+      <c r="O16" s="313"/>
       <c r="P16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="337"/>
+      <c r="Q16" s="323"/>
       <c r="R16" s="72"/>
-      <c r="S16" s="304"/>
+      <c r="S16" s="313"/>
       <c r="T16" s="72"/>
-      <c r="U16" s="304"/>
+      <c r="U16" s="313"/>
       <c r="V16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="W16" s="304"/>
+      <c r="W16" s="313"/>
       <c r="X16" s="72"/>
-      <c r="Y16" s="304"/>
+      <c r="Y16" s="313"/>
       <c r="Z16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AA16" s="304"/>
+      <c r="AA16" s="313"/>
       <c r="AB16" s="72"/>
-      <c r="AC16" s="304"/>
+      <c r="AC16" s="313"/>
       <c r="AD16" s="72"/>
-      <c r="AE16" s="304"/>
+      <c r="AE16" s="313"/>
       <c r="AF16" s="72"/>
-      <c r="AG16" s="304"/>
+      <c r="AG16" s="313"/>
       <c r="AH16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI16" s="337"/>
+      <c r="AI16" s="323"/>
       <c r="AJ16" s="72"/>
-      <c r="AK16" s="304"/>
+      <c r="AK16" s="313"/>
       <c r="AL16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AM16" s="304"/>
+      <c r="AM16" s="313"/>
       <c r="AN16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AO16" s="337"/>
+      <c r="AO16" s="323"/>
       <c r="AP16" s="72"/>
-      <c r="AQ16" s="304"/>
+      <c r="AQ16" s="313"/>
       <c r="AR16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AS16" s="337"/>
+      <c r="AS16" s="323"/>
       <c r="AT16" s="92"/>
-      <c r="AU16" s="304"/>
+      <c r="AU16" s="313"/>
       <c r="AV16" s="72"/>
-      <c r="AW16" s="304"/>
+      <c r="AW16" s="313"/>
       <c r="AX16" s="72"/>
-      <c r="AY16" s="304"/>
+      <c r="AY16" s="313"/>
       <c r="AZ16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BA16" s="337"/>
+      <c r="BA16" s="323"/>
       <c r="BB16" s="72"/>
-      <c r="BC16" s="304"/>
+      <c r="BC16" s="313"/>
       <c r="BD16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BE16" s="304"/>
+      <c r="BE16" s="313"/>
       <c r="BF16" s="72"/>
-      <c r="BG16" s="337"/>
+      <c r="BG16" s="323"/>
       <c r="BH16" s="72"/>
-      <c r="BI16" s="335"/>
+      <c r="BI16" s="343"/>
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
     </row>
-    <row r="17" spans="1:63" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:63" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="73" t="s">
         <v>67</v>
       </c>
@@ -6517,7 +6520,7 @@
       <c r="BJ17" s="1"/>
       <c r="BK17" s="1"/>
     </row>
-    <row r="18" spans="1:63" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:63" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>70</v>
       </c>
@@ -6530,7 +6533,7 @@
       <c r="D18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="362">
+      <c r="E18" s="305">
         <v>12</v>
       </c>
       <c r="F18" s="273"/>
@@ -6540,123 +6543,123 @@
       <c r="J18" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="345" t="s">
+      <c r="K18" s="326" t="s">
         <v>39</v>
       </c>
       <c r="L18" s="152"/>
-      <c r="M18" s="303" t="s">
+      <c r="M18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="N18" s="25"/>
-      <c r="O18" s="303" t="s">
+      <c r="O18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="P18" s="25"/>
-      <c r="Q18" s="303" t="s">
+      <c r="Q18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="R18" s="25"/>
-      <c r="S18" s="303" t="s">
+      <c r="S18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="T18" s="25"/>
-      <c r="U18" s="303" t="s">
+      <c r="U18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="V18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="W18" s="303" t="s">
+      <c r="W18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="X18" s="25"/>
-      <c r="Y18" s="303" t="s">
+      <c r="Y18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="Z18" s="25"/>
-      <c r="AA18" s="303" t="s">
+      <c r="AA18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AB18" s="25"/>
-      <c r="AC18" s="303" t="s">
+      <c r="AC18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AD18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AE18" s="303" t="s">
+      <c r="AE18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AF18" s="25"/>
-      <c r="AG18" s="303" t="s">
+      <c r="AG18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AH18" s="52"/>
-      <c r="AI18" s="307" t="s">
+      <c r="AI18" s="346" t="s">
         <v>39</v>
       </c>
       <c r="AJ18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AK18" s="303" t="s">
+      <c r="AK18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AL18" s="25"/>
-      <c r="AM18" s="303" t="s">
+      <c r="AM18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AN18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AO18" s="303" t="s">
+      <c r="AO18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AP18" s="25"/>
-      <c r="AQ18" s="303" t="s">
+      <c r="AQ18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AR18" s="25"/>
-      <c r="AS18" s="303" t="s">
+      <c r="AS18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AT18" s="25"/>
-      <c r="AU18" s="303" t="s">
+      <c r="AU18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AV18" s="25"/>
-      <c r="AW18" s="303" t="s">
+      <c r="AW18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AX18" s="25"/>
-      <c r="AY18" s="303" t="s">
+      <c r="AY18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AZ18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BA18" s="307" t="s">
+      <c r="BA18" s="346" t="s">
         <v>39</v>
       </c>
       <c r="BB18" s="25"/>
-      <c r="BC18" s="303" t="s">
+      <c r="BC18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BD18" s="25"/>
-      <c r="BE18" s="303" t="s">
+      <c r="BE18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BF18" s="25"/>
-      <c r="BG18" s="303" t="s">
+      <c r="BG18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BH18" s="25"/>
-      <c r="BI18" s="321" t="s">
+      <c r="BI18" s="359" t="s">
         <v>39</v>
       </c>
       <c r="BJ18" s="1"/>
       <c r="BK18" s="1"/>
     </row>
-    <row r="19" spans="1:63" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:63" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="93"/>
       <c r="B19" s="40"/>
       <c r="C19" s="17" t="s">
@@ -6665,7 +6668,7 @@
       <c r="D19" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="363"/>
+      <c r="E19" s="306"/>
       <c r="F19" s="273"/>
       <c r="G19" s="273"/>
       <c r="H19" s="273"/>
@@ -6673,71 +6676,71 @@
       <c r="J19" s="255" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="346"/>
+      <c r="K19" s="327"/>
       <c r="L19" s="230"/>
-      <c r="M19" s="320"/>
+      <c r="M19" s="325"/>
       <c r="N19" s="43"/>
-      <c r="O19" s="320"/>
+      <c r="O19" s="325"/>
       <c r="P19" s="43"/>
-      <c r="Q19" s="320"/>
+      <c r="Q19" s="325"/>
       <c r="R19" s="43"/>
-      <c r="S19" s="320"/>
+      <c r="S19" s="325"/>
       <c r="T19" s="43"/>
-      <c r="U19" s="320"/>
+      <c r="U19" s="325"/>
       <c r="V19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="W19" s="320"/>
+      <c r="W19" s="325"/>
       <c r="X19" s="43"/>
-      <c r="Y19" s="320"/>
+      <c r="Y19" s="325"/>
       <c r="Z19" s="43"/>
-      <c r="AA19" s="320"/>
+      <c r="AA19" s="325"/>
       <c r="AB19" s="43"/>
-      <c r="AC19" s="320"/>
+      <c r="AC19" s="325"/>
       <c r="AD19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AE19" s="320"/>
+      <c r="AE19" s="325"/>
       <c r="AF19" s="43"/>
-      <c r="AG19" s="320"/>
+      <c r="AG19" s="325"/>
       <c r="AH19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AI19" s="332"/>
+      <c r="AI19" s="347"/>
       <c r="AJ19" s="43"/>
-      <c r="AK19" s="320"/>
+      <c r="AK19" s="325"/>
       <c r="AL19" s="43"/>
-      <c r="AM19" s="320"/>
+      <c r="AM19" s="325"/>
       <c r="AN19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AO19" s="320"/>
+      <c r="AO19" s="325"/>
       <c r="AP19" s="43"/>
-      <c r="AQ19" s="320"/>
+      <c r="AQ19" s="325"/>
       <c r="AR19" s="43"/>
-      <c r="AS19" s="320"/>
+      <c r="AS19" s="325"/>
       <c r="AT19" s="43"/>
-      <c r="AU19" s="320"/>
+      <c r="AU19" s="325"/>
       <c r="AV19" s="43"/>
-      <c r="AW19" s="320"/>
+      <c r="AW19" s="325"/>
       <c r="AX19" s="43"/>
-      <c r="AY19" s="320"/>
+      <c r="AY19" s="325"/>
       <c r="AZ19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="BA19" s="332"/>
+      <c r="BA19" s="347"/>
       <c r="BB19" s="43"/>
-      <c r="BC19" s="320"/>
+      <c r="BC19" s="325"/>
       <c r="BD19" s="43"/>
-      <c r="BE19" s="320"/>
+      <c r="BE19" s="325"/>
       <c r="BF19" s="43"/>
-      <c r="BG19" s="320"/>
+      <c r="BG19" s="325"/>
       <c r="BH19" s="43"/>
-      <c r="BI19" s="322"/>
+      <c r="BI19" s="360"/>
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
     </row>
-    <row r="20" spans="1:63" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:63" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="73" t="s">
         <v>74</v>
       </c>
@@ -6876,7 +6879,7 @@
       <c r="BJ20" s="1"/>
       <c r="BK20" s="1"/>
     </row>
-    <row r="21" spans="1:63" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:63" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="73" t="s">
         <v>77</v>
       </c>
@@ -7013,7 +7016,7 @@
       <c r="BJ21" s="1"/>
       <c r="BK21" s="1"/>
     </row>
-    <row r="22" spans="1:63" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:63" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="73" t="s">
         <v>79</v>
       </c>
@@ -7159,7 +7162,7 @@
       <c r="BJ22" s="1"/>
       <c r="BK22" s="1"/>
     </row>
-    <row r="23" spans="1:63" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:63" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="73" t="s">
         <v>81</v>
       </c>
@@ -7298,7 +7301,7 @@
       <c r="BJ23" s="1"/>
       <c r="BK23" s="1"/>
     </row>
-    <row r="24" spans="1:63" ht="20" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:63" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>84</v>
       </c>
@@ -7311,7 +7314,7 @@
       <c r="D24" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="362">
+      <c r="E24" s="305">
         <v>12</v>
       </c>
       <c r="F24" s="273"/>
@@ -7319,127 +7322,127 @@
       <c r="H24" s="273"/>
       <c r="I24" s="215"/>
       <c r="J24" s="257"/>
-      <c r="K24" s="345" t="s">
+      <c r="K24" s="326" t="s">
         <v>39</v>
       </c>
       <c r="L24" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="303" t="s">
+      <c r="M24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="N24" s="25"/>
-      <c r="O24" s="303" t="s">
+      <c r="O24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="P24" s="25"/>
-      <c r="Q24" s="303" t="s">
+      <c r="Q24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="R24" s="25"/>
-      <c r="S24" s="303" t="s">
+      <c r="S24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="T24" s="25"/>
-      <c r="U24" s="303" t="s">
+      <c r="U24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="V24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="W24" s="307" t="s">
+      <c r="W24" s="346" t="s">
         <v>39</v>
       </c>
       <c r="X24" s="25"/>
-      <c r="Y24" s="303" t="s">
+      <c r="Y24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="Z24" s="25"/>
-      <c r="AA24" s="303" t="s">
+      <c r="AA24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AB24" s="25"/>
-      <c r="AC24" s="303" t="s">
+      <c r="AC24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AD24" s="25"/>
-      <c r="AE24" s="303" t="s">
+      <c r="AE24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AF24" s="25"/>
-      <c r="AG24" s="303" t="s">
+      <c r="AG24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AH24" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="AI24" s="307" t="s">
+      <c r="AI24" s="346" t="s">
         <v>39</v>
       </c>
       <c r="AJ24" s="89"/>
-      <c r="AK24" s="303" t="s">
+      <c r="AK24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AL24" s="25"/>
-      <c r="AM24" s="303" t="s">
+      <c r="AM24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AN24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AO24" s="307" t="s">
+      <c r="AO24" s="346" t="s">
         <v>39</v>
       </c>
       <c r="AP24" s="25"/>
-      <c r="AQ24" s="303" t="s">
+      <c r="AQ24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AR24" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AS24" s="303" t="s">
+      <c r="AS24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AT24" s="25"/>
-      <c r="AU24" s="303" t="s">
+      <c r="AU24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AV24" s="25"/>
-      <c r="AW24" s="303" t="s">
+      <c r="AW24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AX24" s="25"/>
-      <c r="AY24" s="303" t="s">
+      <c r="AY24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AZ24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BA24" s="307" t="s">
+      <c r="BA24" s="346" t="s">
         <v>39</v>
       </c>
       <c r="BB24" s="25"/>
-      <c r="BC24" s="303" t="s">
+      <c r="BC24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BD24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BE24" s="303" t="s">
+      <c r="BE24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BF24" s="25"/>
-      <c r="BG24" s="303" t="s">
+      <c r="BG24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BH24" s="25"/>
-      <c r="BI24" s="303" t="s">
+      <c r="BI24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BJ24" s="1"/>
       <c r="BK24" s="1"/>
     </row>
-    <row r="25" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:63" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="93"/>
       <c r="B25" s="40"/>
       <c r="C25" s="97" t="s">
@@ -7448,7 +7451,7 @@
       <c r="D25" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="363"/>
+      <c r="E25" s="306"/>
       <c r="F25" s="273"/>
       <c r="G25" s="273"/>
       <c r="H25" s="273"/>
@@ -7456,68 +7459,68 @@
       <c r="J25" s="255" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="346"/>
+      <c r="K25" s="327"/>
       <c r="L25" s="230"/>
-      <c r="M25" s="320"/>
+      <c r="M25" s="325"/>
       <c r="N25" s="43"/>
-      <c r="O25" s="320"/>
+      <c r="O25" s="325"/>
       <c r="P25" s="43"/>
-      <c r="Q25" s="320"/>
+      <c r="Q25" s="325"/>
       <c r="R25" s="43"/>
-      <c r="S25" s="320"/>
+      <c r="S25" s="325"/>
       <c r="T25" s="43"/>
-      <c r="U25" s="320"/>
+      <c r="U25" s="325"/>
       <c r="V25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="W25" s="332"/>
+      <c r="W25" s="347"/>
       <c r="X25" s="43"/>
-      <c r="Y25" s="320"/>
+      <c r="Y25" s="325"/>
       <c r="Z25" s="43"/>
-      <c r="AA25" s="320"/>
+      <c r="AA25" s="325"/>
       <c r="AB25" s="43"/>
-      <c r="AC25" s="320"/>
+      <c r="AC25" s="325"/>
       <c r="AD25" s="43"/>
-      <c r="AE25" s="320"/>
+      <c r="AE25" s="325"/>
       <c r="AF25" s="43"/>
-      <c r="AG25" s="320"/>
+      <c r="AG25" s="325"/>
       <c r="AH25" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI25" s="332"/>
+      <c r="AI25" s="347"/>
       <c r="AJ25" s="43"/>
-      <c r="AK25" s="320"/>
+      <c r="AK25" s="325"/>
       <c r="AL25" s="43"/>
-      <c r="AM25" s="320"/>
+      <c r="AM25" s="325"/>
       <c r="AN25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AO25" s="332"/>
+      <c r="AO25" s="347"/>
       <c r="AP25" s="43"/>
-      <c r="AQ25" s="320"/>
+      <c r="AQ25" s="325"/>
       <c r="AR25" s="43"/>
-      <c r="AS25" s="320"/>
+      <c r="AS25" s="325"/>
       <c r="AT25" s="43"/>
-      <c r="AU25" s="320"/>
+      <c r="AU25" s="325"/>
       <c r="AV25" s="43"/>
-      <c r="AW25" s="320"/>
+      <c r="AW25" s="325"/>
       <c r="AX25" s="43"/>
-      <c r="AY25" s="320"/>
+      <c r="AY25" s="325"/>
       <c r="AZ25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="BA25" s="332"/>
-      <c r="BC25" s="320"/>
+      <c r="BA25" s="347"/>
+      <c r="BC25" s="325"/>
       <c r="BD25" s="43"/>
-      <c r="BE25" s="320"/>
+      <c r="BE25" s="325"/>
       <c r="BF25" s="43"/>
-      <c r="BG25" s="320"/>
+      <c r="BG25" s="325"/>
       <c r="BH25" s="43"/>
-      <c r="BI25" s="320"/>
+      <c r="BI25" s="325"/>
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
     </row>
-    <row r="26" spans="1:63" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:63" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="73" t="s">
         <v>87</v>
       </c>
@@ -7664,7 +7667,7 @@
       <c r="BJ26" s="1"/>
       <c r="BK26" s="1"/>
     </row>
-    <row r="27" spans="1:63" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:63" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="73" t="s">
         <v>89</v>
       </c>
@@ -7812,7 +7815,7 @@
       <c r="BJ27" s="1"/>
       <c r="BK27" s="1"/>
     </row>
-    <row r="28" spans="1:63" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:63" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="73" t="s">
         <v>91</v>
       </c>
@@ -7958,7 +7961,7 @@
       <c r="BJ28" s="1"/>
       <c r="BK28" s="1"/>
     </row>
-    <row r="29" spans="1:63" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:63" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="99" t="s">
         <v>94</v>
       </c>
@@ -8101,7 +8104,7 @@
       <c r="BJ29" s="1"/>
       <c r="BK29" s="1"/>
     </row>
-    <row r="30" spans="1:63" ht="20" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:63" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="108" t="s">
         <v>96</v>
       </c>
@@ -8114,7 +8117,7 @@
       <c r="D30" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="366">
+      <c r="E30" s="309">
         <v>21</v>
       </c>
       <c r="F30" s="202"/>
@@ -8124,7 +8127,7 @@
       <c r="J30" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K30" s="329" t="s">
+      <c r="K30" s="348" t="s">
         <v>39</v>
       </c>
       <c r="L30" s="227"/>
@@ -8140,7 +8143,7 @@
         <v>40</v>
       </c>
       <c r="R30" s="66"/>
-      <c r="S30" s="318" t="s">
+      <c r="S30" s="351" t="s">
         <v>39</v>
       </c>
       <c r="T30" s="66"/>
@@ -8150,7 +8153,7 @@
       <c r="V30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="W30" s="318" t="s">
+      <c r="W30" s="351" t="s">
         <v>39</v>
       </c>
       <c r="X30" s="66"/>
@@ -8176,11 +8179,11 @@
       <c r="AH30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AI30" s="318" t="s">
+      <c r="AI30" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AJ30" s="66"/>
-      <c r="AK30" s="318" t="s">
+      <c r="AK30" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AL30" s="65" t="s">
@@ -8192,7 +8195,7 @@
       <c r="AN30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AO30" s="318" t="s">
+      <c r="AO30" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AP30" s="66"/>
@@ -8208,7 +8211,7 @@
         <v>40</v>
       </c>
       <c r="AV30" s="66"/>
-      <c r="AW30" s="318" t="s">
+      <c r="AW30" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AX30" s="66"/>
@@ -8216,13 +8219,13 @@
         <v>40</v>
       </c>
       <c r="AZ30" s="66"/>
-      <c r="BA30" s="318" t="s">
+      <c r="BA30" s="351" t="s">
         <v>39</v>
       </c>
       <c r="BB30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BC30" s="318" t="s">
+      <c r="BC30" s="351" t="s">
         <v>39</v>
       </c>
       <c r="BD30" s="66"/>
@@ -8232,17 +8235,17 @@
       <c r="BF30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BG30" s="323" t="s">
+      <c r="BG30" s="354" t="s">
         <v>40</v>
       </c>
       <c r="BH30" s="66"/>
-      <c r="BI30" s="323" t="s">
+      <c r="BI30" s="354" t="s">
         <v>40</v>
       </c>
       <c r="BJ30" s="1"/>
       <c r="BK30" s="1"/>
     </row>
-    <row r="31" spans="1:63" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:63" ht="20" x14ac:dyDescent="0.25">
       <c r="A31" s="111"/>
       <c r="B31" s="6"/>
       <c r="C31" s="7" t="s">
@@ -8251,7 +8254,7 @@
       <c r="D31" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="367"/>
+      <c r="E31" s="310"/>
       <c r="F31" s="273"/>
       <c r="G31" s="273"/>
       <c r="H31" s="273"/>
@@ -8259,70 +8262,70 @@
       <c r="J31" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="330"/>
+      <c r="K31" s="349"/>
       <c r="L31" s="232"/>
-      <c r="M31" s="327"/>
+      <c r="M31" s="333"/>
       <c r="N31" s="21"/>
-      <c r="O31" s="327"/>
+      <c r="O31" s="333"/>
       <c r="P31" s="21"/>
-      <c r="Q31" s="327"/>
+      <c r="Q31" s="333"/>
       <c r="R31" s="21"/>
-      <c r="S31" s="326"/>
+      <c r="S31" s="352"/>
       <c r="T31" s="21"/>
-      <c r="U31" s="327"/>
+      <c r="U31" s="333"/>
       <c r="V31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="W31" s="326"/>
+      <c r="W31" s="352"/>
       <c r="X31" s="21"/>
-      <c r="Y31" s="327"/>
+      <c r="Y31" s="333"/>
       <c r="Z31" s="21"/>
-      <c r="AA31" s="327"/>
+      <c r="AA31" s="333"/>
       <c r="AB31" s="21"/>
-      <c r="AC31" s="327"/>
+      <c r="AC31" s="333"/>
       <c r="AD31" s="21"/>
-      <c r="AE31" s="327"/>
+      <c r="AE31" s="333"/>
       <c r="AF31" s="21"/>
-      <c r="AG31" s="327"/>
+      <c r="AG31" s="333"/>
       <c r="AH31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AI31" s="326"/>
-      <c r="AK31" s="326"/>
+      <c r="AI31" s="352"/>
+      <c r="AK31" s="352"/>
       <c r="AL31" s="21"/>
-      <c r="AM31" s="327"/>
+      <c r="AM31" s="333"/>
       <c r="AN31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AO31" s="326"/>
+      <c r="AO31" s="352"/>
       <c r="AP31" s="21"/>
-      <c r="AQ31" s="327"/>
+      <c r="AQ31" s="333"/>
       <c r="AR31" s="21"/>
-      <c r="AS31" s="327"/>
+      <c r="AS31" s="333"/>
       <c r="AT31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AU31" s="327"/>
+      <c r="AU31" s="333"/>
       <c r="AV31" s="21"/>
-      <c r="AW31" s="326"/>
+      <c r="AW31" s="352"/>
       <c r="AX31" s="21"/>
-      <c r="AY31" s="327"/>
+      <c r="AY31" s="333"/>
       <c r="AZ31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="BA31" s="326"/>
+      <c r="BA31" s="352"/>
       <c r="BB31" s="21"/>
-      <c r="BC31" s="326"/>
+      <c r="BC31" s="352"/>
       <c r="BD31" s="21"/>
-      <c r="BE31" s="327"/>
+      <c r="BE31" s="333"/>
       <c r="BF31" s="21"/>
-      <c r="BG31" s="328"/>
+      <c r="BG31" s="355"/>
       <c r="BH31" s="21"/>
-      <c r="BI31" s="328"/>
+      <c r="BI31" s="355"/>
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
     </row>
-    <row r="32" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:63" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="112"/>
       <c r="B32" s="113"/>
       <c r="C32" s="114" t="s">
@@ -8331,7 +8334,7 @@
       <c r="D32" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="368"/>
+      <c r="E32" s="311"/>
       <c r="F32" s="198"/>
       <c r="G32" s="198"/>
       <c r="H32" s="198"/>
@@ -8339,75 +8342,75 @@
       <c r="J32" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="331"/>
+      <c r="K32" s="350"/>
       <c r="L32" s="233"/>
-      <c r="M32" s="311"/>
+      <c r="M32" s="331"/>
       <c r="N32" s="117"/>
-      <c r="O32" s="311"/>
+      <c r="O32" s="331"/>
       <c r="P32" s="117"/>
-      <c r="Q32" s="311"/>
+      <c r="Q32" s="331"/>
       <c r="R32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="S32" s="319"/>
+      <c r="S32" s="353"/>
       <c r="T32" s="117"/>
-      <c r="U32" s="311"/>
+      <c r="U32" s="331"/>
       <c r="V32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="W32" s="319"/>
+      <c r="W32" s="353"/>
       <c r="X32" s="118"/>
-      <c r="Y32" s="311"/>
+      <c r="Y32" s="331"/>
       <c r="Z32" s="117"/>
-      <c r="AA32" s="311"/>
+      <c r="AA32" s="331"/>
       <c r="AB32" s="117"/>
-      <c r="AC32" s="311"/>
+      <c r="AC32" s="331"/>
       <c r="AD32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AE32" s="311"/>
+      <c r="AE32" s="331"/>
       <c r="AF32" s="117"/>
-      <c r="AG32" s="311"/>
+      <c r="AG32" s="331"/>
       <c r="AH32" s="118"/>
-      <c r="AI32" s="319"/>
+      <c r="AI32" s="353"/>
       <c r="AJ32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AK32" s="319"/>
+      <c r="AK32" s="353"/>
       <c r="AL32" s="117"/>
-      <c r="AM32" s="311"/>
+      <c r="AM32" s="331"/>
       <c r="AN32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AO32" s="319"/>
+      <c r="AO32" s="353"/>
       <c r="AP32" s="117"/>
-      <c r="AQ32" s="311"/>
+      <c r="AQ32" s="331"/>
       <c r="AR32" s="117"/>
-      <c r="AS32" s="311"/>
+      <c r="AS32" s="331"/>
       <c r="AT32" s="118"/>
-      <c r="AU32" s="311"/>
+      <c r="AU32" s="331"/>
       <c r="AV32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AW32" s="319"/>
+      <c r="AW32" s="353"/>
       <c r="AX32" s="117"/>
-      <c r="AY32" s="311"/>
+      <c r="AY32" s="331"/>
       <c r="AZ32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="BA32" s="319"/>
+      <c r="BA32" s="353"/>
       <c r="BB32" s="117"/>
-      <c r="BC32" s="319"/>
+      <c r="BC32" s="353"/>
       <c r="BD32" s="117"/>
-      <c r="BE32" s="311"/>
+      <c r="BE32" s="331"/>
       <c r="BF32" s="117"/>
-      <c r="BG32" s="324"/>
+      <c r="BG32" s="356"/>
       <c r="BH32" s="117"/>
-      <c r="BI32" s="324"/>
+      <c r="BI32" s="356"/>
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
     </row>
-    <row r="33" spans="1:63" ht="20" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:63" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="108" t="s">
         <v>100</v>
       </c>
@@ -8420,7 +8423,7 @@
       <c r="D33" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="366">
+      <c r="E33" s="309">
         <v>20</v>
       </c>
       <c r="F33" s="202"/>
@@ -8430,7 +8433,7 @@
       <c r="J33" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K33" s="347" t="s">
+      <c r="K33" s="328" t="s">
         <v>39</v>
       </c>
       <c r="L33" s="227"/>
@@ -8458,7 +8461,7 @@
       <c r="V33" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="W33" s="325" t="s">
+      <c r="W33" s="344" t="s">
         <v>39</v>
       </c>
       <c r="X33" s="66"/>
@@ -8486,7 +8489,7 @@
       <c r="AH33" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AI33" s="325" t="s">
+      <c r="AI33" s="344" t="s">
         <v>39</v>
       </c>
       <c r="AJ33" s="66"/>
@@ -8530,7 +8533,7 @@
       <c r="AZ33" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BA33" s="325" t="s">
+      <c r="BA33" s="344" t="s">
         <v>39</v>
       </c>
       <c r="BB33" s="66"/>
@@ -8544,17 +8547,17 @@
         <v>40</v>
       </c>
       <c r="BF33" s="66"/>
-      <c r="BG33" s="315" t="s">
+      <c r="BG33" s="357" t="s">
         <v>39</v>
       </c>
       <c r="BH33" s="66"/>
-      <c r="BI33" s="323" t="s">
+      <c r="BI33" s="354" t="s">
         <v>40</v>
       </c>
       <c r="BJ33" s="1"/>
       <c r="BK33" s="1"/>
     </row>
-    <row r="34" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:63" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="112"/>
       <c r="B34" s="120"/>
       <c r="C34" s="114" t="s">
@@ -8563,7 +8566,7 @@
       <c r="D34" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="368"/>
+      <c r="E34" s="311"/>
       <c r="F34" s="198"/>
       <c r="G34" s="198"/>
       <c r="H34" s="198"/>
@@ -8571,81 +8574,81 @@
       <c r="J34" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="348"/>
+      <c r="K34" s="329"/>
       <c r="L34" s="233"/>
-      <c r="M34" s="311"/>
+      <c r="M34" s="331"/>
       <c r="N34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="311"/>
+      <c r="O34" s="331"/>
       <c r="P34" s="117"/>
-      <c r="Q34" s="311"/>
+      <c r="Q34" s="331"/>
       <c r="R34" s="117"/>
-      <c r="S34" s="311"/>
+      <c r="S34" s="331"/>
       <c r="T34" s="117"/>
-      <c r="U34" s="311"/>
+      <c r="U34" s="331"/>
       <c r="V34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="W34" s="308"/>
+      <c r="W34" s="358"/>
       <c r="X34" s="117"/>
-      <c r="Y34" s="311"/>
+      <c r="Y34" s="331"/>
       <c r="Z34" s="117"/>
-      <c r="AA34" s="311"/>
+      <c r="AA34" s="331"/>
       <c r="AB34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AC34" s="311"/>
+      <c r="AC34" s="331"/>
       <c r="AD34" s="117"/>
-      <c r="AE34" s="311"/>
+      <c r="AE34" s="331"/>
       <c r="AF34" s="117"/>
-      <c r="AG34" s="311"/>
+      <c r="AG34" s="331"/>
       <c r="AH34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AI34" s="308"/>
+      <c r="AI34" s="358"/>
       <c r="AJ34" s="117"/>
-      <c r="AK34" s="311"/>
+      <c r="AK34" s="331"/>
       <c r="AL34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AM34" s="311"/>
+      <c r="AM34" s="331"/>
       <c r="AN34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AO34" s="311"/>
+      <c r="AO34" s="331"/>
       <c r="AP34" s="117"/>
-      <c r="AQ34" s="311"/>
+      <c r="AQ34" s="331"/>
       <c r="AR34" s="118"/>
-      <c r="AS34" s="311"/>
+      <c r="AS34" s="331"/>
       <c r="AT34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AU34" s="311"/>
+      <c r="AU34" s="331"/>
       <c r="AV34" s="117"/>
-      <c r="AW34" s="311"/>
+      <c r="AW34" s="331"/>
       <c r="AX34" s="117"/>
-      <c r="AY34" s="311"/>
+      <c r="AY34" s="331"/>
       <c r="AZ34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="BA34" s="308"/>
+      <c r="BA34" s="358"/>
       <c r="BB34" s="117"/>
-      <c r="BC34" s="311"/>
+      <c r="BC34" s="331"/>
       <c r="BD34" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="BE34" s="311"/>
+      <c r="BE34" s="331"/>
       <c r="BF34" s="192" t="s">
         <v>63</v>
       </c>
-      <c r="BG34" s="308"/>
+      <c r="BG34" s="358"/>
       <c r="BH34" s="117"/>
-      <c r="BI34" s="324"/>
+      <c r="BI34" s="356"/>
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1"/>
     </row>
-    <row r="35" spans="1:63" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:63" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="121" t="s">
         <v>104</v>
       </c>
@@ -8796,7 +8799,7 @@
       <c r="BJ35" s="1"/>
       <c r="BK35" s="1"/>
     </row>
-    <row r="36" spans="1:63" ht="20" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:63" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A36" s="108" t="s">
         <v>106</v>
       </c>
@@ -8809,7 +8812,7 @@
       <c r="D36" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="366">
+      <c r="E36" s="309">
         <v>19</v>
       </c>
       <c r="F36" s="274"/>
@@ -8819,7 +8822,7 @@
       <c r="J36" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K36" s="350" t="s">
+      <c r="K36" s="320" t="s">
         <v>40</v>
       </c>
       <c r="L36" s="227"/>
@@ -8845,7 +8848,7 @@
         <v>40</v>
       </c>
       <c r="V36" s="66"/>
-      <c r="W36" s="318" t="s">
+      <c r="W36" s="351" t="s">
         <v>39</v>
       </c>
       <c r="X36" s="65" t="s">
@@ -8859,7 +8862,7 @@
         <v>40</v>
       </c>
       <c r="AB36" s="66"/>
-      <c r="AC36" s="318" t="s">
+      <c r="AC36" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AD36" s="65" t="s">
@@ -8875,7 +8878,7 @@
       <c r="AH36" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AI36" s="318" t="s">
+      <c r="AI36" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AJ36" s="66"/>
@@ -8889,7 +8892,7 @@
       <c r="AN36" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AO36" s="318" t="s">
+      <c r="AO36" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AP36" s="66"/>
@@ -8907,7 +8910,7 @@
       <c r="AV36" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AW36" s="318" t="s">
+      <c r="AW36" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AX36" s="66"/>
@@ -8917,7 +8920,7 @@
       <c r="AZ36" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BA36" s="318" t="s">
+      <c r="BA36" s="351" t="s">
         <v>39</v>
       </c>
       <c r="BB36" s="66"/>
@@ -8937,13 +8940,13 @@
       <c r="BH36" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="BI36" s="321" t="s">
+      <c r="BI36" s="359" t="s">
         <v>39</v>
       </c>
       <c r="BJ36" s="1"/>
       <c r="BK36" s="1"/>
     </row>
-    <row r="37" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:63" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="112"/>
       <c r="B37" s="113"/>
       <c r="C37" s="114" t="s">
@@ -8952,7 +8955,7 @@
       <c r="D37" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="368"/>
+      <c r="E37" s="311"/>
       <c r="F37" s="275"/>
       <c r="G37" s="275"/>
       <c r="H37" s="275"/>
@@ -8960,79 +8963,79 @@
       <c r="J37" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="K37" s="351"/>
+      <c r="K37" s="332"/>
       <c r="L37" s="233"/>
-      <c r="M37" s="311"/>
+      <c r="M37" s="331"/>
       <c r="N37" s="117"/>
-      <c r="O37" s="311"/>
+      <c r="O37" s="331"/>
       <c r="P37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="Q37" s="311"/>
+      <c r="Q37" s="331"/>
       <c r="R37" s="117"/>
-      <c r="S37" s="311"/>
+      <c r="S37" s="331"/>
       <c r="T37" s="117"/>
-      <c r="U37" s="311"/>
+      <c r="U37" s="331"/>
       <c r="V37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="W37" s="319"/>
+      <c r="W37" s="353"/>
       <c r="X37" s="117"/>
-      <c r="Y37" s="311"/>
+      <c r="Y37" s="331"/>
       <c r="Z37" s="117"/>
-      <c r="AA37" s="311"/>
+      <c r="AA37" s="331"/>
       <c r="AB37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AC37" s="319"/>
+      <c r="AC37" s="353"/>
       <c r="AD37" s="117"/>
-      <c r="AE37" s="311"/>
+      <c r="AE37" s="331"/>
       <c r="AF37" s="117"/>
-      <c r="AG37" s="311"/>
+      <c r="AG37" s="331"/>
       <c r="AH37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AI37" s="319"/>
+      <c r="AI37" s="353"/>
       <c r="AJ37" s="117"/>
-      <c r="AK37" s="311"/>
+      <c r="AK37" s="331"/>
       <c r="AL37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AM37" s="311"/>
+      <c r="AM37" s="331"/>
       <c r="AN37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AO37" s="319"/>
+      <c r="AO37" s="353"/>
       <c r="AP37" s="117"/>
-      <c r="AQ37" s="311"/>
+      <c r="AQ37" s="331"/>
       <c r="AR37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AS37" s="311"/>
+      <c r="AS37" s="331"/>
       <c r="AT37" s="117"/>
-      <c r="AU37" s="311"/>
+      <c r="AU37" s="331"/>
       <c r="AV37" s="117"/>
-      <c r="AW37" s="319"/>
+      <c r="AW37" s="353"/>
       <c r="AX37" s="117"/>
-      <c r="AY37" s="311"/>
+      <c r="AY37" s="331"/>
       <c r="AZ37" s="117"/>
-      <c r="BA37" s="319"/>
+      <c r="BA37" s="353"/>
       <c r="BB37" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BC37" s="311"/>
+      <c r="BC37" s="331"/>
       <c r="BD37" s="117"/>
-      <c r="BE37" s="311"/>
+      <c r="BE37" s="331"/>
       <c r="BF37" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BG37" s="311"/>
+      <c r="BG37" s="331"/>
       <c r="BH37" s="117"/>
-      <c r="BI37" s="322"/>
+      <c r="BI37" s="360"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
     </row>
-    <row r="38" spans="1:63" ht="20" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:63" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>110</v>
       </c>
@@ -9045,7 +9048,7 @@
       <c r="D38" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="366">
+      <c r="E38" s="309">
         <v>20</v>
       </c>
       <c r="F38" s="274"/>
@@ -9055,7 +9058,7 @@
       <c r="J38" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K38" s="350" t="s">
+      <c r="K38" s="320" t="s">
         <v>40</v>
       </c>
       <c r="L38" s="227"/>
@@ -9073,7 +9076,7 @@
       <c r="R38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="S38" s="318" t="s">
+      <c r="S38" s="351" t="s">
         <v>39</v>
       </c>
       <c r="T38" s="66"/>
@@ -9095,13 +9098,13 @@
         <v>40</v>
       </c>
       <c r="AB38" s="66"/>
-      <c r="AC38" s="316" t="s">
+      <c r="AC38" s="361" t="s">
         <v>40</v>
       </c>
       <c r="AD38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AE38" s="318" t="s">
+      <c r="AE38" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AF38" s="66"/>
@@ -9121,7 +9124,7 @@
       <c r="AL38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AM38" s="318" t="s">
+      <c r="AM38" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AN38" s="65" t="s">
@@ -9145,7 +9148,7 @@
       <c r="AV38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AW38" s="318" t="s">
+      <c r="AW38" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AX38" s="66"/>
@@ -9169,7 +9172,7 @@
       <c r="BF38" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="BG38" s="315" t="s">
+      <c r="BG38" s="357" t="s">
         <v>39</v>
       </c>
       <c r="BH38" s="66"/>
@@ -9179,7 +9182,7 @@
       <c r="BJ38" s="1"/>
       <c r="BK38" s="1"/>
     </row>
-    <row r="39" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:63" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="67"/>
       <c r="B39" s="68"/>
       <c r="C39" s="130" t="s">
@@ -9188,7 +9191,7 @@
       <c r="D39" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="E39" s="363"/>
+      <c r="E39" s="306"/>
       <c r="F39" s="276"/>
       <c r="G39" s="276"/>
       <c r="H39" s="276"/>
@@ -9196,81 +9199,81 @@
       <c r="J39" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K39" s="352"/>
+      <c r="K39" s="321"/>
       <c r="L39" s="141"/>
-      <c r="M39" s="304"/>
+      <c r="M39" s="313"/>
       <c r="N39" s="72"/>
-      <c r="O39" s="304"/>
+      <c r="O39" s="313"/>
       <c r="P39" s="72"/>
-      <c r="Q39" s="304"/>
+      <c r="Q39" s="313"/>
       <c r="R39" s="72"/>
-      <c r="S39" s="319"/>
+      <c r="S39" s="353"/>
       <c r="T39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="U39" s="304"/>
+      <c r="U39" s="313"/>
       <c r="V39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="W39" s="304"/>
+      <c r="W39" s="313"/>
       <c r="X39" s="72"/>
-      <c r="Y39" s="304"/>
+      <c r="Y39" s="313"/>
       <c r="Z39" s="72"/>
-      <c r="AA39" s="304"/>
+      <c r="AA39" s="313"/>
       <c r="AB39" s="72"/>
-      <c r="AC39" s="317"/>
+      <c r="AC39" s="362"/>
       <c r="AD39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AE39" s="319"/>
+      <c r="AE39" s="353"/>
       <c r="AF39" s="72"/>
-      <c r="AG39" s="304"/>
+      <c r="AG39" s="313"/>
       <c r="AH39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI39" s="304"/>
+      <c r="AI39" s="313"/>
       <c r="AJ39" s="72"/>
-      <c r="AK39" s="304"/>
+      <c r="AK39" s="313"/>
       <c r="AL39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AM39" s="319"/>
+      <c r="AM39" s="353"/>
       <c r="AN39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AO39" s="304"/>
+      <c r="AO39" s="313"/>
       <c r="AP39" s="72"/>
-      <c r="AQ39" s="304"/>
+      <c r="AQ39" s="313"/>
       <c r="AR39" s="72"/>
-      <c r="AS39" s="304"/>
+      <c r="AS39" s="313"/>
       <c r="AT39" s="72"/>
-      <c r="AU39" s="304"/>
+      <c r="AU39" s="313"/>
       <c r="AV39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AW39" s="319"/>
+      <c r="AW39" s="353"/>
       <c r="AX39" s="72"/>
-      <c r="AY39" s="304"/>
+      <c r="AY39" s="313"/>
       <c r="AZ39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BA39" s="304"/>
+      <c r="BA39" s="313"/>
       <c r="BB39" s="72"/>
-      <c r="BC39" s="304"/>
+      <c r="BC39" s="313"/>
       <c r="BD39" s="188" t="s">
         <v>113</v>
       </c>
-      <c r="BE39" s="304"/>
+      <c r="BE39" s="313"/>
       <c r="BF39" s="72"/>
-      <c r="BG39" s="308"/>
+      <c r="BG39" s="358"/>
       <c r="BH39" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="BI39" s="304"/>
+      <c r="BI39" s="313"/>
       <c r="BJ39" s="1"/>
       <c r="BK39" s="1"/>
     </row>
-    <row r="40" spans="1:63" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:63" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="73" t="s">
         <v>115</v>
       </c>
@@ -9417,7 +9420,7 @@
       <c r="BJ40" s="1"/>
       <c r="BK40" s="1"/>
     </row>
-    <row r="41" spans="1:63" ht="20" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:63" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="84" t="s">
         <v>118</v>
       </c>
@@ -9430,7 +9433,7 @@
       <c r="D41" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="362">
+      <c r="E41" s="305">
         <v>10</v>
       </c>
       <c r="F41" s="278"/>
@@ -9440,7 +9443,7 @@
       <c r="J41" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K41" s="350" t="s">
+      <c r="K41" s="320" t="s">
         <v>40</v>
       </c>
       <c r="L41" s="235"/>
@@ -9466,7 +9469,7 @@
       <c r="V41" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="W41" s="313" t="s">
+      <c r="W41" s="363" t="s">
         <v>39</v>
       </c>
       <c r="X41" s="183"/>
@@ -9492,7 +9495,7 @@
       <c r="AH41" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="AI41" s="313" t="s">
+      <c r="AI41" s="363" t="s">
         <v>39</v>
       </c>
       <c r="AJ41" s="187"/>
@@ -9506,7 +9509,7 @@
       <c r="AN41" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="AO41" s="313" t="s">
+      <c r="AO41" s="363" t="s">
         <v>39</v>
       </c>
       <c r="AP41" s="183"/>
@@ -9554,7 +9557,7 @@
       <c r="BJ41" s="1"/>
       <c r="BK41" s="1"/>
     </row>
-    <row r="42" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:63" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="67"/>
       <c r="B42" s="68"/>
       <c r="C42" s="136" t="s">
@@ -9563,79 +9566,79 @@
       <c r="D42" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="363"/>
+      <c r="E42" s="306"/>
       <c r="F42" s="279"/>
       <c r="G42" s="279"/>
       <c r="H42" s="279"/>
       <c r="I42" s="221"/>
       <c r="J42" s="264"/>
-      <c r="K42" s="352"/>
+      <c r="K42" s="321"/>
       <c r="L42" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="M42" s="304"/>
+      <c r="M42" s="313"/>
       <c r="N42" s="185"/>
-      <c r="O42" s="304"/>
+      <c r="O42" s="313"/>
       <c r="P42" s="185"/>
-      <c r="Q42" s="304"/>
+      <c r="Q42" s="313"/>
       <c r="R42" s="186"/>
-      <c r="S42" s="304"/>
+      <c r="S42" s="313"/>
       <c r="T42" s="185"/>
-      <c r="U42" s="304"/>
+      <c r="U42" s="313"/>
       <c r="V42" s="189" t="s">
         <v>63</v>
       </c>
-      <c r="W42" s="314"/>
+      <c r="W42" s="364"/>
       <c r="X42" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="Y42" s="304"/>
+      <c r="Y42" s="313"/>
       <c r="Z42" s="185"/>
-      <c r="AA42" s="304"/>
+      <c r="AA42" s="313"/>
       <c r="AB42" s="185"/>
-      <c r="AC42" s="304"/>
+      <c r="AC42" s="313"/>
       <c r="AD42" s="186"/>
-      <c r="AE42" s="304"/>
+      <c r="AE42" s="313"/>
       <c r="AF42" s="185"/>
-      <c r="AG42" s="304"/>
+      <c r="AG42" s="313"/>
       <c r="AH42" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="AI42" s="314"/>
+      <c r="AI42" s="364"/>
       <c r="AJ42" s="186"/>
-      <c r="AK42" s="304"/>
+      <c r="AK42" s="313"/>
       <c r="AL42" s="186"/>
-      <c r="AM42" s="304"/>
+      <c r="AM42" s="313"/>
       <c r="AN42" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="AO42" s="314"/>
+      <c r="AO42" s="364"/>
       <c r="AP42" s="185"/>
-      <c r="AQ42" s="304"/>
+      <c r="AQ42" s="313"/>
       <c r="AR42" s="185"/>
-      <c r="AS42" s="304"/>
+      <c r="AS42" s="313"/>
       <c r="AT42" s="185"/>
-      <c r="AU42" s="304"/>
+      <c r="AU42" s="313"/>
       <c r="AV42" s="185"/>
-      <c r="AW42" s="304"/>
+      <c r="AW42" s="313"/>
       <c r="AX42" s="185"/>
-      <c r="AY42" s="304"/>
+      <c r="AY42" s="313"/>
       <c r="AZ42" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="BA42" s="304"/>
+      <c r="BA42" s="313"/>
       <c r="BB42" s="185"/>
-      <c r="BC42" s="304"/>
+      <c r="BC42" s="313"/>
       <c r="BD42" s="185"/>
-      <c r="BE42" s="304"/>
+      <c r="BE42" s="313"/>
       <c r="BF42" s="185"/>
-      <c r="BG42" s="304"/>
+      <c r="BG42" s="313"/>
       <c r="BH42" s="185"/>
-      <c r="BI42" s="304"/>
+      <c r="BI42" s="313"/>
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
     </row>
-    <row r="43" spans="1:63" ht="20" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:63" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A43" s="180" t="s">
         <v>121</v>
       </c>
@@ -9648,143 +9651,143 @@
       <c r="D43" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="362">
+      <c r="E43" s="305">
         <v>17</v>
       </c>
-      <c r="F43" s="362">
+      <c r="F43" s="305">
         <v>5</v>
       </c>
-      <c r="G43" s="362">
+      <c r="G43" s="305">
         <v>2</v>
       </c>
-      <c r="H43" s="362">
+      <c r="H43" s="305">
         <v>7</v>
       </c>
       <c r="I43" s="222"/>
       <c r="J43" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="K43" s="345" t="s">
+      <c r="K43" s="326" t="s">
         <v>39</v>
       </c>
       <c r="L43" s="152"/>
-      <c r="M43" s="303" t="s">
+      <c r="M43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="N43" s="25"/>
-      <c r="O43" s="303" t="s">
+      <c r="O43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="P43" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="Q43" s="303" t="s">
+      <c r="Q43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="R43" s="25"/>
-      <c r="S43" s="303" t="s">
+      <c r="S43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="T43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="U43" s="309" t="s">
+      <c r="U43" s="367" t="s">
         <v>39</v>
       </c>
       <c r="V43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="W43" s="307" t="s">
+      <c r="W43" s="346" t="s">
         <v>39</v>
       </c>
       <c r="X43" s="152"/>
-      <c r="Y43" s="303" t="s">
+      <c r="Y43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="Z43" s="25"/>
-      <c r="AA43" s="303" t="s">
+      <c r="AA43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AB43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AC43" s="303" t="s">
+      <c r="AC43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AD43" s="25"/>
-      <c r="AE43" s="303" t="s">
+      <c r="AE43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AF43" s="25"/>
-      <c r="AG43" s="303" t="s">
+      <c r="AG43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AH43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI43" s="303" t="s">
+      <c r="AI43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AJ43" s="25"/>
-      <c r="AK43" s="303" t="s">
+      <c r="AK43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AL43" s="25"/>
-      <c r="AM43" s="303" t="s">
+      <c r="AM43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AN43" s="25"/>
-      <c r="AO43" s="303" t="s">
+      <c r="AO43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AP43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AQ43" s="303" t="s">
+      <c r="AQ43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AR43" s="25"/>
-      <c r="AS43" s="303" t="s">
+      <c r="AS43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AT43" s="25"/>
-      <c r="AU43" s="303" t="s">
+      <c r="AU43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AV43" s="25"/>
-      <c r="AW43" s="303" t="s">
+      <c r="AW43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AX43" s="25"/>
-      <c r="AY43" s="303" t="s">
+      <c r="AY43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AZ43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BA43" s="307" t="s">
+      <c r="BA43" s="346" t="s">
         <v>39</v>
       </c>
       <c r="BB43" s="25"/>
-      <c r="BC43" s="303" t="s">
+      <c r="BC43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BD43" s="25"/>
-      <c r="BE43" s="303" t="s">
+      <c r="BE43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BF43" s="25"/>
-      <c r="BG43" s="303" t="s">
+      <c r="BG43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BH43" s="25"/>
-      <c r="BI43" s="305" t="s">
+      <c r="BI43" s="365" t="s">
         <v>39</v>
       </c>
       <c r="BJ43" s="1"/>
       <c r="BK43" s="1"/>
     </row>
-    <row r="44" spans="1:63" ht="20" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:63" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="67"/>
       <c r="B44" s="68"/>
       <c r="C44" s="136" t="s">
@@ -9793,84 +9796,84 @@
       <c r="D44" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="363"/>
-      <c r="F44" s="363"/>
-      <c r="G44" s="363"/>
-      <c r="H44" s="363"/>
+      <c r="E44" s="306"/>
+      <c r="F44" s="306"/>
+      <c r="G44" s="306"/>
+      <c r="H44" s="306"/>
       <c r="I44" s="218"/>
       <c r="J44" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K44" s="349"/>
+      <c r="K44" s="330"/>
       <c r="L44" s="141"/>
-      <c r="M44" s="304"/>
+      <c r="M44" s="313"/>
       <c r="N44" s="72"/>
-      <c r="O44" s="304"/>
+      <c r="O44" s="313"/>
       <c r="P44" s="72"/>
-      <c r="Q44" s="304"/>
+      <c r="Q44" s="313"/>
       <c r="R44" s="72"/>
-      <c r="S44" s="304"/>
+      <c r="S44" s="313"/>
       <c r="T44" s="72"/>
-      <c r="U44" s="310"/>
+      <c r="U44" s="368"/>
       <c r="V44" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="308"/>
+      <c r="W44" s="358"/>
       <c r="X44" s="141"/>
-      <c r="Y44" s="304"/>
+      <c r="Y44" s="313"/>
       <c r="Z44" s="72"/>
-      <c r="AA44" s="304"/>
+      <c r="AA44" s="313"/>
       <c r="AB44" s="72"/>
-      <c r="AC44" s="304"/>
+      <c r="AC44" s="313"/>
       <c r="AD44" s="72"/>
-      <c r="AE44" s="304"/>
+      <c r="AE44" s="313"/>
       <c r="AF44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AG44" s="304"/>
+      <c r="AG44" s="313"/>
       <c r="AH44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI44" s="304"/>
+      <c r="AI44" s="313"/>
       <c r="AJ44" s="72"/>
-      <c r="AK44" s="304"/>
+      <c r="AK44" s="313"/>
       <c r="AL44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AM44" s="304"/>
+      <c r="AM44" s="313"/>
       <c r="AN44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AO44" s="304"/>
+      <c r="AO44" s="313"/>
       <c r="AP44" s="72"/>
-      <c r="AQ44" s="304"/>
+      <c r="AQ44" s="313"/>
       <c r="AR44" s="72"/>
-      <c r="AS44" s="304"/>
+      <c r="AS44" s="313"/>
       <c r="AT44" s="72"/>
-      <c r="AU44" s="304"/>
+      <c r="AU44" s="313"/>
       <c r="AV44" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AW44" s="304"/>
+      <c r="AW44" s="313"/>
       <c r="AX44" s="117"/>
-      <c r="AY44" s="311"/>
+      <c r="AY44" s="331"/>
       <c r="AZ44" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="BA44" s="308"/>
+      <c r="BA44" s="358"/>
       <c r="BB44" s="117"/>
-      <c r="BC44" s="311"/>
+      <c r="BC44" s="331"/>
       <c r="BD44" s="117"/>
-      <c r="BE44" s="304"/>
-      <c r="BG44" s="304"/>
+      <c r="BE44" s="313"/>
+      <c r="BG44" s="313"/>
       <c r="BH44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BI44" s="306"/>
+      <c r="BI44" s="366"/>
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1"/>
     </row>
-    <row r="45" spans="1:63" ht="20.5" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:63" ht="22" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="167" t="s">
         <v>124</v>
       </c>
@@ -9943,7 +9946,7 @@
       <c r="BJ45" s="1"/>
       <c r="BK45" s="1"/>
     </row>
-    <row r="46" spans="1:63" s="4" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:63" s="4" customFormat="1" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="73" t="s">
         <v>125</v>
       </c>
@@ -10090,7 +10093,7 @@
       <c r="BJ46" s="3"/>
       <c r="BK46" s="3"/>
     </row>
-    <row r="47" spans="1:63" ht="20.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:63" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="73" t="s">
         <v>127</v>
       </c>
@@ -10226,7 +10229,7 @@
       <c r="BJ47" s="1"/>
       <c r="BK47" s="1"/>
     </row>
-    <row r="48" spans="1:63" ht="20" hidden="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:63" ht="21" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A48" s="156" t="s">
         <v>129</v>
       </c>
@@ -10299,7 +10302,7 @@
       <c r="BJ48" s="1"/>
       <c r="BK48" s="1"/>
     </row>
-    <row r="49" spans="1:63" ht="20" hidden="1" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:63" ht="21" hidden="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A49" s="160"/>
       <c r="B49" s="161"/>
       <c r="C49" s="162" t="s">
@@ -10368,7 +10371,7 @@
       <c r="BJ49" s="1"/>
       <c r="BK49" s="1"/>
     </row>
-    <row r="50" spans="1:63" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:63" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="J50" s="171">
         <v>37</v>
       </c>
@@ -10532,7 +10535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:63" x14ac:dyDescent="0.2">
       <c r="N51" s="174" t="s">
         <v>132</v>
       </c>
@@ -10618,7 +10621,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:63" x14ac:dyDescent="0.2">
       <c r="O52">
         <v>4</v>
       </c>
@@ -10653,7 +10656,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="53" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:63" x14ac:dyDescent="0.2">
       <c r="Q53" s="174" t="s">
         <v>151</v>
       </c>
@@ -10673,7 +10676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:63" x14ac:dyDescent="0.2">
       <c r="Q54">
         <v>2</v>
       </c>
@@ -10696,7 +10699,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="55" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:63" x14ac:dyDescent="0.2">
       <c r="AA55" s="174" t="s">
         <v>154</v>
       </c>
@@ -10704,7 +10707,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:63" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="AC56" s="174" t="s">
         <v>156</v>
@@ -10717,6 +10720,314 @@
     <sortCondition ref="C7:C53"/>
   </sortState>
   <mergeCells count="332">
+    <mergeCell ref="BG43:BG44"/>
+    <mergeCell ref="BI43:BI44"/>
+    <mergeCell ref="BA43:BA44"/>
+    <mergeCell ref="AW43:AW44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="AQ43:AQ44"/>
+    <mergeCell ref="AS43:AS44"/>
+    <mergeCell ref="AU43:AU44"/>
+    <mergeCell ref="AY43:AY44"/>
+    <mergeCell ref="BC43:BC44"/>
+    <mergeCell ref="BE43:BE44"/>
+    <mergeCell ref="AE43:AE44"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AK43:AK44"/>
+    <mergeCell ref="AM43:AM44"/>
+    <mergeCell ref="AO43:AO44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="BA38:BA39"/>
+    <mergeCell ref="BC38:BC39"/>
+    <mergeCell ref="BE38:BE39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="Y38:Y39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="Y41:Y42"/>
+    <mergeCell ref="AA41:AA42"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AO41:AO42"/>
+    <mergeCell ref="AM41:AM42"/>
+    <mergeCell ref="BG38:BG39"/>
+    <mergeCell ref="BI38:BI39"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AO38:AO39"/>
+    <mergeCell ref="AQ38:AQ39"/>
+    <mergeCell ref="AS38:AS39"/>
+    <mergeCell ref="AU38:AU39"/>
+    <mergeCell ref="AW38:AW39"/>
+    <mergeCell ref="AY38:AY39"/>
+    <mergeCell ref="BC18:BC19"/>
+    <mergeCell ref="BE18:BE19"/>
+    <mergeCell ref="BG18:BG19"/>
+    <mergeCell ref="BI18:BI19"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="AM38:AM39"/>
+    <mergeCell ref="AG38:AG39"/>
+    <mergeCell ref="AI38:AI39"/>
+    <mergeCell ref="AK38:AK39"/>
+    <mergeCell ref="BG36:BG37"/>
+    <mergeCell ref="BI36:BI37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="AI36:AI37"/>
+    <mergeCell ref="AO36:AO37"/>
+    <mergeCell ref="AU36:AU37"/>
+    <mergeCell ref="AW36:AW37"/>
+    <mergeCell ref="AY36:AY37"/>
+    <mergeCell ref="BA36:BA37"/>
+    <mergeCell ref="BC36:BC37"/>
+    <mergeCell ref="BE36:BE37"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="AK36:AK37"/>
+    <mergeCell ref="AM36:AM37"/>
+    <mergeCell ref="AQ36:AQ37"/>
+    <mergeCell ref="AS36:AS37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="Y36:Y37"/>
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="BG33:BG34"/>
+    <mergeCell ref="BI33:BI34"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AQ33:AQ34"/>
+    <mergeCell ref="AS33:AS34"/>
+    <mergeCell ref="AU33:AU34"/>
+    <mergeCell ref="AW33:AW34"/>
+    <mergeCell ref="AY33:AY34"/>
+    <mergeCell ref="BA33:BA34"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AE33:AE34"/>
+    <mergeCell ref="AG33:AG34"/>
+    <mergeCell ref="AK33:AK34"/>
+    <mergeCell ref="AM33:AM34"/>
+    <mergeCell ref="AO33:AO34"/>
+    <mergeCell ref="BC30:BC32"/>
+    <mergeCell ref="BE30:BE32"/>
+    <mergeCell ref="BI30:BI32"/>
+    <mergeCell ref="AK30:AK32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="AM30:AM32"/>
+    <mergeCell ref="AQ30:AQ32"/>
+    <mergeCell ref="AS30:AS32"/>
+    <mergeCell ref="AU30:AU32"/>
+    <mergeCell ref="AW30:AW32"/>
+    <mergeCell ref="AY30:AY32"/>
+    <mergeCell ref="U30:U32"/>
+    <mergeCell ref="Y30:Y32"/>
+    <mergeCell ref="AA30:AA32"/>
+    <mergeCell ref="AC30:AC32"/>
+    <mergeCell ref="AE30:AE32"/>
+    <mergeCell ref="AG30:AG32"/>
+    <mergeCell ref="BC33:BC34"/>
+    <mergeCell ref="BE33:BE34"/>
+    <mergeCell ref="BI24:BI25"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="S30:S32"/>
+    <mergeCell ref="W30:W32"/>
+    <mergeCell ref="AI30:AI32"/>
+    <mergeCell ref="AO30:AO32"/>
+    <mergeCell ref="BA30:BA32"/>
+    <mergeCell ref="BG30:BG32"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="AW24:AW25"/>
+    <mergeCell ref="AY24:AY25"/>
+    <mergeCell ref="BC24:BC25"/>
+    <mergeCell ref="BE24:BE25"/>
+    <mergeCell ref="BG24:BG25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="AI24:AI25"/>
+    <mergeCell ref="AO24:AO25"/>
+    <mergeCell ref="BA24:BA25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="AK24:AK25"/>
+    <mergeCell ref="AM24:AM25"/>
+    <mergeCell ref="AQ24:AQ25"/>
+    <mergeCell ref="AS24:AS25"/>
+    <mergeCell ref="AU24:AU25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="BA18:BA19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AS18:AS19"/>
+    <mergeCell ref="AU18:AU19"/>
+    <mergeCell ref="AW18:AW19"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="AM18:AM19"/>
+    <mergeCell ref="AO18:AO19"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="BE15:BE16"/>
+    <mergeCell ref="BI15:BI16"/>
+    <mergeCell ref="AO15:AO16"/>
+    <mergeCell ref="AI15:AI16"/>
+    <mergeCell ref="BC15:BC16"/>
+    <mergeCell ref="BG15:BG16"/>
+    <mergeCell ref="AQ15:AQ16"/>
+    <mergeCell ref="AS15:AS16"/>
+    <mergeCell ref="AU15:AU16"/>
+    <mergeCell ref="AW15:AW16"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="BA15:BA16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AK15:AK16"/>
+    <mergeCell ref="AM15:AM16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="BI9:BI10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="BA9:BA10"/>
+    <mergeCell ref="AU9:AU10"/>
+    <mergeCell ref="AW9:AW10"/>
+    <mergeCell ref="AY9:AY10"/>
+    <mergeCell ref="BC9:BC10"/>
+    <mergeCell ref="BE9:BE10"/>
+    <mergeCell ref="BG9:BG10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="BG3:BG4"/>
+    <mergeCell ref="BI3:BI4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="BA3:BA4"/>
+    <mergeCell ref="BC3:BC4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AQ13:AQ14"/>
+    <mergeCell ref="AU13:AU14"/>
+    <mergeCell ref="AW13:AW14"/>
+    <mergeCell ref="AY13:AY14"/>
+    <mergeCell ref="BA13:BA14"/>
+    <mergeCell ref="BC13:BC14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="BE13:BE14"/>
+    <mergeCell ref="BG13:BG14"/>
+    <mergeCell ref="BI13:BI14"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AO13:AO14"/>
+    <mergeCell ref="AS13:AS14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="BA41:BA42"/>
+    <mergeCell ref="BC41:BC42"/>
+    <mergeCell ref="BE41:BE42"/>
+    <mergeCell ref="BG41:BG42"/>
+    <mergeCell ref="BI41:BI42"/>
+    <mergeCell ref="AY41:AY42"/>
+    <mergeCell ref="AW41:AW42"/>
+    <mergeCell ref="AU41:AU42"/>
+    <mergeCell ref="AS41:AS42"/>
+    <mergeCell ref="AQ41:AQ42"/>
+    <mergeCell ref="AK41:AK42"/>
+    <mergeCell ref="AE41:AE42"/>
+    <mergeCell ref="AG41:AG42"/>
+    <mergeCell ref="AC41:AC42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="O41:O42"/>
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E18:E19"/>
@@ -10741,314 +11052,6 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="AG13:AG14"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="BE13:BE14"/>
-    <mergeCell ref="BG13:BG14"/>
-    <mergeCell ref="BI13:BI14"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AO13:AO14"/>
-    <mergeCell ref="AS13:AS14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="BA41:BA42"/>
-    <mergeCell ref="BC41:BC42"/>
-    <mergeCell ref="BE41:BE42"/>
-    <mergeCell ref="BG41:BG42"/>
-    <mergeCell ref="BI41:BI42"/>
-    <mergeCell ref="AY41:AY42"/>
-    <mergeCell ref="AW41:AW42"/>
-    <mergeCell ref="AU41:AU42"/>
-    <mergeCell ref="AS41:AS42"/>
-    <mergeCell ref="AQ41:AQ42"/>
-    <mergeCell ref="AK41:AK42"/>
-    <mergeCell ref="AE41:AE42"/>
-    <mergeCell ref="AG41:AG42"/>
-    <mergeCell ref="AC41:AC42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="AQ13:AQ14"/>
-    <mergeCell ref="AU13:AU14"/>
-    <mergeCell ref="AW13:AW14"/>
-    <mergeCell ref="AY13:AY14"/>
-    <mergeCell ref="BA13:BA14"/>
-    <mergeCell ref="BC13:BC14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="M30:M32"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="BG3:BG4"/>
-    <mergeCell ref="BI3:BI4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="BA3:BA4"/>
-    <mergeCell ref="BC3:BC4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="BI9:BI10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="BA9:BA10"/>
-    <mergeCell ref="AU9:AU10"/>
-    <mergeCell ref="AW9:AW10"/>
-    <mergeCell ref="AY9:AY10"/>
-    <mergeCell ref="BC9:BC10"/>
-    <mergeCell ref="BE9:BE10"/>
-    <mergeCell ref="BG9:BG10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AK15:AK16"/>
-    <mergeCell ref="AM15:AM16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="BE15:BE16"/>
-    <mergeCell ref="BI15:BI16"/>
-    <mergeCell ref="AO15:AO16"/>
-    <mergeCell ref="AI15:AI16"/>
-    <mergeCell ref="BC15:BC16"/>
-    <mergeCell ref="BG15:BG16"/>
-    <mergeCell ref="AQ15:AQ16"/>
-    <mergeCell ref="AS15:AS16"/>
-    <mergeCell ref="AU15:AU16"/>
-    <mergeCell ref="AW15:AW16"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="BA15:BA16"/>
-    <mergeCell ref="BA18:BA19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AS18:AS19"/>
-    <mergeCell ref="AU18:AU19"/>
-    <mergeCell ref="AW18:AW19"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="AM18:AM19"/>
-    <mergeCell ref="AO18:AO19"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AU24:AU25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="BI24:BI25"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="S30:S32"/>
-    <mergeCell ref="W30:W32"/>
-    <mergeCell ref="AI30:AI32"/>
-    <mergeCell ref="AO30:AO32"/>
-    <mergeCell ref="BA30:BA32"/>
-    <mergeCell ref="BG30:BG32"/>
-    <mergeCell ref="O30:O32"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="AW24:AW25"/>
-    <mergeCell ref="AY24:AY25"/>
-    <mergeCell ref="BC24:BC25"/>
-    <mergeCell ref="BE24:BE25"/>
-    <mergeCell ref="BG24:BG25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="AI24:AI25"/>
-    <mergeCell ref="AO24:AO25"/>
-    <mergeCell ref="BA24:BA25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="AK24:AK25"/>
-    <mergeCell ref="AM24:AM25"/>
-    <mergeCell ref="AQ24:AQ25"/>
-    <mergeCell ref="AS24:AS25"/>
-    <mergeCell ref="BC30:BC32"/>
-    <mergeCell ref="BE30:BE32"/>
-    <mergeCell ref="BI30:BI32"/>
-    <mergeCell ref="AK30:AK32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="AM30:AM32"/>
-    <mergeCell ref="AQ30:AQ32"/>
-    <mergeCell ref="AS30:AS32"/>
-    <mergeCell ref="AU30:AU32"/>
-    <mergeCell ref="AW30:AW32"/>
-    <mergeCell ref="AY30:AY32"/>
-    <mergeCell ref="U30:U32"/>
-    <mergeCell ref="Y30:Y32"/>
-    <mergeCell ref="AA30:AA32"/>
-    <mergeCell ref="AC30:AC32"/>
-    <mergeCell ref="AE30:AE32"/>
-    <mergeCell ref="AG30:AG32"/>
-    <mergeCell ref="BC33:BC34"/>
-    <mergeCell ref="BE33:BE34"/>
-    <mergeCell ref="BG33:BG34"/>
-    <mergeCell ref="BI33:BI34"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AQ33:AQ34"/>
-    <mergeCell ref="AS33:AS34"/>
-    <mergeCell ref="AU33:AU34"/>
-    <mergeCell ref="AW33:AW34"/>
-    <mergeCell ref="AY33:AY34"/>
-    <mergeCell ref="BA33:BA34"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AE33:AE34"/>
-    <mergeCell ref="AG33:AG34"/>
-    <mergeCell ref="AK33:AK34"/>
-    <mergeCell ref="AM33:AM34"/>
-    <mergeCell ref="AO33:AO34"/>
-    <mergeCell ref="AK36:AK37"/>
-    <mergeCell ref="AM36:AM37"/>
-    <mergeCell ref="AQ36:AQ37"/>
-    <mergeCell ref="AS36:AS37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="Y36:Y37"/>
-    <mergeCell ref="AA36:AA37"/>
-    <mergeCell ref="BC18:BC19"/>
-    <mergeCell ref="BE18:BE19"/>
-    <mergeCell ref="BG18:BG19"/>
-    <mergeCell ref="BI18:BI19"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="AM38:AM39"/>
-    <mergeCell ref="AG38:AG39"/>
-    <mergeCell ref="AI38:AI39"/>
-    <mergeCell ref="AK38:AK39"/>
-    <mergeCell ref="BG36:BG37"/>
-    <mergeCell ref="BI36:BI37"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="AC36:AC37"/>
-    <mergeCell ref="AI36:AI37"/>
-    <mergeCell ref="AO36:AO37"/>
-    <mergeCell ref="AU36:AU37"/>
-    <mergeCell ref="AW36:AW37"/>
-    <mergeCell ref="AY36:AY37"/>
-    <mergeCell ref="BA36:BA37"/>
-    <mergeCell ref="BC36:BC37"/>
-    <mergeCell ref="BE36:BE37"/>
-    <mergeCell ref="AE36:AE37"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="BG38:BG39"/>
-    <mergeCell ref="BI38:BI39"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AO38:AO39"/>
-    <mergeCell ref="AQ38:AQ39"/>
-    <mergeCell ref="AS38:AS39"/>
-    <mergeCell ref="AU38:AU39"/>
-    <mergeCell ref="AW38:AW39"/>
-    <mergeCell ref="AY38:AY39"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="BA38:BA39"/>
-    <mergeCell ref="BC38:BC39"/>
-    <mergeCell ref="BE38:BE39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="Y38:Y39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="Y41:Y42"/>
-    <mergeCell ref="AA41:AA42"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AO41:AO42"/>
-    <mergeCell ref="AM41:AM42"/>
-    <mergeCell ref="BG43:BG44"/>
-    <mergeCell ref="BI43:BI44"/>
-    <mergeCell ref="BA43:BA44"/>
-    <mergeCell ref="AW43:AW44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="AQ43:AQ44"/>
-    <mergeCell ref="AS43:AS44"/>
-    <mergeCell ref="AU43:AU44"/>
-    <mergeCell ref="AY43:AY44"/>
-    <mergeCell ref="BC43:BC44"/>
-    <mergeCell ref="BE43:BE44"/>
-    <mergeCell ref="AE43:AE44"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AK43:AK44"/>
-    <mergeCell ref="AM43:AM44"/>
-    <mergeCell ref="AO43:AO44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11061,21 +11064,21 @@
   <dimension ref="A1:AO38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="5" width="20" style="5" customWidth="1"/>
-    <col min="6" max="7" width="9.1796875" style="4"/>
-    <col min="31" max="31" width="13.6328125" customWidth="1"/>
+    <col min="6" max="7" width="9.1640625" style="4"/>
+    <col min="31" max="31" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" s="286" t="s">
         <v>6</v>
       </c>
@@ -11180,7 +11183,7 @@
       <c r="AN1" s="8"/>
       <c r="AO1" s="9"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A2" s="290" t="s">
         <v>157</v>
       </c>
@@ -11273,7 +11276,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:41" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:41" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="290" t="s">
         <v>158</v>
       </c>
@@ -11364,7 +11367,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" s="290" t="s">
         <v>159</v>
       </c>
@@ -11455,7 +11458,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" s="290" t="s">
         <v>160</v>
       </c>
@@ -11546,7 +11549,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" s="290" t="s">
         <v>161</v>
       </c>
@@ -11639,7 +11642,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" s="290" t="s">
         <v>162</v>
       </c>
@@ -11730,7 +11733,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A8" s="290" t="s">
         <v>163</v>
       </c>
@@ -11821,7 +11824,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" s="290" t="s">
         <v>164</v>
       </c>
@@ -11914,7 +11917,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" s="290" t="s">
         <v>165</v>
       </c>
@@ -12007,7 +12010,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" s="290" t="s">
         <v>166</v>
       </c>
@@ -12098,7 +12101,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" s="290" t="s">
         <v>167</v>
       </c>
@@ -12191,7 +12194,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" s="290" t="s">
         <v>168</v>
       </c>
@@ -12282,7 +12285,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A14" s="290" t="s">
         <v>169</v>
       </c>
@@ -12373,7 +12376,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" s="290" t="s">
         <v>170</v>
       </c>
@@ -12464,7 +12467,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A16" s="290" t="s">
         <v>171</v>
       </c>
@@ -12555,7 +12558,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="290" t="s">
         <v>172</v>
       </c>
@@ -12648,7 +12651,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="290" t="s">
         <v>173</v>
       </c>
@@ -12739,7 +12742,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="290" t="s">
         <v>174</v>
       </c>
@@ -12830,7 +12833,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="290" t="s">
         <v>175</v>
       </c>
@@ -12921,7 +12924,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="290" t="s">
         <v>176</v>
       </c>
@@ -13012,7 +13015,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="290" t="s">
         <v>177</v>
       </c>
@@ -13107,7 +13110,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="290" t="s">
         <v>178</v>
       </c>
@@ -13200,7 +13203,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="290" t="s">
         <v>179</v>
       </c>
@@ -13291,7 +13294,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="300" t="s">
         <v>180</v>
       </c>
@@ -13384,7 +13387,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="300" t="s">
         <v>181</v>
       </c>
@@ -13477,7 +13480,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="300" t="s">
         <v>182</v>
       </c>
@@ -13568,7 +13571,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="300" t="s">
         <v>183</v>
       </c>
@@ -13661,7 +13664,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="300" t="s">
         <v>184</v>
       </c>
@@ -13754,7 +13757,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="300" t="s">
         <v>185</v>
       </c>
@@ -13845,7 +13848,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="290" t="s">
         <v>186</v>
       </c>
@@ -13936,7 +13939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="2"/>
@@ -13964,7 +13967,7 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
       <c r="N33" s="174"/>
       <c r="O33" s="174"/>
       <c r="P33" s="174"/>
@@ -13973,19 +13976,26 @@
       <c r="AB33" s="174"/>
       <c r="AD33" s="174"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" s="5">
+        <f xml:space="preserve"> COUNTIF(F2:AE31, "Oui")</f>
+        <v>134</v>
+      </c>
       <c r="W34" s="174"/>
       <c r="AC34" s="282"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
       <c r="N36" s="174"/>
       <c r="O36" s="282"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="N37" s="174"/>
       <c r="O37" s="282"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="O38" s="174"/>
     </row>
@@ -14008,6 +14018,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D879E14ABC0C0949BB8A7AD4556264B4" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="29e167d0c93a63a8286ab5675afb04b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="76424c09-1f09-411f-a39d-769041d462c4" xmlns:ns3="7a404e10-278a-4ba0-976a-2af2db24d8c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="24b04f44be219caa97f08e98b44d806e" ns2:_="" ns3:_="">
     <xsd:import namespace="76424c09-1f09-411f-a39d-769041d462c4"/>
@@ -14208,15 +14227,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D997ED0D-A65E-4D53-86D9-B54CD319FBB7}">
   <ds:schemaRefs>
@@ -14229,6 +14239,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A61665-5548-4139-8F1E-CD0E56231733}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF0E5D3A-3FAD-4C6C-84B3-8670B0922E98}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14245,12 +14263,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A61665-5548-4139-8F1E-CD0E56231733}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Offres_2022.xlsx
+++ b/Offres_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume12321/Documents/GitHub/carpooling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387D5F92-954A-B84E-84E4-DF20FEF95957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47801BCD-BA5B-F840-BE7F-D3FDC2938B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="18980" windowHeight="16380" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2297" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="233">
   <si>
     <t xml:space="preserve">Nombre de demandes </t>
   </si>
@@ -779,9 +779,6 @@
   </si>
   <si>
     <t>Mateo DINJOUR</t>
-  </si>
-  <si>
-    <t>Number of offers</t>
   </si>
 </sst>
 </file>
@@ -3778,6 +3775,177 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="150" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="132" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="146" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="148" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="141" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="142" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3803,177 +3971,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="146" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="148" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="141" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="142" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="150" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="132" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4674,57 +4671,57 @@
       <c r="D3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="307">
+      <c r="E3" s="364">
         <v>9</v>
       </c>
-      <c r="F3" s="307">
+      <c r="F3" s="364">
         <v>3</v>
       </c>
-      <c r="G3" s="307">
+      <c r="G3" s="364">
         <v>0</v>
       </c>
-      <c r="H3" s="307">
+      <c r="H3" s="364">
         <v>1</v>
       </c>
       <c r="I3" s="205"/>
       <c r="J3" s="239" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="334" t="s">
+      <c r="K3" s="341" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="224"/>
-      <c r="M3" s="314" t="s">
+      <c r="M3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="N3" s="31"/>
-      <c r="O3" s="314" t="s">
+      <c r="O3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="P3" s="31"/>
-      <c r="Q3" s="314" t="s">
+      <c r="Q3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="R3" s="31"/>
-      <c r="S3" s="314" t="s">
+      <c r="S3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="T3" s="31"/>
-      <c r="U3" s="314" t="s">
+      <c r="U3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="V3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="314" t="s">
+      <c r="W3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="X3" s="31"/>
-      <c r="Y3" s="314" t="s">
+      <c r="Y3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="Z3" s="31"/>
-      <c r="AA3" s="314" t="s">
+      <c r="AA3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AB3" s="31"/>
@@ -4732,71 +4729,71 @@
         <v>40</v>
       </c>
       <c r="AD3" s="31"/>
-      <c r="AE3" s="314" t="s">
+      <c r="AE3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AF3" s="31"/>
-      <c r="AG3" s="314" t="s">
+      <c r="AG3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AH3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="303" t="s">
+      <c r="AI3" s="360" t="s">
         <v>39</v>
       </c>
       <c r="AJ3" s="31"/>
-      <c r="AK3" s="314" t="s">
+      <c r="AK3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AL3" s="31"/>
-      <c r="AM3" s="314" t="s">
+      <c r="AM3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AN3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AO3" s="340" t="s">
+      <c r="AO3" s="343" t="s">
         <v>39</v>
       </c>
       <c r="AP3" s="31"/>
-      <c r="AQ3" s="314" t="s">
+      <c r="AQ3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AR3" s="31"/>
-      <c r="AS3" s="314" t="s">
+      <c r="AS3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AT3" s="31"/>
-      <c r="AU3" s="314" t="s">
+      <c r="AU3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AV3" s="66"/>
-      <c r="AW3" s="314" t="s">
+      <c r="AW3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AX3" s="31"/>
-      <c r="AY3" s="314" t="s">
+      <c r="AY3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AZ3" s="31"/>
-      <c r="BA3" s="314" t="s">
+      <c r="BA3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="BB3" s="31"/>
-      <c r="BC3" s="314" t="s">
+      <c r="BC3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="BD3" s="31"/>
-      <c r="BE3" s="314" t="s">
+      <c r="BE3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="BF3" s="31"/>
-      <c r="BG3" s="314" t="s">
+      <c r="BG3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="BH3" s="31"/>
-      <c r="BI3" s="334" t="s">
+      <c r="BI3" s="341" t="s">
         <v>40</v>
       </c>
       <c r="BJ3" s="1"/>
@@ -4811,73 +4808,73 @@
       <c r="D4" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="308"/>
-      <c r="F4" s="308"/>
-      <c r="G4" s="308"/>
-      <c r="H4" s="308"/>
+      <c r="E4" s="365"/>
+      <c r="F4" s="365"/>
+      <c r="G4" s="365"/>
+      <c r="H4" s="365"/>
       <c r="I4" s="206"/>
       <c r="J4" s="240" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="335"/>
+      <c r="K4" s="342"/>
       <c r="L4" s="225"/>
-      <c r="M4" s="315"/>
+      <c r="M4" s="340"/>
       <c r="N4" s="38"/>
-      <c r="O4" s="315"/>
+      <c r="O4" s="340"/>
       <c r="P4" s="38"/>
-      <c r="Q4" s="315"/>
+      <c r="Q4" s="340"/>
       <c r="R4" s="38"/>
-      <c r="S4" s="315"/>
+      <c r="S4" s="340"/>
       <c r="T4" s="38"/>
-      <c r="U4" s="315"/>
+      <c r="U4" s="340"/>
       <c r="V4" s="38"/>
-      <c r="W4" s="315"/>
+      <c r="W4" s="340"/>
       <c r="X4" s="38"/>
-      <c r="Y4" s="315"/>
+      <c r="Y4" s="340"/>
       <c r="Z4" s="38"/>
-      <c r="AA4" s="315"/>
+      <c r="AA4" s="340"/>
       <c r="AB4" s="38"/>
       <c r="AC4" s="39"/>
       <c r="AD4" s="38"/>
-      <c r="AE4" s="315"/>
+      <c r="AE4" s="340"/>
       <c r="AF4" s="38"/>
-      <c r="AG4" s="315"/>
+      <c r="AG4" s="340"/>
       <c r="AH4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="304"/>
+      <c r="AI4" s="361"/>
       <c r="AJ4" s="38"/>
-      <c r="AK4" s="315"/>
+      <c r="AK4" s="340"/>
       <c r="AL4" s="38"/>
-      <c r="AM4" s="315"/>
+      <c r="AM4" s="340"/>
       <c r="AN4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" s="341"/>
+      <c r="AO4" s="344"/>
       <c r="AP4" s="38"/>
-      <c r="AQ4" s="315"/>
+      <c r="AQ4" s="340"/>
       <c r="AR4" s="38"/>
-      <c r="AS4" s="315"/>
+      <c r="AS4" s="340"/>
       <c r="AT4" s="38"/>
-      <c r="AU4" s="315"/>
+      <c r="AU4" s="340"/>
       <c r="AV4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" s="315"/>
+      <c r="AW4" s="340"/>
       <c r="AX4" s="38"/>
-      <c r="AY4" s="315"/>
+      <c r="AY4" s="340"/>
       <c r="AZ4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="BA4" s="315"/>
+      <c r="BA4" s="340"/>
       <c r="BB4" s="38"/>
-      <c r="BC4" s="315"/>
+      <c r="BC4" s="340"/>
       <c r="BD4" s="38"/>
-      <c r="BE4" s="315"/>
+      <c r="BE4" s="340"/>
       <c r="BF4" s="38"/>
-      <c r="BG4" s="315"/>
+      <c r="BG4" s="340"/>
       <c r="BH4" s="38"/>
-      <c r="BI4" s="335"/>
+      <c r="BI4" s="342"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
     </row>
@@ -5406,23 +5403,23 @@
       <c r="D9" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="309">
+      <c r="E9" s="366">
         <v>19</v>
       </c>
-      <c r="F9" s="309">
+      <c r="F9" s="366">
         <v>5</v>
       </c>
-      <c r="G9" s="309">
+      <c r="G9" s="366">
         <v>2</v>
       </c>
-      <c r="H9" s="309">
+      <c r="H9" s="366">
         <v>9</v>
       </c>
       <c r="I9" s="209"/>
       <c r="J9" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="320" t="s">
+      <c r="K9" s="350" t="s">
         <v>40</v>
       </c>
       <c r="L9" s="227"/>
@@ -5440,7 +5437,7 @@
       <c r="R9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="344" t="s">
+      <c r="S9" s="325" t="s">
         <v>39</v>
       </c>
       <c r="T9" s="66"/>
@@ -5450,7 +5447,7 @@
       <c r="V9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="W9" s="344" t="s">
+      <c r="W9" s="325" t="s">
         <v>39</v>
       </c>
       <c r="X9" s="66"/>
@@ -5488,13 +5485,13 @@
       <c r="AL9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AM9" s="344" t="s">
+      <c r="AM9" s="325" t="s">
         <v>39</v>
       </c>
       <c r="AN9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AO9" s="344" t="s">
+      <c r="AO9" s="325" t="s">
         <v>39</v>
       </c>
       <c r="AP9" s="66"/>
@@ -5522,7 +5519,7 @@
       <c r="AZ9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BA9" s="344" t="s">
+      <c r="BA9" s="325" t="s">
         <v>39</v>
       </c>
       <c r="BB9" s="66"/>
@@ -5540,7 +5537,7 @@
         <v>40</v>
       </c>
       <c r="BH9" s="66"/>
-      <c r="BI9" s="342" t="s">
+      <c r="BI9" s="338" t="s">
         <v>40</v>
       </c>
       <c r="BJ9" s="1"/>
@@ -5555,81 +5552,81 @@
       <c r="D10" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="306"/>
-      <c r="F10" s="306"/>
-      <c r="G10" s="306"/>
-      <c r="H10" s="306"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
+      <c r="G10" s="363"/>
+      <c r="H10" s="363"/>
       <c r="I10" s="210"/>
       <c r="J10" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="321"/>
+      <c r="K10" s="352"/>
       <c r="L10" s="141"/>
-      <c r="M10" s="313"/>
+      <c r="M10" s="304"/>
       <c r="N10" s="72"/>
-      <c r="O10" s="313"/>
+      <c r="O10" s="304"/>
       <c r="P10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="313"/>
+      <c r="Q10" s="304"/>
       <c r="R10" s="72"/>
-      <c r="S10" s="323"/>
+      <c r="S10" s="337"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="313"/>
+      <c r="U10" s="304"/>
       <c r="V10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="W10" s="323"/>
+      <c r="W10" s="337"/>
       <c r="X10" s="72"/>
-      <c r="Y10" s="313"/>
+      <c r="Y10" s="304"/>
       <c r="Z10" s="72"/>
-      <c r="AA10" s="313"/>
+      <c r="AA10" s="304"/>
       <c r="AB10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AC10" s="313"/>
+      <c r="AC10" s="304"/>
       <c r="AD10" s="72"/>
-      <c r="AE10" s="313"/>
+      <c r="AE10" s="304"/>
       <c r="AF10" s="72"/>
-      <c r="AG10" s="313"/>
+      <c r="AG10" s="304"/>
       <c r="AH10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI10" s="313"/>
+      <c r="AI10" s="304"/>
       <c r="AJ10" s="72"/>
-      <c r="AK10" s="313"/>
+      <c r="AK10" s="304"/>
       <c r="AL10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AM10" s="323"/>
+      <c r="AM10" s="337"/>
       <c r="AN10" s="72"/>
-      <c r="AO10" s="323"/>
+      <c r="AO10" s="337"/>
       <c r="AP10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AQ10" s="313"/>
+      <c r="AQ10" s="304"/>
       <c r="AR10" s="72"/>
-      <c r="AS10" s="313"/>
+      <c r="AS10" s="304"/>
       <c r="AT10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AU10" s="313"/>
+      <c r="AU10" s="304"/>
       <c r="AV10" s="72"/>
-      <c r="AW10" s="313"/>
+      <c r="AW10" s="304"/>
       <c r="AX10" s="72"/>
-      <c r="AY10" s="313"/>
+      <c r="AY10" s="304"/>
       <c r="AZ10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BA10" s="323"/>
+      <c r="BA10" s="337"/>
       <c r="BB10" s="72"/>
-      <c r="BC10" s="313"/>
+      <c r="BC10" s="304"/>
       <c r="BD10" s="72"/>
-      <c r="BE10" s="313"/>
+      <c r="BE10" s="304"/>
       <c r="BF10" s="72"/>
-      <c r="BG10" s="313"/>
+      <c r="BG10" s="304"/>
       <c r="BH10" s="72"/>
-      <c r="BI10" s="343"/>
+      <c r="BI10" s="335"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
     </row>
@@ -5930,7 +5927,7 @@
       <c r="D13" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="305">
+      <c r="E13" s="362">
         <v>11</v>
       </c>
       <c r="F13" s="271"/>
@@ -5940,7 +5937,7 @@
       <c r="J13" s="251" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="338" t="s">
+      <c r="K13" s="354" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="228"/>
@@ -5966,7 +5963,7 @@
       <c r="V13" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="318" t="s">
+      <c r="W13" s="358" t="s">
         <v>39</v>
       </c>
       <c r="X13" s="176"/>
@@ -5992,7 +5989,7 @@
       <c r="AH13" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="AI13" s="318" t="s">
+      <c r="AI13" s="358" t="s">
         <v>39</v>
       </c>
       <c r="AJ13" s="176"/>
@@ -6006,7 +6003,7 @@
       <c r="AN13" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="AO13" s="318" t="s">
+      <c r="AO13" s="358" t="s">
         <v>39</v>
       </c>
       <c r="AP13" s="176"/>
@@ -6032,23 +6029,23 @@
       <c r="AZ13" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="BA13" s="322" t="s">
+      <c r="BA13" s="336" t="s">
         <v>39</v>
       </c>
       <c r="BB13" s="176"/>
-      <c r="BC13" s="316" t="s">
+      <c r="BC13" s="356" t="s">
         <v>40</v>
       </c>
       <c r="BD13" s="176"/>
-      <c r="BE13" s="316" t="s">
+      <c r="BE13" s="356" t="s">
         <v>40</v>
       </c>
       <c r="BF13" s="176"/>
-      <c r="BG13" s="316" t="s">
+      <c r="BG13" s="356" t="s">
         <v>40</v>
       </c>
       <c r="BH13" s="176"/>
-      <c r="BI13" s="316" t="s">
+      <c r="BI13" s="356" t="s">
         <v>40</v>
       </c>
       <c r="BJ13" s="1"/>
@@ -6063,7 +6060,7 @@
       <c r="D14" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="306"/>
+      <c r="E14" s="363"/>
       <c r="F14" s="272"/>
       <c r="G14" s="272"/>
       <c r="H14" s="272"/>
@@ -6071,71 +6068,71 @@
       <c r="J14" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="339"/>
+      <c r="K14" s="355"/>
       <c r="L14" s="229"/>
-      <c r="M14" s="313"/>
+      <c r="M14" s="304"/>
       <c r="N14" s="178"/>
-      <c r="O14" s="313"/>
+      <c r="O14" s="304"/>
       <c r="P14" s="178"/>
-      <c r="Q14" s="313"/>
+      <c r="Q14" s="304"/>
       <c r="R14" s="178"/>
-      <c r="S14" s="313"/>
+      <c r="S14" s="304"/>
       <c r="T14" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="313"/>
+      <c r="U14" s="304"/>
       <c r="V14" s="179"/>
-      <c r="W14" s="319"/>
+      <c r="W14" s="359"/>
       <c r="X14" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="Y14" s="313"/>
+      <c r="Y14" s="304"/>
       <c r="Z14" s="178"/>
-      <c r="AA14" s="313"/>
+      <c r="AA14" s="304"/>
       <c r="AB14" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="AC14" s="313"/>
+      <c r="AC14" s="304"/>
       <c r="AD14" s="178"/>
-      <c r="AE14" s="313"/>
+      <c r="AE14" s="304"/>
       <c r="AF14" s="178"/>
-      <c r="AG14" s="313"/>
+      <c r="AG14" s="304"/>
       <c r="AH14" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="AI14" s="319"/>
+      <c r="AI14" s="359"/>
       <c r="AJ14" s="178"/>
-      <c r="AK14" s="313"/>
+      <c r="AK14" s="304"/>
       <c r="AL14" s="178"/>
-      <c r="AM14" s="313"/>
+      <c r="AM14" s="304"/>
       <c r="AN14" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="AO14" s="319"/>
+      <c r="AO14" s="359"/>
       <c r="AP14" s="191" t="s">
         <v>63</v>
       </c>
-      <c r="AQ14" s="313"/>
+      <c r="AQ14" s="304"/>
       <c r="AR14" s="178"/>
-      <c r="AS14" s="313"/>
+      <c r="AS14" s="304"/>
       <c r="AT14" s="178"/>
-      <c r="AU14" s="313"/>
+      <c r="AU14" s="304"/>
       <c r="AV14" s="178"/>
-      <c r="AW14" s="313"/>
+      <c r="AW14" s="304"/>
       <c r="AX14" s="178"/>
-      <c r="AY14" s="313"/>
+      <c r="AY14" s="304"/>
       <c r="AZ14" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="BA14" s="323"/>
+      <c r="BA14" s="337"/>
       <c r="BB14" s="178"/>
-      <c r="BC14" s="317"/>
+      <c r="BC14" s="357"/>
       <c r="BD14" s="178"/>
-      <c r="BE14" s="317"/>
+      <c r="BE14" s="357"/>
       <c r="BF14" s="178"/>
-      <c r="BG14" s="317"/>
+      <c r="BG14" s="357"/>
       <c r="BH14" s="178"/>
-      <c r="BI14" s="317"/>
+      <c r="BI14" s="357"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
     </row>
@@ -6152,7 +6149,7 @@
       <c r="D15" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="305">
+      <c r="E15" s="362">
         <v>20</v>
       </c>
       <c r="F15" s="201"/>
@@ -6162,125 +6159,125 @@
       <c r="J15" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="337" t="s">
+      <c r="K15" s="353" t="s">
         <v>39</v>
       </c>
       <c r="L15" s="140"/>
-      <c r="M15" s="336" t="s">
+      <c r="M15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="N15" s="89"/>
-      <c r="O15" s="336" t="s">
+      <c r="O15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="P15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="322" t="s">
+      <c r="Q15" s="336" t="s">
         <v>39</v>
       </c>
       <c r="R15" s="89"/>
-      <c r="S15" s="336" t="s">
+      <c r="S15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="T15" s="89"/>
-      <c r="U15" s="336" t="s">
+      <c r="U15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="V15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W15" s="336" t="s">
+      <c r="W15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="X15" s="89"/>
-      <c r="Y15" s="336" t="s">
+      <c r="Y15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="Z15" s="89"/>
-      <c r="AA15" s="336" t="s">
+      <c r="AA15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AB15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AC15" s="336" t="s">
+      <c r="AC15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AD15" s="89"/>
-      <c r="AE15" s="336" t="s">
+      <c r="AE15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AF15" s="89"/>
-      <c r="AG15" s="336" t="s">
+      <c r="AG15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AH15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AI15" s="322" t="s">
+      <c r="AI15" s="336" t="s">
         <v>39</v>
       </c>
       <c r="AJ15" s="89"/>
-      <c r="AK15" s="336" t="s">
+      <c r="AK15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AL15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AM15" s="336" t="s">
+      <c r="AM15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AN15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AO15" s="322" t="s">
+      <c r="AO15" s="336" t="s">
         <v>39</v>
       </c>
       <c r="AP15" s="89"/>
-      <c r="AQ15" s="336" t="s">
+      <c r="AQ15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AR15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AS15" s="322" t="s">
+      <c r="AS15" s="336" t="s">
         <v>39</v>
       </c>
       <c r="AT15" s="90"/>
-      <c r="AU15" s="336" t="s">
+      <c r="AU15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AV15" s="89"/>
-      <c r="AW15" s="336" t="s">
+      <c r="AW15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AX15" s="89"/>
-      <c r="AY15" s="336" t="s">
+      <c r="AY15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AZ15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="BA15" s="322" t="s">
+      <c r="BA15" s="336" t="s">
         <v>39</v>
       </c>
       <c r="BB15" s="89"/>
-      <c r="BC15" s="336" t="s">
+      <c r="BC15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="BD15" s="89"/>
-      <c r="BE15" s="336" t="s">
+      <c r="BE15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="BF15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="BG15" s="322" t="s">
+      <c r="BG15" s="336" t="s">
         <v>39</v>
       </c>
       <c r="BH15" s="89"/>
-      <c r="BI15" s="345" t="s">
+      <c r="BI15" s="334" t="s">
         <v>40</v>
       </c>
       <c r="BJ15" s="1"/>
@@ -6295,7 +6292,7 @@
       <c r="D16" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="306"/>
+      <c r="E16" s="363"/>
       <c r="F16" s="270"/>
       <c r="G16" s="270"/>
       <c r="H16" s="270"/>
@@ -6303,75 +6300,75 @@
       <c r="J16" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="330"/>
+      <c r="K16" s="349"/>
       <c r="L16" s="141"/>
-      <c r="M16" s="313"/>
+      <c r="M16" s="304"/>
       <c r="N16" s="72"/>
-      <c r="O16" s="313"/>
+      <c r="O16" s="304"/>
       <c r="P16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="323"/>
+      <c r="Q16" s="337"/>
       <c r="R16" s="72"/>
-      <c r="S16" s="313"/>
+      <c r="S16" s="304"/>
       <c r="T16" s="72"/>
-      <c r="U16" s="313"/>
+      <c r="U16" s="304"/>
       <c r="V16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="W16" s="313"/>
+      <c r="W16" s="304"/>
       <c r="X16" s="72"/>
-      <c r="Y16" s="313"/>
+      <c r="Y16" s="304"/>
       <c r="Z16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AA16" s="313"/>
+      <c r="AA16" s="304"/>
       <c r="AB16" s="72"/>
-      <c r="AC16" s="313"/>
+      <c r="AC16" s="304"/>
       <c r="AD16" s="72"/>
-      <c r="AE16" s="313"/>
+      <c r="AE16" s="304"/>
       <c r="AF16" s="72"/>
-      <c r="AG16" s="313"/>
+      <c r="AG16" s="304"/>
       <c r="AH16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI16" s="323"/>
+      <c r="AI16" s="337"/>
       <c r="AJ16" s="72"/>
-      <c r="AK16" s="313"/>
+      <c r="AK16" s="304"/>
       <c r="AL16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AM16" s="313"/>
+      <c r="AM16" s="304"/>
       <c r="AN16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AO16" s="323"/>
+      <c r="AO16" s="337"/>
       <c r="AP16" s="72"/>
-      <c r="AQ16" s="313"/>
+      <c r="AQ16" s="304"/>
       <c r="AR16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AS16" s="323"/>
+      <c r="AS16" s="337"/>
       <c r="AT16" s="92"/>
-      <c r="AU16" s="313"/>
+      <c r="AU16" s="304"/>
       <c r="AV16" s="72"/>
-      <c r="AW16" s="313"/>
+      <c r="AW16" s="304"/>
       <c r="AX16" s="72"/>
-      <c r="AY16" s="313"/>
+      <c r="AY16" s="304"/>
       <c r="AZ16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BA16" s="323"/>
+      <c r="BA16" s="337"/>
       <c r="BB16" s="72"/>
-      <c r="BC16" s="313"/>
+      <c r="BC16" s="304"/>
       <c r="BD16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BE16" s="313"/>
+      <c r="BE16" s="304"/>
       <c r="BF16" s="72"/>
-      <c r="BG16" s="323"/>
+      <c r="BG16" s="337"/>
       <c r="BH16" s="72"/>
-      <c r="BI16" s="343"/>
+      <c r="BI16" s="335"/>
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
     </row>
@@ -6533,7 +6530,7 @@
       <c r="D18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="305">
+      <c r="E18" s="362">
         <v>12</v>
       </c>
       <c r="F18" s="273"/>
@@ -6543,117 +6540,117 @@
       <c r="J18" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="326" t="s">
+      <c r="K18" s="345" t="s">
         <v>39</v>
       </c>
       <c r="L18" s="152"/>
-      <c r="M18" s="324" t="s">
+      <c r="M18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="N18" s="25"/>
-      <c r="O18" s="324" t="s">
+      <c r="O18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="P18" s="25"/>
-      <c r="Q18" s="324" t="s">
+      <c r="Q18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="R18" s="25"/>
-      <c r="S18" s="324" t="s">
+      <c r="S18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="T18" s="25"/>
-      <c r="U18" s="324" t="s">
+      <c r="U18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="V18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="W18" s="324" t="s">
+      <c r="W18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="X18" s="25"/>
-      <c r="Y18" s="324" t="s">
+      <c r="Y18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="Z18" s="25"/>
-      <c r="AA18" s="324" t="s">
+      <c r="AA18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AB18" s="25"/>
-      <c r="AC18" s="324" t="s">
+      <c r="AC18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AD18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AE18" s="324" t="s">
+      <c r="AE18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AF18" s="25"/>
-      <c r="AG18" s="324" t="s">
+      <c r="AG18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AH18" s="52"/>
-      <c r="AI18" s="346" t="s">
+      <c r="AI18" s="307" t="s">
         <v>39</v>
       </c>
       <c r="AJ18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AK18" s="324" t="s">
+      <c r="AK18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AL18" s="25"/>
-      <c r="AM18" s="324" t="s">
+      <c r="AM18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AN18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AO18" s="324" t="s">
+      <c r="AO18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AP18" s="25"/>
-      <c r="AQ18" s="324" t="s">
+      <c r="AQ18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AR18" s="25"/>
-      <c r="AS18" s="324" t="s">
+      <c r="AS18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AT18" s="25"/>
-      <c r="AU18" s="324" t="s">
+      <c r="AU18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AV18" s="25"/>
-      <c r="AW18" s="324" t="s">
+      <c r="AW18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AX18" s="25"/>
-      <c r="AY18" s="324" t="s">
+      <c r="AY18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AZ18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BA18" s="346" t="s">
+      <c r="BA18" s="307" t="s">
         <v>39</v>
       </c>
       <c r="BB18" s="25"/>
-      <c r="BC18" s="324" t="s">
+      <c r="BC18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BD18" s="25"/>
-      <c r="BE18" s="324" t="s">
+      <c r="BE18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BF18" s="25"/>
-      <c r="BG18" s="324" t="s">
+      <c r="BG18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BH18" s="25"/>
-      <c r="BI18" s="359" t="s">
+      <c r="BI18" s="321" t="s">
         <v>39</v>
       </c>
       <c r="BJ18" s="1"/>
@@ -6668,7 +6665,7 @@
       <c r="D19" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="306"/>
+      <c r="E19" s="363"/>
       <c r="F19" s="273"/>
       <c r="G19" s="273"/>
       <c r="H19" s="273"/>
@@ -6676,67 +6673,67 @@
       <c r="J19" s="255" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="327"/>
+      <c r="K19" s="346"/>
       <c r="L19" s="230"/>
-      <c r="M19" s="325"/>
+      <c r="M19" s="320"/>
       <c r="N19" s="43"/>
-      <c r="O19" s="325"/>
+      <c r="O19" s="320"/>
       <c r="P19" s="43"/>
-      <c r="Q19" s="325"/>
+      <c r="Q19" s="320"/>
       <c r="R19" s="43"/>
-      <c r="S19" s="325"/>
+      <c r="S19" s="320"/>
       <c r="T19" s="43"/>
-      <c r="U19" s="325"/>
+      <c r="U19" s="320"/>
       <c r="V19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="W19" s="325"/>
+      <c r="W19" s="320"/>
       <c r="X19" s="43"/>
-      <c r="Y19" s="325"/>
+      <c r="Y19" s="320"/>
       <c r="Z19" s="43"/>
-      <c r="AA19" s="325"/>
+      <c r="AA19" s="320"/>
       <c r="AB19" s="43"/>
-      <c r="AC19" s="325"/>
+      <c r="AC19" s="320"/>
       <c r="AD19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AE19" s="325"/>
+      <c r="AE19" s="320"/>
       <c r="AF19" s="43"/>
-      <c r="AG19" s="325"/>
+      <c r="AG19" s="320"/>
       <c r="AH19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AI19" s="347"/>
+      <c r="AI19" s="332"/>
       <c r="AJ19" s="43"/>
-      <c r="AK19" s="325"/>
+      <c r="AK19" s="320"/>
       <c r="AL19" s="43"/>
-      <c r="AM19" s="325"/>
+      <c r="AM19" s="320"/>
       <c r="AN19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AO19" s="325"/>
+      <c r="AO19" s="320"/>
       <c r="AP19" s="43"/>
-      <c r="AQ19" s="325"/>
+      <c r="AQ19" s="320"/>
       <c r="AR19" s="43"/>
-      <c r="AS19" s="325"/>
+      <c r="AS19" s="320"/>
       <c r="AT19" s="43"/>
-      <c r="AU19" s="325"/>
+      <c r="AU19" s="320"/>
       <c r="AV19" s="43"/>
-      <c r="AW19" s="325"/>
+      <c r="AW19" s="320"/>
       <c r="AX19" s="43"/>
-      <c r="AY19" s="325"/>
+      <c r="AY19" s="320"/>
       <c r="AZ19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="BA19" s="347"/>
+      <c r="BA19" s="332"/>
       <c r="BB19" s="43"/>
-      <c r="BC19" s="325"/>
+      <c r="BC19" s="320"/>
       <c r="BD19" s="43"/>
-      <c r="BE19" s="325"/>
+      <c r="BE19" s="320"/>
       <c r="BF19" s="43"/>
-      <c r="BG19" s="325"/>
+      <c r="BG19" s="320"/>
       <c r="BH19" s="43"/>
-      <c r="BI19" s="360"/>
+      <c r="BI19" s="322"/>
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
     </row>
@@ -7314,7 +7311,7 @@
       <c r="D24" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="305">
+      <c r="E24" s="362">
         <v>12</v>
       </c>
       <c r="F24" s="273"/>
@@ -7322,121 +7319,121 @@
       <c r="H24" s="273"/>
       <c r="I24" s="215"/>
       <c r="J24" s="257"/>
-      <c r="K24" s="326" t="s">
+      <c r="K24" s="345" t="s">
         <v>39</v>
       </c>
       <c r="L24" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="324" t="s">
+      <c r="M24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="N24" s="25"/>
-      <c r="O24" s="324" t="s">
+      <c r="O24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="P24" s="25"/>
-      <c r="Q24" s="324" t="s">
+      <c r="Q24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="R24" s="25"/>
-      <c r="S24" s="324" t="s">
+      <c r="S24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="T24" s="25"/>
-      <c r="U24" s="324" t="s">
+      <c r="U24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="V24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="W24" s="346" t="s">
+      <c r="W24" s="307" t="s">
         <v>39</v>
       </c>
       <c r="X24" s="25"/>
-      <c r="Y24" s="324" t="s">
+      <c r="Y24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="Z24" s="25"/>
-      <c r="AA24" s="324" t="s">
+      <c r="AA24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AB24" s="25"/>
-      <c r="AC24" s="324" t="s">
+      <c r="AC24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AD24" s="25"/>
-      <c r="AE24" s="324" t="s">
+      <c r="AE24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AF24" s="25"/>
-      <c r="AG24" s="324" t="s">
+      <c r="AG24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AH24" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="AI24" s="346" t="s">
+      <c r="AI24" s="307" t="s">
         <v>39</v>
       </c>
       <c r="AJ24" s="89"/>
-      <c r="AK24" s="324" t="s">
+      <c r="AK24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AL24" s="25"/>
-      <c r="AM24" s="324" t="s">
+      <c r="AM24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AN24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AO24" s="346" t="s">
+      <c r="AO24" s="307" t="s">
         <v>39</v>
       </c>
       <c r="AP24" s="25"/>
-      <c r="AQ24" s="324" t="s">
+      <c r="AQ24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AR24" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AS24" s="324" t="s">
+      <c r="AS24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AT24" s="25"/>
-      <c r="AU24" s="324" t="s">
+      <c r="AU24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AV24" s="25"/>
-      <c r="AW24" s="324" t="s">
+      <c r="AW24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AX24" s="25"/>
-      <c r="AY24" s="324" t="s">
+      <c r="AY24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AZ24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BA24" s="346" t="s">
+      <c r="BA24" s="307" t="s">
         <v>39</v>
       </c>
       <c r="BB24" s="25"/>
-      <c r="BC24" s="324" t="s">
+      <c r="BC24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BD24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BE24" s="324" t="s">
+      <c r="BE24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BF24" s="25"/>
-      <c r="BG24" s="324" t="s">
+      <c r="BG24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BH24" s="25"/>
-      <c r="BI24" s="324" t="s">
+      <c r="BI24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BJ24" s="1"/>
@@ -7451,7 +7448,7 @@
       <c r="D25" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="306"/>
+      <c r="E25" s="363"/>
       <c r="F25" s="273"/>
       <c r="G25" s="273"/>
       <c r="H25" s="273"/>
@@ -7459,64 +7456,64 @@
       <c r="J25" s="255" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="327"/>
+      <c r="K25" s="346"/>
       <c r="L25" s="230"/>
-      <c r="M25" s="325"/>
+      <c r="M25" s="320"/>
       <c r="N25" s="43"/>
-      <c r="O25" s="325"/>
+      <c r="O25" s="320"/>
       <c r="P25" s="43"/>
-      <c r="Q25" s="325"/>
+      <c r="Q25" s="320"/>
       <c r="R25" s="43"/>
-      <c r="S25" s="325"/>
+      <c r="S25" s="320"/>
       <c r="T25" s="43"/>
-      <c r="U25" s="325"/>
+      <c r="U25" s="320"/>
       <c r="V25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="W25" s="347"/>
+      <c r="W25" s="332"/>
       <c r="X25" s="43"/>
-      <c r="Y25" s="325"/>
+      <c r="Y25" s="320"/>
       <c r="Z25" s="43"/>
-      <c r="AA25" s="325"/>
+      <c r="AA25" s="320"/>
       <c r="AB25" s="43"/>
-      <c r="AC25" s="325"/>
+      <c r="AC25" s="320"/>
       <c r="AD25" s="43"/>
-      <c r="AE25" s="325"/>
+      <c r="AE25" s="320"/>
       <c r="AF25" s="43"/>
-      <c r="AG25" s="325"/>
+      <c r="AG25" s="320"/>
       <c r="AH25" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI25" s="347"/>
+      <c r="AI25" s="332"/>
       <c r="AJ25" s="43"/>
-      <c r="AK25" s="325"/>
+      <c r="AK25" s="320"/>
       <c r="AL25" s="43"/>
-      <c r="AM25" s="325"/>
+      <c r="AM25" s="320"/>
       <c r="AN25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AO25" s="347"/>
+      <c r="AO25" s="332"/>
       <c r="AP25" s="43"/>
-      <c r="AQ25" s="325"/>
+      <c r="AQ25" s="320"/>
       <c r="AR25" s="43"/>
-      <c r="AS25" s="325"/>
+      <c r="AS25" s="320"/>
       <c r="AT25" s="43"/>
-      <c r="AU25" s="325"/>
+      <c r="AU25" s="320"/>
       <c r="AV25" s="43"/>
-      <c r="AW25" s="325"/>
+      <c r="AW25" s="320"/>
       <c r="AX25" s="43"/>
-      <c r="AY25" s="325"/>
+      <c r="AY25" s="320"/>
       <c r="AZ25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="BA25" s="347"/>
-      <c r="BC25" s="325"/>
+      <c r="BA25" s="332"/>
+      <c r="BC25" s="320"/>
       <c r="BD25" s="43"/>
-      <c r="BE25" s="325"/>
+      <c r="BE25" s="320"/>
       <c r="BF25" s="43"/>
-      <c r="BG25" s="325"/>
+      <c r="BG25" s="320"/>
       <c r="BH25" s="43"/>
-      <c r="BI25" s="325"/>
+      <c r="BI25" s="320"/>
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
     </row>
@@ -8117,7 +8114,7 @@
       <c r="D30" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="309">
+      <c r="E30" s="366">
         <v>21</v>
       </c>
       <c r="F30" s="202"/>
@@ -8127,7 +8124,7 @@
       <c r="J30" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K30" s="348" t="s">
+      <c r="K30" s="329" t="s">
         <v>39</v>
       </c>
       <c r="L30" s="227"/>
@@ -8143,7 +8140,7 @@
         <v>40</v>
       </c>
       <c r="R30" s="66"/>
-      <c r="S30" s="351" t="s">
+      <c r="S30" s="318" t="s">
         <v>39</v>
       </c>
       <c r="T30" s="66"/>
@@ -8153,7 +8150,7 @@
       <c r="V30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="W30" s="351" t="s">
+      <c r="W30" s="318" t="s">
         <v>39</v>
       </c>
       <c r="X30" s="66"/>
@@ -8179,11 +8176,11 @@
       <c r="AH30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AI30" s="351" t="s">
+      <c r="AI30" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AJ30" s="66"/>
-      <c r="AK30" s="351" t="s">
+      <c r="AK30" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AL30" s="65" t="s">
@@ -8195,7 +8192,7 @@
       <c r="AN30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AO30" s="351" t="s">
+      <c r="AO30" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AP30" s="66"/>
@@ -8211,7 +8208,7 @@
         <v>40</v>
       </c>
       <c r="AV30" s="66"/>
-      <c r="AW30" s="351" t="s">
+      <c r="AW30" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AX30" s="66"/>
@@ -8219,13 +8216,13 @@
         <v>40</v>
       </c>
       <c r="AZ30" s="66"/>
-      <c r="BA30" s="351" t="s">
+      <c r="BA30" s="318" t="s">
         <v>39</v>
       </c>
       <c r="BB30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BC30" s="351" t="s">
+      <c r="BC30" s="318" t="s">
         <v>39</v>
       </c>
       <c r="BD30" s="66"/>
@@ -8235,11 +8232,11 @@
       <c r="BF30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BG30" s="354" t="s">
+      <c r="BG30" s="323" t="s">
         <v>40</v>
       </c>
       <c r="BH30" s="66"/>
-      <c r="BI30" s="354" t="s">
+      <c r="BI30" s="323" t="s">
         <v>40</v>
       </c>
       <c r="BJ30" s="1"/>
@@ -8254,7 +8251,7 @@
       <c r="D31" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="310"/>
+      <c r="E31" s="367"/>
       <c r="F31" s="273"/>
       <c r="G31" s="273"/>
       <c r="H31" s="273"/>
@@ -8262,66 +8259,66 @@
       <c r="J31" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="349"/>
+      <c r="K31" s="330"/>
       <c r="L31" s="232"/>
-      <c r="M31" s="333"/>
+      <c r="M31" s="327"/>
       <c r="N31" s="21"/>
-      <c r="O31" s="333"/>
+      <c r="O31" s="327"/>
       <c r="P31" s="21"/>
-      <c r="Q31" s="333"/>
+      <c r="Q31" s="327"/>
       <c r="R31" s="21"/>
-      <c r="S31" s="352"/>
+      <c r="S31" s="326"/>
       <c r="T31" s="21"/>
-      <c r="U31" s="333"/>
+      <c r="U31" s="327"/>
       <c r="V31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="W31" s="352"/>
+      <c r="W31" s="326"/>
       <c r="X31" s="21"/>
-      <c r="Y31" s="333"/>
+      <c r="Y31" s="327"/>
       <c r="Z31" s="21"/>
-      <c r="AA31" s="333"/>
+      <c r="AA31" s="327"/>
       <c r="AB31" s="21"/>
-      <c r="AC31" s="333"/>
+      <c r="AC31" s="327"/>
       <c r="AD31" s="21"/>
-      <c r="AE31" s="333"/>
+      <c r="AE31" s="327"/>
       <c r="AF31" s="21"/>
-      <c r="AG31" s="333"/>
+      <c r="AG31" s="327"/>
       <c r="AH31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AI31" s="352"/>
-      <c r="AK31" s="352"/>
+      <c r="AI31" s="326"/>
+      <c r="AK31" s="326"/>
       <c r="AL31" s="21"/>
-      <c r="AM31" s="333"/>
+      <c r="AM31" s="327"/>
       <c r="AN31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AO31" s="352"/>
+      <c r="AO31" s="326"/>
       <c r="AP31" s="21"/>
-      <c r="AQ31" s="333"/>
+      <c r="AQ31" s="327"/>
       <c r="AR31" s="21"/>
-      <c r="AS31" s="333"/>
+      <c r="AS31" s="327"/>
       <c r="AT31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AU31" s="333"/>
+      <c r="AU31" s="327"/>
       <c r="AV31" s="21"/>
-      <c r="AW31" s="352"/>
+      <c r="AW31" s="326"/>
       <c r="AX31" s="21"/>
-      <c r="AY31" s="333"/>
+      <c r="AY31" s="327"/>
       <c r="AZ31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="BA31" s="352"/>
+      <c r="BA31" s="326"/>
       <c r="BB31" s="21"/>
-      <c r="BC31" s="352"/>
+      <c r="BC31" s="326"/>
       <c r="BD31" s="21"/>
-      <c r="BE31" s="333"/>
+      <c r="BE31" s="327"/>
       <c r="BF31" s="21"/>
-      <c r="BG31" s="355"/>
+      <c r="BG31" s="328"/>
       <c r="BH31" s="21"/>
-      <c r="BI31" s="355"/>
+      <c r="BI31" s="328"/>
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
     </row>
@@ -8334,7 +8331,7 @@
       <c r="D32" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="311"/>
+      <c r="E32" s="368"/>
       <c r="F32" s="198"/>
       <c r="G32" s="198"/>
       <c r="H32" s="198"/>
@@ -8342,71 +8339,71 @@
       <c r="J32" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="350"/>
+      <c r="K32" s="331"/>
       <c r="L32" s="233"/>
-      <c r="M32" s="331"/>
+      <c r="M32" s="311"/>
       <c r="N32" s="117"/>
-      <c r="O32" s="331"/>
+      <c r="O32" s="311"/>
       <c r="P32" s="117"/>
-      <c r="Q32" s="331"/>
+      <c r="Q32" s="311"/>
       <c r="R32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="S32" s="353"/>
+      <c r="S32" s="319"/>
       <c r="T32" s="117"/>
-      <c r="U32" s="331"/>
+      <c r="U32" s="311"/>
       <c r="V32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="W32" s="353"/>
+      <c r="W32" s="319"/>
       <c r="X32" s="118"/>
-      <c r="Y32" s="331"/>
+      <c r="Y32" s="311"/>
       <c r="Z32" s="117"/>
-      <c r="AA32" s="331"/>
+      <c r="AA32" s="311"/>
       <c r="AB32" s="117"/>
-      <c r="AC32" s="331"/>
+      <c r="AC32" s="311"/>
       <c r="AD32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AE32" s="331"/>
+      <c r="AE32" s="311"/>
       <c r="AF32" s="117"/>
-      <c r="AG32" s="331"/>
+      <c r="AG32" s="311"/>
       <c r="AH32" s="118"/>
-      <c r="AI32" s="353"/>
+      <c r="AI32" s="319"/>
       <c r="AJ32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AK32" s="353"/>
+      <c r="AK32" s="319"/>
       <c r="AL32" s="117"/>
-      <c r="AM32" s="331"/>
+      <c r="AM32" s="311"/>
       <c r="AN32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AO32" s="353"/>
+      <c r="AO32" s="319"/>
       <c r="AP32" s="117"/>
-      <c r="AQ32" s="331"/>
+      <c r="AQ32" s="311"/>
       <c r="AR32" s="117"/>
-      <c r="AS32" s="331"/>
+      <c r="AS32" s="311"/>
       <c r="AT32" s="118"/>
-      <c r="AU32" s="331"/>
+      <c r="AU32" s="311"/>
       <c r="AV32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AW32" s="353"/>
+      <c r="AW32" s="319"/>
       <c r="AX32" s="117"/>
-      <c r="AY32" s="331"/>
+      <c r="AY32" s="311"/>
       <c r="AZ32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="BA32" s="353"/>
+      <c r="BA32" s="319"/>
       <c r="BB32" s="117"/>
-      <c r="BC32" s="353"/>
+      <c r="BC32" s="319"/>
       <c r="BD32" s="117"/>
-      <c r="BE32" s="331"/>
+      <c r="BE32" s="311"/>
       <c r="BF32" s="117"/>
-      <c r="BG32" s="356"/>
+      <c r="BG32" s="324"/>
       <c r="BH32" s="117"/>
-      <c r="BI32" s="356"/>
+      <c r="BI32" s="324"/>
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
     </row>
@@ -8423,7 +8420,7 @@
       <c r="D33" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="309">
+      <c r="E33" s="366">
         <v>20</v>
       </c>
       <c r="F33" s="202"/>
@@ -8433,7 +8430,7 @@
       <c r="J33" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K33" s="328" t="s">
+      <c r="K33" s="347" t="s">
         <v>39</v>
       </c>
       <c r="L33" s="227"/>
@@ -8461,7 +8458,7 @@
       <c r="V33" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="W33" s="344" t="s">
+      <c r="W33" s="325" t="s">
         <v>39</v>
       </c>
       <c r="X33" s="66"/>
@@ -8489,7 +8486,7 @@
       <c r="AH33" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AI33" s="344" t="s">
+      <c r="AI33" s="325" t="s">
         <v>39</v>
       </c>
       <c r="AJ33" s="66"/>
@@ -8533,7 +8530,7 @@
       <c r="AZ33" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BA33" s="344" t="s">
+      <c r="BA33" s="325" t="s">
         <v>39</v>
       </c>
       <c r="BB33" s="66"/>
@@ -8547,11 +8544,11 @@
         <v>40</v>
       </c>
       <c r="BF33" s="66"/>
-      <c r="BG33" s="357" t="s">
+      <c r="BG33" s="315" t="s">
         <v>39</v>
       </c>
       <c r="BH33" s="66"/>
-      <c r="BI33" s="354" t="s">
+      <c r="BI33" s="323" t="s">
         <v>40</v>
       </c>
       <c r="BJ33" s="1"/>
@@ -8566,7 +8563,7 @@
       <c r="D34" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="311"/>
+      <c r="E34" s="368"/>
       <c r="F34" s="198"/>
       <c r="G34" s="198"/>
       <c r="H34" s="198"/>
@@ -8574,77 +8571,77 @@
       <c r="J34" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="329"/>
+      <c r="K34" s="348"/>
       <c r="L34" s="233"/>
-      <c r="M34" s="331"/>
+      <c r="M34" s="311"/>
       <c r="N34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="331"/>
+      <c r="O34" s="311"/>
       <c r="P34" s="117"/>
-      <c r="Q34" s="331"/>
+      <c r="Q34" s="311"/>
       <c r="R34" s="117"/>
-      <c r="S34" s="331"/>
+      <c r="S34" s="311"/>
       <c r="T34" s="117"/>
-      <c r="U34" s="331"/>
+      <c r="U34" s="311"/>
       <c r="V34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="W34" s="358"/>
+      <c r="W34" s="308"/>
       <c r="X34" s="117"/>
-      <c r="Y34" s="331"/>
+      <c r="Y34" s="311"/>
       <c r="Z34" s="117"/>
-      <c r="AA34" s="331"/>
+      <c r="AA34" s="311"/>
       <c r="AB34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AC34" s="331"/>
+      <c r="AC34" s="311"/>
       <c r="AD34" s="117"/>
-      <c r="AE34" s="331"/>
+      <c r="AE34" s="311"/>
       <c r="AF34" s="117"/>
-      <c r="AG34" s="331"/>
+      <c r="AG34" s="311"/>
       <c r="AH34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AI34" s="358"/>
+      <c r="AI34" s="308"/>
       <c r="AJ34" s="117"/>
-      <c r="AK34" s="331"/>
+      <c r="AK34" s="311"/>
       <c r="AL34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AM34" s="331"/>
+      <c r="AM34" s="311"/>
       <c r="AN34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AO34" s="331"/>
+      <c r="AO34" s="311"/>
       <c r="AP34" s="117"/>
-      <c r="AQ34" s="331"/>
+      <c r="AQ34" s="311"/>
       <c r="AR34" s="118"/>
-      <c r="AS34" s="331"/>
+      <c r="AS34" s="311"/>
       <c r="AT34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AU34" s="331"/>
+      <c r="AU34" s="311"/>
       <c r="AV34" s="117"/>
-      <c r="AW34" s="331"/>
+      <c r="AW34" s="311"/>
       <c r="AX34" s="117"/>
-      <c r="AY34" s="331"/>
+      <c r="AY34" s="311"/>
       <c r="AZ34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="BA34" s="358"/>
+      <c r="BA34" s="308"/>
       <c r="BB34" s="117"/>
-      <c r="BC34" s="331"/>
+      <c r="BC34" s="311"/>
       <c r="BD34" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="BE34" s="331"/>
+      <c r="BE34" s="311"/>
       <c r="BF34" s="192" t="s">
         <v>63</v>
       </c>
-      <c r="BG34" s="358"/>
+      <c r="BG34" s="308"/>
       <c r="BH34" s="117"/>
-      <c r="BI34" s="356"/>
+      <c r="BI34" s="324"/>
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1"/>
     </row>
@@ -8812,7 +8809,7 @@
       <c r="D36" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="309">
+      <c r="E36" s="366">
         <v>19</v>
       </c>
       <c r="F36" s="274"/>
@@ -8822,7 +8819,7 @@
       <c r="J36" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K36" s="320" t="s">
+      <c r="K36" s="350" t="s">
         <v>40</v>
       </c>
       <c r="L36" s="227"/>
@@ -8848,7 +8845,7 @@
         <v>40</v>
       </c>
       <c r="V36" s="66"/>
-      <c r="W36" s="351" t="s">
+      <c r="W36" s="318" t="s">
         <v>39</v>
       </c>
       <c r="X36" s="65" t="s">
@@ -8862,7 +8859,7 @@
         <v>40</v>
       </c>
       <c r="AB36" s="66"/>
-      <c r="AC36" s="351" t="s">
+      <c r="AC36" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AD36" s="65" t="s">
@@ -8878,7 +8875,7 @@
       <c r="AH36" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AI36" s="351" t="s">
+      <c r="AI36" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AJ36" s="66"/>
@@ -8892,7 +8889,7 @@
       <c r="AN36" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AO36" s="351" t="s">
+      <c r="AO36" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AP36" s="66"/>
@@ -8910,7 +8907,7 @@
       <c r="AV36" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AW36" s="351" t="s">
+      <c r="AW36" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AX36" s="66"/>
@@ -8920,7 +8917,7 @@
       <c r="AZ36" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BA36" s="351" t="s">
+      <c r="BA36" s="318" t="s">
         <v>39</v>
       </c>
       <c r="BB36" s="66"/>
@@ -8940,7 +8937,7 @@
       <c r="BH36" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="BI36" s="359" t="s">
+      <c r="BI36" s="321" t="s">
         <v>39</v>
       </c>
       <c r="BJ36" s="1"/>
@@ -8955,7 +8952,7 @@
       <c r="D37" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="311"/>
+      <c r="E37" s="368"/>
       <c r="F37" s="275"/>
       <c r="G37" s="275"/>
       <c r="H37" s="275"/>
@@ -8963,75 +8960,75 @@
       <c r="J37" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="K37" s="332"/>
+      <c r="K37" s="351"/>
       <c r="L37" s="233"/>
-      <c r="M37" s="331"/>
+      <c r="M37" s="311"/>
       <c r="N37" s="117"/>
-      <c r="O37" s="331"/>
+      <c r="O37" s="311"/>
       <c r="P37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="Q37" s="331"/>
+      <c r="Q37" s="311"/>
       <c r="R37" s="117"/>
-      <c r="S37" s="331"/>
+      <c r="S37" s="311"/>
       <c r="T37" s="117"/>
-      <c r="U37" s="331"/>
+      <c r="U37" s="311"/>
       <c r="V37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="W37" s="353"/>
+      <c r="W37" s="319"/>
       <c r="X37" s="117"/>
-      <c r="Y37" s="331"/>
+      <c r="Y37" s="311"/>
       <c r="Z37" s="117"/>
-      <c r="AA37" s="331"/>
+      <c r="AA37" s="311"/>
       <c r="AB37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AC37" s="353"/>
+      <c r="AC37" s="319"/>
       <c r="AD37" s="117"/>
-      <c r="AE37" s="331"/>
+      <c r="AE37" s="311"/>
       <c r="AF37" s="117"/>
-      <c r="AG37" s="331"/>
+      <c r="AG37" s="311"/>
       <c r="AH37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AI37" s="353"/>
+      <c r="AI37" s="319"/>
       <c r="AJ37" s="117"/>
-      <c r="AK37" s="331"/>
+      <c r="AK37" s="311"/>
       <c r="AL37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AM37" s="331"/>
+      <c r="AM37" s="311"/>
       <c r="AN37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AO37" s="353"/>
+      <c r="AO37" s="319"/>
       <c r="AP37" s="117"/>
-      <c r="AQ37" s="331"/>
+      <c r="AQ37" s="311"/>
       <c r="AR37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AS37" s="331"/>
+      <c r="AS37" s="311"/>
       <c r="AT37" s="117"/>
-      <c r="AU37" s="331"/>
+      <c r="AU37" s="311"/>
       <c r="AV37" s="117"/>
-      <c r="AW37" s="353"/>
+      <c r="AW37" s="319"/>
       <c r="AX37" s="117"/>
-      <c r="AY37" s="331"/>
+      <c r="AY37" s="311"/>
       <c r="AZ37" s="117"/>
-      <c r="BA37" s="353"/>
+      <c r="BA37" s="319"/>
       <c r="BB37" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BC37" s="331"/>
+      <c r="BC37" s="311"/>
       <c r="BD37" s="117"/>
-      <c r="BE37" s="331"/>
+      <c r="BE37" s="311"/>
       <c r="BF37" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BG37" s="331"/>
+      <c r="BG37" s="311"/>
       <c r="BH37" s="117"/>
-      <c r="BI37" s="360"/>
+      <c r="BI37" s="322"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
     </row>
@@ -9048,7 +9045,7 @@
       <c r="D38" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="309">
+      <c r="E38" s="366">
         <v>20</v>
       </c>
       <c r="F38" s="274"/>
@@ -9058,7 +9055,7 @@
       <c r="J38" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K38" s="320" t="s">
+      <c r="K38" s="350" t="s">
         <v>40</v>
       </c>
       <c r="L38" s="227"/>
@@ -9076,7 +9073,7 @@
       <c r="R38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="S38" s="351" t="s">
+      <c r="S38" s="318" t="s">
         <v>39</v>
       </c>
       <c r="T38" s="66"/>
@@ -9098,13 +9095,13 @@
         <v>40</v>
       </c>
       <c r="AB38" s="66"/>
-      <c r="AC38" s="361" t="s">
+      <c r="AC38" s="316" t="s">
         <v>40</v>
       </c>
       <c r="AD38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AE38" s="351" t="s">
+      <c r="AE38" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AF38" s="66"/>
@@ -9124,7 +9121,7 @@
       <c r="AL38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AM38" s="351" t="s">
+      <c r="AM38" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AN38" s="65" t="s">
@@ -9148,7 +9145,7 @@
       <c r="AV38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AW38" s="351" t="s">
+      <c r="AW38" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AX38" s="66"/>
@@ -9172,7 +9169,7 @@
       <c r="BF38" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="BG38" s="357" t="s">
+      <c r="BG38" s="315" t="s">
         <v>39</v>
       </c>
       <c r="BH38" s="66"/>
@@ -9191,7 +9188,7 @@
       <c r="D39" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="E39" s="306"/>
+      <c r="E39" s="363"/>
       <c r="F39" s="276"/>
       <c r="G39" s="276"/>
       <c r="H39" s="276"/>
@@ -9199,77 +9196,77 @@
       <c r="J39" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K39" s="321"/>
+      <c r="K39" s="352"/>
       <c r="L39" s="141"/>
-      <c r="M39" s="313"/>
+      <c r="M39" s="304"/>
       <c r="N39" s="72"/>
-      <c r="O39" s="313"/>
+      <c r="O39" s="304"/>
       <c r="P39" s="72"/>
-      <c r="Q39" s="313"/>
+      <c r="Q39" s="304"/>
       <c r="R39" s="72"/>
-      <c r="S39" s="353"/>
+      <c r="S39" s="319"/>
       <c r="T39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="U39" s="313"/>
+      <c r="U39" s="304"/>
       <c r="V39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="W39" s="313"/>
+      <c r="W39" s="304"/>
       <c r="X39" s="72"/>
-      <c r="Y39" s="313"/>
+      <c r="Y39" s="304"/>
       <c r="Z39" s="72"/>
-      <c r="AA39" s="313"/>
+      <c r="AA39" s="304"/>
       <c r="AB39" s="72"/>
-      <c r="AC39" s="362"/>
+      <c r="AC39" s="317"/>
       <c r="AD39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AE39" s="353"/>
+      <c r="AE39" s="319"/>
       <c r="AF39" s="72"/>
-      <c r="AG39" s="313"/>
+      <c r="AG39" s="304"/>
       <c r="AH39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI39" s="313"/>
+      <c r="AI39" s="304"/>
       <c r="AJ39" s="72"/>
-      <c r="AK39" s="313"/>
+      <c r="AK39" s="304"/>
       <c r="AL39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AM39" s="353"/>
+      <c r="AM39" s="319"/>
       <c r="AN39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AO39" s="313"/>
+      <c r="AO39" s="304"/>
       <c r="AP39" s="72"/>
-      <c r="AQ39" s="313"/>
+      <c r="AQ39" s="304"/>
       <c r="AR39" s="72"/>
-      <c r="AS39" s="313"/>
+      <c r="AS39" s="304"/>
       <c r="AT39" s="72"/>
-      <c r="AU39" s="313"/>
+      <c r="AU39" s="304"/>
       <c r="AV39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AW39" s="353"/>
+      <c r="AW39" s="319"/>
       <c r="AX39" s="72"/>
-      <c r="AY39" s="313"/>
+      <c r="AY39" s="304"/>
       <c r="AZ39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BA39" s="313"/>
+      <c r="BA39" s="304"/>
       <c r="BB39" s="72"/>
-      <c r="BC39" s="313"/>
+      <c r="BC39" s="304"/>
       <c r="BD39" s="188" t="s">
         <v>113</v>
       </c>
-      <c r="BE39" s="313"/>
+      <c r="BE39" s="304"/>
       <c r="BF39" s="72"/>
-      <c r="BG39" s="358"/>
+      <c r="BG39" s="308"/>
       <c r="BH39" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="BI39" s="313"/>
+      <c r="BI39" s="304"/>
       <c r="BJ39" s="1"/>
       <c r="BK39" s="1"/>
     </row>
@@ -9433,7 +9430,7 @@
       <c r="D41" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="305">
+      <c r="E41" s="362">
         <v>10</v>
       </c>
       <c r="F41" s="278"/>
@@ -9443,7 +9440,7 @@
       <c r="J41" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K41" s="320" t="s">
+      <c r="K41" s="350" t="s">
         <v>40</v>
       </c>
       <c r="L41" s="235"/>
@@ -9469,7 +9466,7 @@
       <c r="V41" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="W41" s="363" t="s">
+      <c r="W41" s="313" t="s">
         <v>39</v>
       </c>
       <c r="X41" s="183"/>
@@ -9495,7 +9492,7 @@
       <c r="AH41" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="AI41" s="363" t="s">
+      <c r="AI41" s="313" t="s">
         <v>39</v>
       </c>
       <c r="AJ41" s="187"/>
@@ -9509,7 +9506,7 @@
       <c r="AN41" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="AO41" s="363" t="s">
+      <c r="AO41" s="313" t="s">
         <v>39</v>
       </c>
       <c r="AP41" s="183"/>
@@ -9566,75 +9563,75 @@
       <c r="D42" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="306"/>
+      <c r="E42" s="363"/>
       <c r="F42" s="279"/>
       <c r="G42" s="279"/>
       <c r="H42" s="279"/>
       <c r="I42" s="221"/>
       <c r="J42" s="264"/>
-      <c r="K42" s="321"/>
+      <c r="K42" s="352"/>
       <c r="L42" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="M42" s="313"/>
+      <c r="M42" s="304"/>
       <c r="N42" s="185"/>
-      <c r="O42" s="313"/>
+      <c r="O42" s="304"/>
       <c r="P42" s="185"/>
-      <c r="Q42" s="313"/>
+      <c r="Q42" s="304"/>
       <c r="R42" s="186"/>
-      <c r="S42" s="313"/>
+      <c r="S42" s="304"/>
       <c r="T42" s="185"/>
-      <c r="U42" s="313"/>
+      <c r="U42" s="304"/>
       <c r="V42" s="189" t="s">
         <v>63</v>
       </c>
-      <c r="W42" s="364"/>
+      <c r="W42" s="314"/>
       <c r="X42" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="Y42" s="313"/>
+      <c r="Y42" s="304"/>
       <c r="Z42" s="185"/>
-      <c r="AA42" s="313"/>
+      <c r="AA42" s="304"/>
       <c r="AB42" s="185"/>
-      <c r="AC42" s="313"/>
+      <c r="AC42" s="304"/>
       <c r="AD42" s="186"/>
-      <c r="AE42" s="313"/>
+      <c r="AE42" s="304"/>
       <c r="AF42" s="185"/>
-      <c r="AG42" s="313"/>
+      <c r="AG42" s="304"/>
       <c r="AH42" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="AI42" s="364"/>
+      <c r="AI42" s="314"/>
       <c r="AJ42" s="186"/>
-      <c r="AK42" s="313"/>
+      <c r="AK42" s="304"/>
       <c r="AL42" s="186"/>
-      <c r="AM42" s="313"/>
+      <c r="AM42" s="304"/>
       <c r="AN42" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="AO42" s="364"/>
+      <c r="AO42" s="314"/>
       <c r="AP42" s="185"/>
-      <c r="AQ42" s="313"/>
+      <c r="AQ42" s="304"/>
       <c r="AR42" s="185"/>
-      <c r="AS42" s="313"/>
+      <c r="AS42" s="304"/>
       <c r="AT42" s="185"/>
-      <c r="AU42" s="313"/>
+      <c r="AU42" s="304"/>
       <c r="AV42" s="185"/>
-      <c r="AW42" s="313"/>
+      <c r="AW42" s="304"/>
       <c r="AX42" s="185"/>
-      <c r="AY42" s="313"/>
+      <c r="AY42" s="304"/>
       <c r="AZ42" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="BA42" s="313"/>
+      <c r="BA42" s="304"/>
       <c r="BB42" s="185"/>
-      <c r="BC42" s="313"/>
+      <c r="BC42" s="304"/>
       <c r="BD42" s="185"/>
-      <c r="BE42" s="313"/>
+      <c r="BE42" s="304"/>
       <c r="BF42" s="185"/>
-      <c r="BG42" s="313"/>
+      <c r="BG42" s="304"/>
       <c r="BH42" s="185"/>
-      <c r="BI42" s="313"/>
+      <c r="BI42" s="304"/>
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
     </row>
@@ -9651,137 +9648,137 @@
       <c r="D43" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="305">
+      <c r="E43" s="362">
         <v>17</v>
       </c>
-      <c r="F43" s="305">
+      <c r="F43" s="362">
         <v>5</v>
       </c>
-      <c r="G43" s="305">
+      <c r="G43" s="362">
         <v>2</v>
       </c>
-      <c r="H43" s="305">
+      <c r="H43" s="362">
         <v>7</v>
       </c>
       <c r="I43" s="222"/>
       <c r="J43" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="K43" s="326" t="s">
+      <c r="K43" s="345" t="s">
         <v>39</v>
       </c>
       <c r="L43" s="152"/>
-      <c r="M43" s="324" t="s">
+      <c r="M43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="N43" s="25"/>
-      <c r="O43" s="324" t="s">
+      <c r="O43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="P43" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="Q43" s="324" t="s">
+      <c r="Q43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="R43" s="25"/>
-      <c r="S43" s="324" t="s">
+      <c r="S43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="T43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="U43" s="367" t="s">
+      <c r="U43" s="309" t="s">
         <v>39</v>
       </c>
       <c r="V43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="W43" s="346" t="s">
+      <c r="W43" s="307" t="s">
         <v>39</v>
       </c>
       <c r="X43" s="152"/>
-      <c r="Y43" s="324" t="s">
+      <c r="Y43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="Z43" s="25"/>
-      <c r="AA43" s="324" t="s">
+      <c r="AA43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AB43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AC43" s="324" t="s">
+      <c r="AC43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AD43" s="25"/>
-      <c r="AE43" s="324" t="s">
+      <c r="AE43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AF43" s="25"/>
-      <c r="AG43" s="324" t="s">
+      <c r="AG43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AH43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI43" s="324" t="s">
+      <c r="AI43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AJ43" s="25"/>
-      <c r="AK43" s="324" t="s">
+      <c r="AK43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AL43" s="25"/>
-      <c r="AM43" s="324" t="s">
+      <c r="AM43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AN43" s="25"/>
-      <c r="AO43" s="324" t="s">
+      <c r="AO43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AP43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AQ43" s="324" t="s">
+      <c r="AQ43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AR43" s="25"/>
-      <c r="AS43" s="324" t="s">
+      <c r="AS43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AT43" s="25"/>
-      <c r="AU43" s="324" t="s">
+      <c r="AU43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AV43" s="25"/>
-      <c r="AW43" s="324" t="s">
+      <c r="AW43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AX43" s="25"/>
-      <c r="AY43" s="324" t="s">
+      <c r="AY43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AZ43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BA43" s="346" t="s">
+      <c r="BA43" s="307" t="s">
         <v>39</v>
       </c>
       <c r="BB43" s="25"/>
-      <c r="BC43" s="324" t="s">
+      <c r="BC43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BD43" s="25"/>
-      <c r="BE43" s="324" t="s">
+      <c r="BE43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BF43" s="25"/>
-      <c r="BG43" s="324" t="s">
+      <c r="BG43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BH43" s="25"/>
-      <c r="BI43" s="365" t="s">
+      <c r="BI43" s="305" t="s">
         <v>39</v>
       </c>
       <c r="BJ43" s="1"/>
@@ -9796,80 +9793,80 @@
       <c r="D44" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="306"/>
-      <c r="F44" s="306"/>
-      <c r="G44" s="306"/>
-      <c r="H44" s="306"/>
+      <c r="E44" s="363"/>
+      <c r="F44" s="363"/>
+      <c r="G44" s="363"/>
+      <c r="H44" s="363"/>
       <c r="I44" s="218"/>
       <c r="J44" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K44" s="330"/>
+      <c r="K44" s="349"/>
       <c r="L44" s="141"/>
-      <c r="M44" s="313"/>
+      <c r="M44" s="304"/>
       <c r="N44" s="72"/>
-      <c r="O44" s="313"/>
+      <c r="O44" s="304"/>
       <c r="P44" s="72"/>
-      <c r="Q44" s="313"/>
+      <c r="Q44" s="304"/>
       <c r="R44" s="72"/>
-      <c r="S44" s="313"/>
+      <c r="S44" s="304"/>
       <c r="T44" s="72"/>
-      <c r="U44" s="368"/>
+      <c r="U44" s="310"/>
       <c r="V44" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="358"/>
+      <c r="W44" s="308"/>
       <c r="X44" s="141"/>
-      <c r="Y44" s="313"/>
+      <c r="Y44" s="304"/>
       <c r="Z44" s="72"/>
-      <c r="AA44" s="313"/>
+      <c r="AA44" s="304"/>
       <c r="AB44" s="72"/>
-      <c r="AC44" s="313"/>
+      <c r="AC44" s="304"/>
       <c r="AD44" s="72"/>
-      <c r="AE44" s="313"/>
+      <c r="AE44" s="304"/>
       <c r="AF44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AG44" s="313"/>
+      <c r="AG44" s="304"/>
       <c r="AH44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI44" s="313"/>
+      <c r="AI44" s="304"/>
       <c r="AJ44" s="72"/>
-      <c r="AK44" s="313"/>
+      <c r="AK44" s="304"/>
       <c r="AL44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AM44" s="313"/>
+      <c r="AM44" s="304"/>
       <c r="AN44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AO44" s="313"/>
+      <c r="AO44" s="304"/>
       <c r="AP44" s="72"/>
-      <c r="AQ44" s="313"/>
+      <c r="AQ44" s="304"/>
       <c r="AR44" s="72"/>
-      <c r="AS44" s="313"/>
+      <c r="AS44" s="304"/>
       <c r="AT44" s="72"/>
-      <c r="AU44" s="313"/>
+      <c r="AU44" s="304"/>
       <c r="AV44" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AW44" s="313"/>
+      <c r="AW44" s="304"/>
       <c r="AX44" s="117"/>
-      <c r="AY44" s="331"/>
+      <c r="AY44" s="311"/>
       <c r="AZ44" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="BA44" s="358"/>
+      <c r="BA44" s="308"/>
       <c r="BB44" s="117"/>
-      <c r="BC44" s="331"/>
+      <c r="BC44" s="311"/>
       <c r="BD44" s="117"/>
-      <c r="BE44" s="313"/>
-      <c r="BG44" s="313"/>
+      <c r="BE44" s="304"/>
+      <c r="BG44" s="304"/>
       <c r="BH44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BI44" s="366"/>
+      <c r="BI44" s="306"/>
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1"/>
     </row>
@@ -10720,56 +10717,264 @@
     <sortCondition ref="C7:C53"/>
   </sortState>
   <mergeCells count="332">
-    <mergeCell ref="BG43:BG44"/>
-    <mergeCell ref="BI43:BI44"/>
-    <mergeCell ref="BA43:BA44"/>
-    <mergeCell ref="AW43:AW44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="AQ43:AQ44"/>
-    <mergeCell ref="AS43:AS44"/>
-    <mergeCell ref="AU43:AU44"/>
-    <mergeCell ref="AY43:AY44"/>
-    <mergeCell ref="BC43:BC44"/>
-    <mergeCell ref="BE43:BE44"/>
-    <mergeCell ref="AE43:AE44"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AK43:AK44"/>
-    <mergeCell ref="AM43:AM44"/>
-    <mergeCell ref="AO43:AO44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="BA38:BA39"/>
-    <mergeCell ref="BC38:BC39"/>
-    <mergeCell ref="BE38:BE39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="Y38:Y39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="Y41:Y42"/>
-    <mergeCell ref="AA41:AA42"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AO41:AO42"/>
-    <mergeCell ref="AM41:AM42"/>
-    <mergeCell ref="BG38:BG39"/>
-    <mergeCell ref="BI38:BI39"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AO38:AO39"/>
-    <mergeCell ref="AQ38:AQ39"/>
-    <mergeCell ref="AS38:AS39"/>
-    <mergeCell ref="AU38:AU39"/>
-    <mergeCell ref="AW38:AW39"/>
-    <mergeCell ref="AY38:AY39"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="BE13:BE14"/>
+    <mergeCell ref="BG13:BG14"/>
+    <mergeCell ref="BI13:BI14"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AO13:AO14"/>
+    <mergeCell ref="AS13:AS14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="BA41:BA42"/>
+    <mergeCell ref="BC41:BC42"/>
+    <mergeCell ref="BE41:BE42"/>
+    <mergeCell ref="BG41:BG42"/>
+    <mergeCell ref="BI41:BI42"/>
+    <mergeCell ref="AY41:AY42"/>
+    <mergeCell ref="AW41:AW42"/>
+    <mergeCell ref="AU41:AU42"/>
+    <mergeCell ref="AS41:AS42"/>
+    <mergeCell ref="AQ41:AQ42"/>
+    <mergeCell ref="AK41:AK42"/>
+    <mergeCell ref="AE41:AE42"/>
+    <mergeCell ref="AG41:AG42"/>
+    <mergeCell ref="AC41:AC42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AQ13:AQ14"/>
+    <mergeCell ref="AU13:AU14"/>
+    <mergeCell ref="AW13:AW14"/>
+    <mergeCell ref="AY13:AY14"/>
+    <mergeCell ref="BA13:BA14"/>
+    <mergeCell ref="BC13:BC14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="BG3:BG4"/>
+    <mergeCell ref="BI3:BI4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="BA3:BA4"/>
+    <mergeCell ref="BC3:BC4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="BI9:BI10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="BA9:BA10"/>
+    <mergeCell ref="AU9:AU10"/>
+    <mergeCell ref="AW9:AW10"/>
+    <mergeCell ref="AY9:AY10"/>
+    <mergeCell ref="BC9:BC10"/>
+    <mergeCell ref="BE9:BE10"/>
+    <mergeCell ref="BG9:BG10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AK15:AK16"/>
+    <mergeCell ref="AM15:AM16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="BE15:BE16"/>
+    <mergeCell ref="BI15:BI16"/>
+    <mergeCell ref="AO15:AO16"/>
+    <mergeCell ref="AI15:AI16"/>
+    <mergeCell ref="BC15:BC16"/>
+    <mergeCell ref="BG15:BG16"/>
+    <mergeCell ref="AQ15:AQ16"/>
+    <mergeCell ref="AS15:AS16"/>
+    <mergeCell ref="AU15:AU16"/>
+    <mergeCell ref="AW15:AW16"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="BA15:BA16"/>
+    <mergeCell ref="BA18:BA19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AS18:AS19"/>
+    <mergeCell ref="AU18:AU19"/>
+    <mergeCell ref="AW18:AW19"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="AM18:AM19"/>
+    <mergeCell ref="AO18:AO19"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AU24:AU25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="BI24:BI25"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="S30:S32"/>
+    <mergeCell ref="W30:W32"/>
+    <mergeCell ref="AI30:AI32"/>
+    <mergeCell ref="AO30:AO32"/>
+    <mergeCell ref="BA30:BA32"/>
+    <mergeCell ref="BG30:BG32"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="AW24:AW25"/>
+    <mergeCell ref="AY24:AY25"/>
+    <mergeCell ref="BC24:BC25"/>
+    <mergeCell ref="BE24:BE25"/>
+    <mergeCell ref="BG24:BG25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="AI24:AI25"/>
+    <mergeCell ref="AO24:AO25"/>
+    <mergeCell ref="BA24:BA25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="AK24:AK25"/>
+    <mergeCell ref="AM24:AM25"/>
+    <mergeCell ref="AQ24:AQ25"/>
+    <mergeCell ref="AS24:AS25"/>
+    <mergeCell ref="BC30:BC32"/>
+    <mergeCell ref="BE30:BE32"/>
+    <mergeCell ref="BI30:BI32"/>
+    <mergeCell ref="AK30:AK32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="AM30:AM32"/>
+    <mergeCell ref="AQ30:AQ32"/>
+    <mergeCell ref="AS30:AS32"/>
+    <mergeCell ref="AU30:AU32"/>
+    <mergeCell ref="AW30:AW32"/>
+    <mergeCell ref="AY30:AY32"/>
+    <mergeCell ref="U30:U32"/>
+    <mergeCell ref="Y30:Y32"/>
+    <mergeCell ref="AA30:AA32"/>
+    <mergeCell ref="AC30:AC32"/>
+    <mergeCell ref="AE30:AE32"/>
+    <mergeCell ref="AG30:AG32"/>
+    <mergeCell ref="BC33:BC34"/>
+    <mergeCell ref="BE33:BE34"/>
+    <mergeCell ref="BG33:BG34"/>
+    <mergeCell ref="BI33:BI34"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AQ33:AQ34"/>
+    <mergeCell ref="AS33:AS34"/>
+    <mergeCell ref="AU33:AU34"/>
+    <mergeCell ref="AW33:AW34"/>
+    <mergeCell ref="AY33:AY34"/>
+    <mergeCell ref="BA33:BA34"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AE33:AE34"/>
+    <mergeCell ref="AG33:AG34"/>
+    <mergeCell ref="AK33:AK34"/>
+    <mergeCell ref="AM33:AM34"/>
+    <mergeCell ref="AO33:AO34"/>
+    <mergeCell ref="AK36:AK37"/>
+    <mergeCell ref="AM36:AM37"/>
+    <mergeCell ref="AQ36:AQ37"/>
+    <mergeCell ref="AS36:AS37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="Y36:Y37"/>
+    <mergeCell ref="AA36:AA37"/>
     <mergeCell ref="BC18:BC19"/>
     <mergeCell ref="BE18:BE19"/>
     <mergeCell ref="BG18:BG19"/>
@@ -10794,264 +10999,56 @@
     <mergeCell ref="BE36:BE37"/>
     <mergeCell ref="AE36:AE37"/>
     <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="AK36:AK37"/>
-    <mergeCell ref="AM36:AM37"/>
-    <mergeCell ref="AQ36:AQ37"/>
-    <mergeCell ref="AS36:AS37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="Y36:Y37"/>
-    <mergeCell ref="AA36:AA37"/>
-    <mergeCell ref="BG33:BG34"/>
-    <mergeCell ref="BI33:BI34"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AQ33:AQ34"/>
-    <mergeCell ref="AS33:AS34"/>
-    <mergeCell ref="AU33:AU34"/>
-    <mergeCell ref="AW33:AW34"/>
-    <mergeCell ref="AY33:AY34"/>
-    <mergeCell ref="BA33:BA34"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AE33:AE34"/>
-    <mergeCell ref="AG33:AG34"/>
-    <mergeCell ref="AK33:AK34"/>
-    <mergeCell ref="AM33:AM34"/>
-    <mergeCell ref="AO33:AO34"/>
-    <mergeCell ref="BC30:BC32"/>
-    <mergeCell ref="BE30:BE32"/>
-    <mergeCell ref="BI30:BI32"/>
-    <mergeCell ref="AK30:AK32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="AM30:AM32"/>
-    <mergeCell ref="AQ30:AQ32"/>
-    <mergeCell ref="AS30:AS32"/>
-    <mergeCell ref="AU30:AU32"/>
-    <mergeCell ref="AW30:AW32"/>
-    <mergeCell ref="AY30:AY32"/>
-    <mergeCell ref="U30:U32"/>
-    <mergeCell ref="Y30:Y32"/>
-    <mergeCell ref="AA30:AA32"/>
-    <mergeCell ref="AC30:AC32"/>
-    <mergeCell ref="AE30:AE32"/>
-    <mergeCell ref="AG30:AG32"/>
-    <mergeCell ref="BC33:BC34"/>
-    <mergeCell ref="BE33:BE34"/>
-    <mergeCell ref="BI24:BI25"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="S30:S32"/>
-    <mergeCell ref="W30:W32"/>
-    <mergeCell ref="AI30:AI32"/>
-    <mergeCell ref="AO30:AO32"/>
-    <mergeCell ref="BA30:BA32"/>
-    <mergeCell ref="BG30:BG32"/>
-    <mergeCell ref="O30:O32"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="AW24:AW25"/>
-    <mergeCell ref="AY24:AY25"/>
-    <mergeCell ref="BC24:BC25"/>
-    <mergeCell ref="BE24:BE25"/>
-    <mergeCell ref="BG24:BG25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="AI24:AI25"/>
-    <mergeCell ref="AO24:AO25"/>
-    <mergeCell ref="BA24:BA25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="AK24:AK25"/>
-    <mergeCell ref="AM24:AM25"/>
-    <mergeCell ref="AQ24:AQ25"/>
-    <mergeCell ref="AS24:AS25"/>
-    <mergeCell ref="AU24:AU25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="BA18:BA19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AS18:AS19"/>
-    <mergeCell ref="AU18:AU19"/>
-    <mergeCell ref="AW18:AW19"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="AM18:AM19"/>
-    <mergeCell ref="AO18:AO19"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="BE15:BE16"/>
-    <mergeCell ref="BI15:BI16"/>
-    <mergeCell ref="AO15:AO16"/>
-    <mergeCell ref="AI15:AI16"/>
-    <mergeCell ref="BC15:BC16"/>
-    <mergeCell ref="BG15:BG16"/>
-    <mergeCell ref="AQ15:AQ16"/>
-    <mergeCell ref="AS15:AS16"/>
-    <mergeCell ref="AU15:AU16"/>
-    <mergeCell ref="AW15:AW16"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="BA15:BA16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AK15:AK16"/>
-    <mergeCell ref="AM15:AM16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="BI9:BI10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="BA9:BA10"/>
-    <mergeCell ref="AU9:AU10"/>
-    <mergeCell ref="AW9:AW10"/>
-    <mergeCell ref="AY9:AY10"/>
-    <mergeCell ref="BC9:BC10"/>
-    <mergeCell ref="BE9:BE10"/>
-    <mergeCell ref="BG9:BG10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="BG3:BG4"/>
-    <mergeCell ref="BI3:BI4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="BA3:BA4"/>
-    <mergeCell ref="BC3:BC4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="M30:M32"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="AQ13:AQ14"/>
-    <mergeCell ref="AU13:AU14"/>
-    <mergeCell ref="AW13:AW14"/>
-    <mergeCell ref="AY13:AY14"/>
-    <mergeCell ref="BA13:BA14"/>
-    <mergeCell ref="BC13:BC14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="BE13:BE14"/>
-    <mergeCell ref="BG13:BG14"/>
-    <mergeCell ref="BI13:BI14"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AO13:AO14"/>
-    <mergeCell ref="AS13:AS14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="BA41:BA42"/>
-    <mergeCell ref="BC41:BC42"/>
-    <mergeCell ref="BE41:BE42"/>
-    <mergeCell ref="BG41:BG42"/>
-    <mergeCell ref="BI41:BI42"/>
-    <mergeCell ref="AY41:AY42"/>
-    <mergeCell ref="AW41:AW42"/>
-    <mergeCell ref="AU41:AU42"/>
-    <mergeCell ref="AS41:AS42"/>
-    <mergeCell ref="AQ41:AQ42"/>
-    <mergeCell ref="AK41:AK42"/>
-    <mergeCell ref="AE41:AE42"/>
-    <mergeCell ref="AG41:AG42"/>
-    <mergeCell ref="AC41:AC42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="BG38:BG39"/>
+    <mergeCell ref="BI38:BI39"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AO38:AO39"/>
+    <mergeCell ref="AQ38:AQ39"/>
+    <mergeCell ref="AS38:AS39"/>
+    <mergeCell ref="AU38:AU39"/>
+    <mergeCell ref="AW38:AW39"/>
+    <mergeCell ref="AY38:AY39"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="BA38:BA39"/>
+    <mergeCell ref="BC38:BC39"/>
+    <mergeCell ref="BE38:BE39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="Y38:Y39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="Y41:Y42"/>
+    <mergeCell ref="AA41:AA42"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AO41:AO42"/>
+    <mergeCell ref="AM41:AM42"/>
+    <mergeCell ref="BG43:BG44"/>
+    <mergeCell ref="BI43:BI44"/>
+    <mergeCell ref="BA43:BA44"/>
+    <mergeCell ref="AW43:AW44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="AQ43:AQ44"/>
+    <mergeCell ref="AS43:AS44"/>
+    <mergeCell ref="AU43:AU44"/>
+    <mergeCell ref="AY43:AY44"/>
+    <mergeCell ref="BC43:BC44"/>
+    <mergeCell ref="BE43:BE44"/>
+    <mergeCell ref="AE43:AE44"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AK43:AK44"/>
+    <mergeCell ref="AM43:AM44"/>
+    <mergeCell ref="AO43:AO44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11067,7 +11064,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C36" sqref="C36"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="A34:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13977,13 +13974,6 @@
       <c r="AD33" s="174"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="B34" s="5">
-        <f xml:space="preserve"> COUNTIF(F2:AE31, "Oui")</f>
-        <v>134</v>
-      </c>
       <c r="W34" s="174"/>
       <c r="AC34" s="282"/>
     </row>
@@ -14007,26 +13997,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="76424c09-1f09-411f-a39d-769041d462c4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7a404e10-278a-4ba0-976a-2af2db24d8c8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D879E14ABC0C0949BB8A7AD4556264B4" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="29e167d0c93a63a8286ab5675afb04b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="76424c09-1f09-411f-a39d-769041d462c4" xmlns:ns3="7a404e10-278a-4ba0-976a-2af2db24d8c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="24b04f44be219caa97f08e98b44d806e" ns2:_="" ns3:_="">
     <xsd:import namespace="76424c09-1f09-411f-a39d-769041d462c4"/>
@@ -14227,26 +14197,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D997ED0D-A65E-4D53-86D9-B54CD319FBB7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="76424c09-1f09-411f-a39d-769041d462c4"/>
-    <ds:schemaRef ds:uri="7a404e10-278a-4ba0-976a-2af2db24d8c8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A61665-5548-4139-8F1E-CD0E56231733}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="76424c09-1f09-411f-a39d-769041d462c4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7a404e10-278a-4ba0-976a-2af2db24d8c8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF0E5D3A-3FAD-4C6C-84B3-8670B0922E98}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14263,4 +14234,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A61665-5548-4139-8F1E-CD0E56231733}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D997ED0D-A65E-4D53-86D9-B54CD319FBB7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="76424c09-1f09-411f-a39d-769041d462c4"/>
+    <ds:schemaRef ds:uri="7a404e10-278a-4ba0-976a-2af2db24d8c8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Offres_2022.xlsx
+++ b/Offres_2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume12321/Documents/GitHub/carpooling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47801BCD-BA5B-F840-BE7F-D3FDC2938B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2A71EC-EF9D-8E4D-B445-D78C40FC4551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="18980" windowHeight="16380" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Offres" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2265" uniqueCount="233">
   <si>
     <t xml:space="preserve">Nombre de demandes </t>
   </si>
@@ -3775,10 +3775,190 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="146" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="148" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="141" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="142" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="150" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="132" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3787,190 +3967,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="150" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="132" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="146" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="148" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="141" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="142" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="103" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4671,57 +4671,57 @@
       <c r="D3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="364">
+      <c r="E3" s="307">
         <v>9</v>
       </c>
-      <c r="F3" s="364">
+      <c r="F3" s="307">
         <v>3</v>
       </c>
-      <c r="G3" s="364">
+      <c r="G3" s="307">
         <v>0</v>
       </c>
-      <c r="H3" s="364">
+      <c r="H3" s="307">
         <v>1</v>
       </c>
       <c r="I3" s="205"/>
       <c r="J3" s="239" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="341" t="s">
+      <c r="K3" s="334" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="224"/>
-      <c r="M3" s="339" t="s">
+      <c r="M3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="N3" s="31"/>
-      <c r="O3" s="339" t="s">
+      <c r="O3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="P3" s="31"/>
-      <c r="Q3" s="339" t="s">
+      <c r="Q3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="R3" s="31"/>
-      <c r="S3" s="339" t="s">
+      <c r="S3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="T3" s="31"/>
-      <c r="U3" s="339" t="s">
+      <c r="U3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="V3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="339" t="s">
+      <c r="W3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="X3" s="31"/>
-      <c r="Y3" s="339" t="s">
+      <c r="Y3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="Z3" s="31"/>
-      <c r="AA3" s="339" t="s">
+      <c r="AA3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AB3" s="31"/>
@@ -4729,71 +4729,71 @@
         <v>40</v>
       </c>
       <c r="AD3" s="31"/>
-      <c r="AE3" s="339" t="s">
+      <c r="AE3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AF3" s="31"/>
-      <c r="AG3" s="339" t="s">
+      <c r="AG3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AH3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="360" t="s">
+      <c r="AI3" s="303" t="s">
         <v>39</v>
       </c>
       <c r="AJ3" s="31"/>
-      <c r="AK3" s="339" t="s">
+      <c r="AK3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AL3" s="31"/>
-      <c r="AM3" s="339" t="s">
+      <c r="AM3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AN3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AO3" s="343" t="s">
+      <c r="AO3" s="340" t="s">
         <v>39</v>
       </c>
       <c r="AP3" s="31"/>
-      <c r="AQ3" s="339" t="s">
+      <c r="AQ3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AR3" s="31"/>
-      <c r="AS3" s="339" t="s">
+      <c r="AS3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AT3" s="31"/>
-      <c r="AU3" s="339" t="s">
+      <c r="AU3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AV3" s="66"/>
-      <c r="AW3" s="339" t="s">
+      <c r="AW3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AX3" s="31"/>
-      <c r="AY3" s="339" t="s">
+      <c r="AY3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="AZ3" s="31"/>
-      <c r="BA3" s="339" t="s">
+      <c r="BA3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="BB3" s="31"/>
-      <c r="BC3" s="339" t="s">
+      <c r="BC3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="BD3" s="31"/>
-      <c r="BE3" s="339" t="s">
+      <c r="BE3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="BF3" s="31"/>
-      <c r="BG3" s="339" t="s">
+      <c r="BG3" s="314" t="s">
         <v>40</v>
       </c>
       <c r="BH3" s="31"/>
-      <c r="BI3" s="341" t="s">
+      <c r="BI3" s="334" t="s">
         <v>40</v>
       </c>
       <c r="BJ3" s="1"/>
@@ -4808,73 +4808,73 @@
       <c r="D4" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="365"/>
-      <c r="F4" s="365"/>
-      <c r="G4" s="365"/>
-      <c r="H4" s="365"/>
+      <c r="E4" s="308"/>
+      <c r="F4" s="308"/>
+      <c r="G4" s="308"/>
+      <c r="H4" s="308"/>
       <c r="I4" s="206"/>
       <c r="J4" s="240" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="342"/>
+      <c r="K4" s="335"/>
       <c r="L4" s="225"/>
-      <c r="M4" s="340"/>
+      <c r="M4" s="315"/>
       <c r="N4" s="38"/>
-      <c r="O4" s="340"/>
+      <c r="O4" s="315"/>
       <c r="P4" s="38"/>
-      <c r="Q4" s="340"/>
+      <c r="Q4" s="315"/>
       <c r="R4" s="38"/>
-      <c r="S4" s="340"/>
+      <c r="S4" s="315"/>
       <c r="T4" s="38"/>
-      <c r="U4" s="340"/>
+      <c r="U4" s="315"/>
       <c r="V4" s="38"/>
-      <c r="W4" s="340"/>
+      <c r="W4" s="315"/>
       <c r="X4" s="38"/>
-      <c r="Y4" s="340"/>
+      <c r="Y4" s="315"/>
       <c r="Z4" s="38"/>
-      <c r="AA4" s="340"/>
+      <c r="AA4" s="315"/>
       <c r="AB4" s="38"/>
       <c r="AC4" s="39"/>
       <c r="AD4" s="38"/>
-      <c r="AE4" s="340"/>
+      <c r="AE4" s="315"/>
       <c r="AF4" s="38"/>
-      <c r="AG4" s="340"/>
+      <c r="AG4" s="315"/>
       <c r="AH4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="361"/>
+      <c r="AI4" s="304"/>
       <c r="AJ4" s="38"/>
-      <c r="AK4" s="340"/>
+      <c r="AK4" s="315"/>
       <c r="AL4" s="38"/>
-      <c r="AM4" s="340"/>
+      <c r="AM4" s="315"/>
       <c r="AN4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" s="344"/>
+      <c r="AO4" s="341"/>
       <c r="AP4" s="38"/>
-      <c r="AQ4" s="340"/>
+      <c r="AQ4" s="315"/>
       <c r="AR4" s="38"/>
-      <c r="AS4" s="340"/>
+      <c r="AS4" s="315"/>
       <c r="AT4" s="38"/>
-      <c r="AU4" s="340"/>
+      <c r="AU4" s="315"/>
       <c r="AV4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" s="340"/>
+      <c r="AW4" s="315"/>
       <c r="AX4" s="38"/>
-      <c r="AY4" s="340"/>
+      <c r="AY4" s="315"/>
       <c r="AZ4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="BA4" s="340"/>
+      <c r="BA4" s="315"/>
       <c r="BB4" s="38"/>
-      <c r="BC4" s="340"/>
+      <c r="BC4" s="315"/>
       <c r="BD4" s="38"/>
-      <c r="BE4" s="340"/>
+      <c r="BE4" s="315"/>
       <c r="BF4" s="38"/>
-      <c r="BG4" s="340"/>
+      <c r="BG4" s="315"/>
       <c r="BH4" s="38"/>
-      <c r="BI4" s="342"/>
+      <c r="BI4" s="335"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
     </row>
@@ -5403,23 +5403,23 @@
       <c r="D9" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="366">
+      <c r="E9" s="309">
         <v>19</v>
       </c>
-      <c r="F9" s="366">
+      <c r="F9" s="309">
         <v>5</v>
       </c>
-      <c r="G9" s="366">
+      <c r="G9" s="309">
         <v>2</v>
       </c>
-      <c r="H9" s="366">
+      <c r="H9" s="309">
         <v>9</v>
       </c>
       <c r="I9" s="209"/>
       <c r="J9" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="350" t="s">
+      <c r="K9" s="320" t="s">
         <v>40</v>
       </c>
       <c r="L9" s="227"/>
@@ -5437,7 +5437,7 @@
       <c r="R9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="325" t="s">
+      <c r="S9" s="344" t="s">
         <v>39</v>
       </c>
       <c r="T9" s="66"/>
@@ -5447,7 +5447,7 @@
       <c r="V9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="W9" s="325" t="s">
+      <c r="W9" s="344" t="s">
         <v>39</v>
       </c>
       <c r="X9" s="66"/>
@@ -5485,13 +5485,13 @@
       <c r="AL9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AM9" s="325" t="s">
+      <c r="AM9" s="344" t="s">
         <v>39</v>
       </c>
       <c r="AN9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AO9" s="325" t="s">
+      <c r="AO9" s="344" t="s">
         <v>39</v>
       </c>
       <c r="AP9" s="66"/>
@@ -5519,7 +5519,7 @@
       <c r="AZ9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BA9" s="325" t="s">
+      <c r="BA9" s="344" t="s">
         <v>39</v>
       </c>
       <c r="BB9" s="66"/>
@@ -5537,7 +5537,7 @@
         <v>40</v>
       </c>
       <c r="BH9" s="66"/>
-      <c r="BI9" s="338" t="s">
+      <c r="BI9" s="342" t="s">
         <v>40</v>
       </c>
       <c r="BJ9" s="1"/>
@@ -5552,81 +5552,81 @@
       <c r="D10" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="363"/>
-      <c r="F10" s="363"/>
-      <c r="G10" s="363"/>
-      <c r="H10" s="363"/>
+      <c r="E10" s="306"/>
+      <c r="F10" s="306"/>
+      <c r="G10" s="306"/>
+      <c r="H10" s="306"/>
       <c r="I10" s="210"/>
       <c r="J10" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="352"/>
+      <c r="K10" s="321"/>
       <c r="L10" s="141"/>
-      <c r="M10" s="304"/>
+      <c r="M10" s="313"/>
       <c r="N10" s="72"/>
-      <c r="O10" s="304"/>
+      <c r="O10" s="313"/>
       <c r="P10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="304"/>
+      <c r="Q10" s="313"/>
       <c r="R10" s="72"/>
-      <c r="S10" s="337"/>
+      <c r="S10" s="323"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="304"/>
+      <c r="U10" s="313"/>
       <c r="V10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="W10" s="337"/>
+      <c r="W10" s="323"/>
       <c r="X10" s="72"/>
-      <c r="Y10" s="304"/>
+      <c r="Y10" s="313"/>
       <c r="Z10" s="72"/>
-      <c r="AA10" s="304"/>
+      <c r="AA10" s="313"/>
       <c r="AB10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AC10" s="304"/>
+      <c r="AC10" s="313"/>
       <c r="AD10" s="72"/>
-      <c r="AE10" s="304"/>
+      <c r="AE10" s="313"/>
       <c r="AF10" s="72"/>
-      <c r="AG10" s="304"/>
+      <c r="AG10" s="313"/>
       <c r="AH10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI10" s="304"/>
+      <c r="AI10" s="313"/>
       <c r="AJ10" s="72"/>
-      <c r="AK10" s="304"/>
+      <c r="AK10" s="313"/>
       <c r="AL10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AM10" s="337"/>
+      <c r="AM10" s="323"/>
       <c r="AN10" s="72"/>
-      <c r="AO10" s="337"/>
+      <c r="AO10" s="323"/>
       <c r="AP10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AQ10" s="304"/>
+      <c r="AQ10" s="313"/>
       <c r="AR10" s="72"/>
-      <c r="AS10" s="304"/>
+      <c r="AS10" s="313"/>
       <c r="AT10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AU10" s="304"/>
+      <c r="AU10" s="313"/>
       <c r="AV10" s="72"/>
-      <c r="AW10" s="304"/>
+      <c r="AW10" s="313"/>
       <c r="AX10" s="72"/>
-      <c r="AY10" s="304"/>
+      <c r="AY10" s="313"/>
       <c r="AZ10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BA10" s="337"/>
+      <c r="BA10" s="323"/>
       <c r="BB10" s="72"/>
-      <c r="BC10" s="304"/>
+      <c r="BC10" s="313"/>
       <c r="BD10" s="72"/>
-      <c r="BE10" s="304"/>
+      <c r="BE10" s="313"/>
       <c r="BF10" s="72"/>
-      <c r="BG10" s="304"/>
+      <c r="BG10" s="313"/>
       <c r="BH10" s="72"/>
-      <c r="BI10" s="335"/>
+      <c r="BI10" s="343"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
     </row>
@@ -5927,7 +5927,7 @@
       <c r="D13" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="362">
+      <c r="E13" s="305">
         <v>11</v>
       </c>
       <c r="F13" s="271"/>
@@ -5937,7 +5937,7 @@
       <c r="J13" s="251" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="354" t="s">
+      <c r="K13" s="338" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="228"/>
@@ -5963,7 +5963,7 @@
       <c r="V13" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="358" t="s">
+      <c r="W13" s="318" t="s">
         <v>39</v>
       </c>
       <c r="X13" s="176"/>
@@ -5989,7 +5989,7 @@
       <c r="AH13" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="AI13" s="358" t="s">
+      <c r="AI13" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AJ13" s="176"/>
@@ -6003,7 +6003,7 @@
       <c r="AN13" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="AO13" s="358" t="s">
+      <c r="AO13" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AP13" s="176"/>
@@ -6029,23 +6029,23 @@
       <c r="AZ13" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="BA13" s="336" t="s">
+      <c r="BA13" s="322" t="s">
         <v>39</v>
       </c>
       <c r="BB13" s="176"/>
-      <c r="BC13" s="356" t="s">
+      <c r="BC13" s="316" t="s">
         <v>40</v>
       </c>
       <c r="BD13" s="176"/>
-      <c r="BE13" s="356" t="s">
+      <c r="BE13" s="316" t="s">
         <v>40</v>
       </c>
       <c r="BF13" s="176"/>
-      <c r="BG13" s="356" t="s">
+      <c r="BG13" s="316" t="s">
         <v>40</v>
       </c>
       <c r="BH13" s="176"/>
-      <c r="BI13" s="356" t="s">
+      <c r="BI13" s="316" t="s">
         <v>40</v>
       </c>
       <c r="BJ13" s="1"/>
@@ -6060,7 +6060,7 @@
       <c r="D14" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="363"/>
+      <c r="E14" s="306"/>
       <c r="F14" s="272"/>
       <c r="G14" s="272"/>
       <c r="H14" s="272"/>
@@ -6068,71 +6068,71 @@
       <c r="J14" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="355"/>
+      <c r="K14" s="339"/>
       <c r="L14" s="229"/>
-      <c r="M14" s="304"/>
+      <c r="M14" s="313"/>
       <c r="N14" s="178"/>
-      <c r="O14" s="304"/>
+      <c r="O14" s="313"/>
       <c r="P14" s="178"/>
-      <c r="Q14" s="304"/>
+      <c r="Q14" s="313"/>
       <c r="R14" s="178"/>
-      <c r="S14" s="304"/>
+      <c r="S14" s="313"/>
       <c r="T14" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="304"/>
+      <c r="U14" s="313"/>
       <c r="V14" s="179"/>
-      <c r="W14" s="359"/>
+      <c r="W14" s="319"/>
       <c r="X14" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="Y14" s="304"/>
+      <c r="Y14" s="313"/>
       <c r="Z14" s="178"/>
-      <c r="AA14" s="304"/>
+      <c r="AA14" s="313"/>
       <c r="AB14" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="AC14" s="304"/>
+      <c r="AC14" s="313"/>
       <c r="AD14" s="178"/>
-      <c r="AE14" s="304"/>
+      <c r="AE14" s="313"/>
       <c r="AF14" s="178"/>
-      <c r="AG14" s="304"/>
+      <c r="AG14" s="313"/>
       <c r="AH14" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="AI14" s="359"/>
+      <c r="AI14" s="319"/>
       <c r="AJ14" s="178"/>
-      <c r="AK14" s="304"/>
+      <c r="AK14" s="313"/>
       <c r="AL14" s="178"/>
-      <c r="AM14" s="304"/>
+      <c r="AM14" s="313"/>
       <c r="AN14" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="AO14" s="359"/>
+      <c r="AO14" s="319"/>
       <c r="AP14" s="191" t="s">
         <v>63</v>
       </c>
-      <c r="AQ14" s="304"/>
+      <c r="AQ14" s="313"/>
       <c r="AR14" s="178"/>
-      <c r="AS14" s="304"/>
+      <c r="AS14" s="313"/>
       <c r="AT14" s="178"/>
-      <c r="AU14" s="304"/>
+      <c r="AU14" s="313"/>
       <c r="AV14" s="178"/>
-      <c r="AW14" s="304"/>
+      <c r="AW14" s="313"/>
       <c r="AX14" s="178"/>
-      <c r="AY14" s="304"/>
+      <c r="AY14" s="313"/>
       <c r="AZ14" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="BA14" s="337"/>
+      <c r="BA14" s="323"/>
       <c r="BB14" s="178"/>
-      <c r="BC14" s="357"/>
+      <c r="BC14" s="317"/>
       <c r="BD14" s="178"/>
-      <c r="BE14" s="357"/>
+      <c r="BE14" s="317"/>
       <c r="BF14" s="178"/>
-      <c r="BG14" s="357"/>
+      <c r="BG14" s="317"/>
       <c r="BH14" s="178"/>
-      <c r="BI14" s="357"/>
+      <c r="BI14" s="317"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
     </row>
@@ -6149,7 +6149,7 @@
       <c r="D15" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="362">
+      <c r="E15" s="305">
         <v>20</v>
       </c>
       <c r="F15" s="201"/>
@@ -6159,125 +6159,125 @@
       <c r="J15" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="353" t="s">
+      <c r="K15" s="337" t="s">
         <v>39</v>
       </c>
       <c r="L15" s="140"/>
-      <c r="M15" s="333" t="s">
+      <c r="M15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="N15" s="89"/>
-      <c r="O15" s="333" t="s">
+      <c r="O15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="P15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="336" t="s">
+      <c r="Q15" s="322" t="s">
         <v>39</v>
       </c>
       <c r="R15" s="89"/>
-      <c r="S15" s="333" t="s">
+      <c r="S15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="T15" s="89"/>
-      <c r="U15" s="333" t="s">
+      <c r="U15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="V15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W15" s="333" t="s">
+      <c r="W15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="X15" s="89"/>
-      <c r="Y15" s="333" t="s">
+      <c r="Y15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="Z15" s="89"/>
-      <c r="AA15" s="333" t="s">
+      <c r="AA15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AB15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AC15" s="333" t="s">
+      <c r="AC15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AD15" s="89"/>
-      <c r="AE15" s="333" t="s">
+      <c r="AE15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AF15" s="89"/>
-      <c r="AG15" s="333" t="s">
+      <c r="AG15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AH15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AI15" s="336" t="s">
+      <c r="AI15" s="322" t="s">
         <v>39</v>
       </c>
       <c r="AJ15" s="89"/>
-      <c r="AK15" s="333" t="s">
+      <c r="AK15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AL15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AM15" s="333" t="s">
+      <c r="AM15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AN15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AO15" s="336" t="s">
+      <c r="AO15" s="322" t="s">
         <v>39</v>
       </c>
       <c r="AP15" s="89"/>
-      <c r="AQ15" s="333" t="s">
+      <c r="AQ15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AR15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AS15" s="336" t="s">
+      <c r="AS15" s="322" t="s">
         <v>39</v>
       </c>
       <c r="AT15" s="90"/>
-      <c r="AU15" s="333" t="s">
+      <c r="AU15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AV15" s="89"/>
-      <c r="AW15" s="333" t="s">
+      <c r="AW15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AX15" s="89"/>
-      <c r="AY15" s="333" t="s">
+      <c r="AY15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="AZ15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="BA15" s="336" t="s">
+      <c r="BA15" s="322" t="s">
         <v>39</v>
       </c>
       <c r="BB15" s="89"/>
-      <c r="BC15" s="333" t="s">
+      <c r="BC15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="BD15" s="89"/>
-      <c r="BE15" s="333" t="s">
+      <c r="BE15" s="336" t="s">
         <v>40</v>
       </c>
       <c r="BF15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="BG15" s="336" t="s">
+      <c r="BG15" s="322" t="s">
         <v>39</v>
       </c>
       <c r="BH15" s="89"/>
-      <c r="BI15" s="334" t="s">
+      <c r="BI15" s="345" t="s">
         <v>40</v>
       </c>
       <c r="BJ15" s="1"/>
@@ -6292,7 +6292,7 @@
       <c r="D16" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="363"/>
+      <c r="E16" s="306"/>
       <c r="F16" s="270"/>
       <c r="G16" s="270"/>
       <c r="H16" s="270"/>
@@ -6300,75 +6300,75 @@
       <c r="J16" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="349"/>
+      <c r="K16" s="330"/>
       <c r="L16" s="141"/>
-      <c r="M16" s="304"/>
+      <c r="M16" s="313"/>
       <c r="N16" s="72"/>
-      <c r="O16" s="304"/>
+      <c r="O16" s="313"/>
       <c r="P16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="337"/>
+      <c r="Q16" s="323"/>
       <c r="R16" s="72"/>
-      <c r="S16" s="304"/>
+      <c r="S16" s="313"/>
       <c r="T16" s="72"/>
-      <c r="U16" s="304"/>
+      <c r="U16" s="313"/>
       <c r="V16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="W16" s="304"/>
+      <c r="W16" s="313"/>
       <c r="X16" s="72"/>
-      <c r="Y16" s="304"/>
+      <c r="Y16" s="313"/>
       <c r="Z16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AA16" s="304"/>
+      <c r="AA16" s="313"/>
       <c r="AB16" s="72"/>
-      <c r="AC16" s="304"/>
+      <c r="AC16" s="313"/>
       <c r="AD16" s="72"/>
-      <c r="AE16" s="304"/>
+      <c r="AE16" s="313"/>
       <c r="AF16" s="72"/>
-      <c r="AG16" s="304"/>
+      <c r="AG16" s="313"/>
       <c r="AH16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI16" s="337"/>
+      <c r="AI16" s="323"/>
       <c r="AJ16" s="72"/>
-      <c r="AK16" s="304"/>
+      <c r="AK16" s="313"/>
       <c r="AL16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AM16" s="304"/>
+      <c r="AM16" s="313"/>
       <c r="AN16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AO16" s="337"/>
+      <c r="AO16" s="323"/>
       <c r="AP16" s="72"/>
-      <c r="AQ16" s="304"/>
+      <c r="AQ16" s="313"/>
       <c r="AR16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AS16" s="337"/>
+      <c r="AS16" s="323"/>
       <c r="AT16" s="92"/>
-      <c r="AU16" s="304"/>
+      <c r="AU16" s="313"/>
       <c r="AV16" s="72"/>
-      <c r="AW16" s="304"/>
+      <c r="AW16" s="313"/>
       <c r="AX16" s="72"/>
-      <c r="AY16" s="304"/>
+      <c r="AY16" s="313"/>
       <c r="AZ16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BA16" s="337"/>
+      <c r="BA16" s="323"/>
       <c r="BB16" s="72"/>
-      <c r="BC16" s="304"/>
+      <c r="BC16" s="313"/>
       <c r="BD16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BE16" s="304"/>
+      <c r="BE16" s="313"/>
       <c r="BF16" s="72"/>
-      <c r="BG16" s="337"/>
+      <c r="BG16" s="323"/>
       <c r="BH16" s="72"/>
-      <c r="BI16" s="335"/>
+      <c r="BI16" s="343"/>
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
     </row>
@@ -6530,7 +6530,7 @@
       <c r="D18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="362">
+      <c r="E18" s="305">
         <v>12</v>
       </c>
       <c r="F18" s="273"/>
@@ -6540,117 +6540,117 @@
       <c r="J18" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="345" t="s">
+      <c r="K18" s="326" t="s">
         <v>39</v>
       </c>
       <c r="L18" s="152"/>
-      <c r="M18" s="303" t="s">
+      <c r="M18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="N18" s="25"/>
-      <c r="O18" s="303" t="s">
+      <c r="O18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="P18" s="25"/>
-      <c r="Q18" s="303" t="s">
+      <c r="Q18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="R18" s="25"/>
-      <c r="S18" s="303" t="s">
+      <c r="S18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="T18" s="25"/>
-      <c r="U18" s="303" t="s">
+      <c r="U18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="V18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="W18" s="303" t="s">
+      <c r="W18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="X18" s="25"/>
-      <c r="Y18" s="303" t="s">
+      <c r="Y18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="Z18" s="25"/>
-      <c r="AA18" s="303" t="s">
+      <c r="AA18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AB18" s="25"/>
-      <c r="AC18" s="303" t="s">
+      <c r="AC18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AD18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AE18" s="303" t="s">
+      <c r="AE18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AF18" s="25"/>
-      <c r="AG18" s="303" t="s">
+      <c r="AG18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AH18" s="52"/>
-      <c r="AI18" s="307" t="s">
+      <c r="AI18" s="346" t="s">
         <v>39</v>
       </c>
       <c r="AJ18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AK18" s="303" t="s">
+      <c r="AK18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AL18" s="25"/>
-      <c r="AM18" s="303" t="s">
+      <c r="AM18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AN18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AO18" s="303" t="s">
+      <c r="AO18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AP18" s="25"/>
-      <c r="AQ18" s="303" t="s">
+      <c r="AQ18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AR18" s="25"/>
-      <c r="AS18" s="303" t="s">
+      <c r="AS18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AT18" s="25"/>
-      <c r="AU18" s="303" t="s">
+      <c r="AU18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AV18" s="25"/>
-      <c r="AW18" s="303" t="s">
+      <c r="AW18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AX18" s="25"/>
-      <c r="AY18" s="303" t="s">
+      <c r="AY18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AZ18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BA18" s="307" t="s">
+      <c r="BA18" s="346" t="s">
         <v>39</v>
       </c>
       <c r="BB18" s="25"/>
-      <c r="BC18" s="303" t="s">
+      <c r="BC18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BD18" s="25"/>
-      <c r="BE18" s="303" t="s">
+      <c r="BE18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BF18" s="25"/>
-      <c r="BG18" s="303" t="s">
+      <c r="BG18" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BH18" s="25"/>
-      <c r="BI18" s="321" t="s">
+      <c r="BI18" s="359" t="s">
         <v>39</v>
       </c>
       <c r="BJ18" s="1"/>
@@ -6665,7 +6665,7 @@
       <c r="D19" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="363"/>
+      <c r="E19" s="306"/>
       <c r="F19" s="273"/>
       <c r="G19" s="273"/>
       <c r="H19" s="273"/>
@@ -6673,67 +6673,67 @@
       <c r="J19" s="255" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="346"/>
+      <c r="K19" s="327"/>
       <c r="L19" s="230"/>
-      <c r="M19" s="320"/>
+      <c r="M19" s="325"/>
       <c r="N19" s="43"/>
-      <c r="O19" s="320"/>
+      <c r="O19" s="325"/>
       <c r="P19" s="43"/>
-      <c r="Q19" s="320"/>
+      <c r="Q19" s="325"/>
       <c r="R19" s="43"/>
-      <c r="S19" s="320"/>
+      <c r="S19" s="325"/>
       <c r="T19" s="43"/>
-      <c r="U19" s="320"/>
+      <c r="U19" s="325"/>
       <c r="V19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="W19" s="320"/>
+      <c r="W19" s="325"/>
       <c r="X19" s="43"/>
-      <c r="Y19" s="320"/>
+      <c r="Y19" s="325"/>
       <c r="Z19" s="43"/>
-      <c r="AA19" s="320"/>
+      <c r="AA19" s="325"/>
       <c r="AB19" s="43"/>
-      <c r="AC19" s="320"/>
+      <c r="AC19" s="325"/>
       <c r="AD19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AE19" s="320"/>
+      <c r="AE19" s="325"/>
       <c r="AF19" s="43"/>
-      <c r="AG19" s="320"/>
+      <c r="AG19" s="325"/>
       <c r="AH19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AI19" s="332"/>
+      <c r="AI19" s="347"/>
       <c r="AJ19" s="43"/>
-      <c r="AK19" s="320"/>
+      <c r="AK19" s="325"/>
       <c r="AL19" s="43"/>
-      <c r="AM19" s="320"/>
+      <c r="AM19" s="325"/>
       <c r="AN19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AO19" s="320"/>
+      <c r="AO19" s="325"/>
       <c r="AP19" s="43"/>
-      <c r="AQ19" s="320"/>
+      <c r="AQ19" s="325"/>
       <c r="AR19" s="43"/>
-      <c r="AS19" s="320"/>
+      <c r="AS19" s="325"/>
       <c r="AT19" s="43"/>
-      <c r="AU19" s="320"/>
+      <c r="AU19" s="325"/>
       <c r="AV19" s="43"/>
-      <c r="AW19" s="320"/>
+      <c r="AW19" s="325"/>
       <c r="AX19" s="43"/>
-      <c r="AY19" s="320"/>
+      <c r="AY19" s="325"/>
       <c r="AZ19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="BA19" s="332"/>
+      <c r="BA19" s="347"/>
       <c r="BB19" s="43"/>
-      <c r="BC19" s="320"/>
+      <c r="BC19" s="325"/>
       <c r="BD19" s="43"/>
-      <c r="BE19" s="320"/>
+      <c r="BE19" s="325"/>
       <c r="BF19" s="43"/>
-      <c r="BG19" s="320"/>
+      <c r="BG19" s="325"/>
       <c r="BH19" s="43"/>
-      <c r="BI19" s="322"/>
+      <c r="BI19" s="360"/>
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
     </row>
@@ -7311,7 +7311,7 @@
       <c r="D24" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="362">
+      <c r="E24" s="305">
         <v>12</v>
       </c>
       <c r="F24" s="273"/>
@@ -7319,121 +7319,121 @@
       <c r="H24" s="273"/>
       <c r="I24" s="215"/>
       <c r="J24" s="257"/>
-      <c r="K24" s="345" t="s">
+      <c r="K24" s="326" t="s">
         <v>39</v>
       </c>
       <c r="L24" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="303" t="s">
+      <c r="M24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="N24" s="25"/>
-      <c r="O24" s="303" t="s">
+      <c r="O24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="P24" s="25"/>
-      <c r="Q24" s="303" t="s">
+      <c r="Q24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="R24" s="25"/>
-      <c r="S24" s="303" t="s">
+      <c r="S24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="T24" s="25"/>
-      <c r="U24" s="303" t="s">
+      <c r="U24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="V24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="W24" s="307" t="s">
+      <c r="W24" s="346" t="s">
         <v>39</v>
       </c>
       <c r="X24" s="25"/>
-      <c r="Y24" s="303" t="s">
+      <c r="Y24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="Z24" s="25"/>
-      <c r="AA24" s="303" t="s">
+      <c r="AA24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AB24" s="25"/>
-      <c r="AC24" s="303" t="s">
+      <c r="AC24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AD24" s="25"/>
-      <c r="AE24" s="303" t="s">
+      <c r="AE24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AF24" s="25"/>
-      <c r="AG24" s="303" t="s">
+      <c r="AG24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AH24" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="AI24" s="307" t="s">
+      <c r="AI24" s="346" t="s">
         <v>39</v>
       </c>
       <c r="AJ24" s="89"/>
-      <c r="AK24" s="303" t="s">
+      <c r="AK24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AL24" s="25"/>
-      <c r="AM24" s="303" t="s">
+      <c r="AM24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AN24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AO24" s="307" t="s">
+      <c r="AO24" s="346" t="s">
         <v>39</v>
       </c>
       <c r="AP24" s="25"/>
-      <c r="AQ24" s="303" t="s">
+      <c r="AQ24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AR24" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AS24" s="303" t="s">
+      <c r="AS24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AT24" s="25"/>
-      <c r="AU24" s="303" t="s">
+      <c r="AU24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AV24" s="25"/>
-      <c r="AW24" s="303" t="s">
+      <c r="AW24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AX24" s="25"/>
-      <c r="AY24" s="303" t="s">
+      <c r="AY24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AZ24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BA24" s="307" t="s">
+      <c r="BA24" s="346" t="s">
         <v>39</v>
       </c>
       <c r="BB24" s="25"/>
-      <c r="BC24" s="303" t="s">
+      <c r="BC24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BD24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BE24" s="303" t="s">
+      <c r="BE24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BF24" s="25"/>
-      <c r="BG24" s="303" t="s">
+      <c r="BG24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BH24" s="25"/>
-      <c r="BI24" s="303" t="s">
+      <c r="BI24" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BJ24" s="1"/>
@@ -7448,7 +7448,7 @@
       <c r="D25" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="363"/>
+      <c r="E25" s="306"/>
       <c r="F25" s="273"/>
       <c r="G25" s="273"/>
       <c r="H25" s="273"/>
@@ -7456,64 +7456,64 @@
       <c r="J25" s="255" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="346"/>
+      <c r="K25" s="327"/>
       <c r="L25" s="230"/>
-      <c r="M25" s="320"/>
+      <c r="M25" s="325"/>
       <c r="N25" s="43"/>
-      <c r="O25" s="320"/>
+      <c r="O25" s="325"/>
       <c r="P25" s="43"/>
-      <c r="Q25" s="320"/>
+      <c r="Q25" s="325"/>
       <c r="R25" s="43"/>
-      <c r="S25" s="320"/>
+      <c r="S25" s="325"/>
       <c r="T25" s="43"/>
-      <c r="U25" s="320"/>
+      <c r="U25" s="325"/>
       <c r="V25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="W25" s="332"/>
+      <c r="W25" s="347"/>
       <c r="X25" s="43"/>
-      <c r="Y25" s="320"/>
+      <c r="Y25" s="325"/>
       <c r="Z25" s="43"/>
-      <c r="AA25" s="320"/>
+      <c r="AA25" s="325"/>
       <c r="AB25" s="43"/>
-      <c r="AC25" s="320"/>
+      <c r="AC25" s="325"/>
       <c r="AD25" s="43"/>
-      <c r="AE25" s="320"/>
+      <c r="AE25" s="325"/>
       <c r="AF25" s="43"/>
-      <c r="AG25" s="320"/>
+      <c r="AG25" s="325"/>
       <c r="AH25" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI25" s="332"/>
+      <c r="AI25" s="347"/>
       <c r="AJ25" s="43"/>
-      <c r="AK25" s="320"/>
+      <c r="AK25" s="325"/>
       <c r="AL25" s="43"/>
-      <c r="AM25" s="320"/>
+      <c r="AM25" s="325"/>
       <c r="AN25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AO25" s="332"/>
+      <c r="AO25" s="347"/>
       <c r="AP25" s="43"/>
-      <c r="AQ25" s="320"/>
+      <c r="AQ25" s="325"/>
       <c r="AR25" s="43"/>
-      <c r="AS25" s="320"/>
+      <c r="AS25" s="325"/>
       <c r="AT25" s="43"/>
-      <c r="AU25" s="320"/>
+      <c r="AU25" s="325"/>
       <c r="AV25" s="43"/>
-      <c r="AW25" s="320"/>
+      <c r="AW25" s="325"/>
       <c r="AX25" s="43"/>
-      <c r="AY25" s="320"/>
+      <c r="AY25" s="325"/>
       <c r="AZ25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="BA25" s="332"/>
-      <c r="BC25" s="320"/>
+      <c r="BA25" s="347"/>
+      <c r="BC25" s="325"/>
       <c r="BD25" s="43"/>
-      <c r="BE25" s="320"/>
+      <c r="BE25" s="325"/>
       <c r="BF25" s="43"/>
-      <c r="BG25" s="320"/>
+      <c r="BG25" s="325"/>
       <c r="BH25" s="43"/>
-      <c r="BI25" s="320"/>
+      <c r="BI25" s="325"/>
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
     </row>
@@ -8114,7 +8114,7 @@
       <c r="D30" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="366">
+      <c r="E30" s="309">
         <v>21</v>
       </c>
       <c r="F30" s="202"/>
@@ -8124,7 +8124,7 @@
       <c r="J30" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K30" s="329" t="s">
+      <c r="K30" s="348" t="s">
         <v>39</v>
       </c>
       <c r="L30" s="227"/>
@@ -8140,7 +8140,7 @@
         <v>40</v>
       </c>
       <c r="R30" s="66"/>
-      <c r="S30" s="318" t="s">
+      <c r="S30" s="351" t="s">
         <v>39</v>
       </c>
       <c r="T30" s="66"/>
@@ -8150,7 +8150,7 @@
       <c r="V30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="W30" s="318" t="s">
+      <c r="W30" s="351" t="s">
         <v>39</v>
       </c>
       <c r="X30" s="66"/>
@@ -8176,11 +8176,11 @@
       <c r="AH30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AI30" s="318" t="s">
+      <c r="AI30" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AJ30" s="66"/>
-      <c r="AK30" s="318" t="s">
+      <c r="AK30" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AL30" s="65" t="s">
@@ -8192,7 +8192,7 @@
       <c r="AN30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AO30" s="318" t="s">
+      <c r="AO30" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AP30" s="66"/>
@@ -8208,7 +8208,7 @@
         <v>40</v>
       </c>
       <c r="AV30" s="66"/>
-      <c r="AW30" s="318" t="s">
+      <c r="AW30" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AX30" s="66"/>
@@ -8216,13 +8216,13 @@
         <v>40</v>
       </c>
       <c r="AZ30" s="66"/>
-      <c r="BA30" s="318" t="s">
+      <c r="BA30" s="351" t="s">
         <v>39</v>
       </c>
       <c r="BB30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BC30" s="318" t="s">
+      <c r="BC30" s="351" t="s">
         <v>39</v>
       </c>
       <c r="BD30" s="66"/>
@@ -8232,11 +8232,11 @@
       <c r="BF30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BG30" s="323" t="s">
+      <c r="BG30" s="354" t="s">
         <v>40</v>
       </c>
       <c r="BH30" s="66"/>
-      <c r="BI30" s="323" t="s">
+      <c r="BI30" s="354" t="s">
         <v>40</v>
       </c>
       <c r="BJ30" s="1"/>
@@ -8251,7 +8251,7 @@
       <c r="D31" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="367"/>
+      <c r="E31" s="310"/>
       <c r="F31" s="273"/>
       <c r="G31" s="273"/>
       <c r="H31" s="273"/>
@@ -8259,66 +8259,66 @@
       <c r="J31" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="330"/>
+      <c r="K31" s="349"/>
       <c r="L31" s="232"/>
-      <c r="M31" s="327"/>
+      <c r="M31" s="333"/>
       <c r="N31" s="21"/>
-      <c r="O31" s="327"/>
+      <c r="O31" s="333"/>
       <c r="P31" s="21"/>
-      <c r="Q31" s="327"/>
+      <c r="Q31" s="333"/>
       <c r="R31" s="21"/>
-      <c r="S31" s="326"/>
+      <c r="S31" s="352"/>
       <c r="T31" s="21"/>
-      <c r="U31" s="327"/>
+      <c r="U31" s="333"/>
       <c r="V31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="W31" s="326"/>
+      <c r="W31" s="352"/>
       <c r="X31" s="21"/>
-      <c r="Y31" s="327"/>
+      <c r="Y31" s="333"/>
       <c r="Z31" s="21"/>
-      <c r="AA31" s="327"/>
+      <c r="AA31" s="333"/>
       <c r="AB31" s="21"/>
-      <c r="AC31" s="327"/>
+      <c r="AC31" s="333"/>
       <c r="AD31" s="21"/>
-      <c r="AE31" s="327"/>
+      <c r="AE31" s="333"/>
       <c r="AF31" s="21"/>
-      <c r="AG31" s="327"/>
+      <c r="AG31" s="333"/>
       <c r="AH31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AI31" s="326"/>
-      <c r="AK31" s="326"/>
+      <c r="AI31" s="352"/>
+      <c r="AK31" s="352"/>
       <c r="AL31" s="21"/>
-      <c r="AM31" s="327"/>
+      <c r="AM31" s="333"/>
       <c r="AN31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AO31" s="326"/>
+      <c r="AO31" s="352"/>
       <c r="AP31" s="21"/>
-      <c r="AQ31" s="327"/>
+      <c r="AQ31" s="333"/>
       <c r="AR31" s="21"/>
-      <c r="AS31" s="327"/>
+      <c r="AS31" s="333"/>
       <c r="AT31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AU31" s="327"/>
+      <c r="AU31" s="333"/>
       <c r="AV31" s="21"/>
-      <c r="AW31" s="326"/>
+      <c r="AW31" s="352"/>
       <c r="AX31" s="21"/>
-      <c r="AY31" s="327"/>
+      <c r="AY31" s="333"/>
       <c r="AZ31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="BA31" s="326"/>
+      <c r="BA31" s="352"/>
       <c r="BB31" s="21"/>
-      <c r="BC31" s="326"/>
+      <c r="BC31" s="352"/>
       <c r="BD31" s="21"/>
-      <c r="BE31" s="327"/>
+      <c r="BE31" s="333"/>
       <c r="BF31" s="21"/>
-      <c r="BG31" s="328"/>
+      <c r="BG31" s="355"/>
       <c r="BH31" s="21"/>
-      <c r="BI31" s="328"/>
+      <c r="BI31" s="355"/>
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
     </row>
@@ -8331,7 +8331,7 @@
       <c r="D32" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="368"/>
+      <c r="E32" s="311"/>
       <c r="F32" s="198"/>
       <c r="G32" s="198"/>
       <c r="H32" s="198"/>
@@ -8339,71 +8339,71 @@
       <c r="J32" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="331"/>
+      <c r="K32" s="350"/>
       <c r="L32" s="233"/>
-      <c r="M32" s="311"/>
+      <c r="M32" s="331"/>
       <c r="N32" s="117"/>
-      <c r="O32" s="311"/>
+      <c r="O32" s="331"/>
       <c r="P32" s="117"/>
-      <c r="Q32" s="311"/>
+      <c r="Q32" s="331"/>
       <c r="R32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="S32" s="319"/>
+      <c r="S32" s="353"/>
       <c r="T32" s="117"/>
-      <c r="U32" s="311"/>
+      <c r="U32" s="331"/>
       <c r="V32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="W32" s="319"/>
+      <c r="W32" s="353"/>
       <c r="X32" s="118"/>
-      <c r="Y32" s="311"/>
+      <c r="Y32" s="331"/>
       <c r="Z32" s="117"/>
-      <c r="AA32" s="311"/>
+      <c r="AA32" s="331"/>
       <c r="AB32" s="117"/>
-      <c r="AC32" s="311"/>
+      <c r="AC32" s="331"/>
       <c r="AD32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AE32" s="311"/>
+      <c r="AE32" s="331"/>
       <c r="AF32" s="117"/>
-      <c r="AG32" s="311"/>
+      <c r="AG32" s="331"/>
       <c r="AH32" s="118"/>
-      <c r="AI32" s="319"/>
+      <c r="AI32" s="353"/>
       <c r="AJ32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AK32" s="319"/>
+      <c r="AK32" s="353"/>
       <c r="AL32" s="117"/>
-      <c r="AM32" s="311"/>
+      <c r="AM32" s="331"/>
       <c r="AN32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AO32" s="319"/>
+      <c r="AO32" s="353"/>
       <c r="AP32" s="117"/>
-      <c r="AQ32" s="311"/>
+      <c r="AQ32" s="331"/>
       <c r="AR32" s="117"/>
-      <c r="AS32" s="311"/>
+      <c r="AS32" s="331"/>
       <c r="AT32" s="118"/>
-      <c r="AU32" s="311"/>
+      <c r="AU32" s="331"/>
       <c r="AV32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AW32" s="319"/>
+      <c r="AW32" s="353"/>
       <c r="AX32" s="117"/>
-      <c r="AY32" s="311"/>
+      <c r="AY32" s="331"/>
       <c r="AZ32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="BA32" s="319"/>
+      <c r="BA32" s="353"/>
       <c r="BB32" s="117"/>
-      <c r="BC32" s="319"/>
+      <c r="BC32" s="353"/>
       <c r="BD32" s="117"/>
-      <c r="BE32" s="311"/>
+      <c r="BE32" s="331"/>
       <c r="BF32" s="117"/>
-      <c r="BG32" s="324"/>
+      <c r="BG32" s="356"/>
       <c r="BH32" s="117"/>
-      <c r="BI32" s="324"/>
+      <c r="BI32" s="356"/>
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
     </row>
@@ -8420,7 +8420,7 @@
       <c r="D33" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="366">
+      <c r="E33" s="309">
         <v>20</v>
       </c>
       <c r="F33" s="202"/>
@@ -8430,7 +8430,7 @@
       <c r="J33" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K33" s="347" t="s">
+      <c r="K33" s="328" t="s">
         <v>39</v>
       </c>
       <c r="L33" s="227"/>
@@ -8458,7 +8458,7 @@
       <c r="V33" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="W33" s="325" t="s">
+      <c r="W33" s="344" t="s">
         <v>39</v>
       </c>
       <c r="X33" s="66"/>
@@ -8486,7 +8486,7 @@
       <c r="AH33" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AI33" s="325" t="s">
+      <c r="AI33" s="344" t="s">
         <v>39</v>
       </c>
       <c r="AJ33" s="66"/>
@@ -8530,7 +8530,7 @@
       <c r="AZ33" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BA33" s="325" t="s">
+      <c r="BA33" s="344" t="s">
         <v>39</v>
       </c>
       <c r="BB33" s="66"/>
@@ -8544,11 +8544,11 @@
         <v>40</v>
       </c>
       <c r="BF33" s="66"/>
-      <c r="BG33" s="315" t="s">
+      <c r="BG33" s="357" t="s">
         <v>39</v>
       </c>
       <c r="BH33" s="66"/>
-      <c r="BI33" s="323" t="s">
+      <c r="BI33" s="354" t="s">
         <v>40</v>
       </c>
       <c r="BJ33" s="1"/>
@@ -8563,7 +8563,7 @@
       <c r="D34" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="368"/>
+      <c r="E34" s="311"/>
       <c r="F34" s="198"/>
       <c r="G34" s="198"/>
       <c r="H34" s="198"/>
@@ -8571,77 +8571,77 @@
       <c r="J34" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="348"/>
+      <c r="K34" s="329"/>
       <c r="L34" s="233"/>
-      <c r="M34" s="311"/>
+      <c r="M34" s="331"/>
       <c r="N34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="311"/>
+      <c r="O34" s="331"/>
       <c r="P34" s="117"/>
-      <c r="Q34" s="311"/>
+      <c r="Q34" s="331"/>
       <c r="R34" s="117"/>
-      <c r="S34" s="311"/>
+      <c r="S34" s="331"/>
       <c r="T34" s="117"/>
-      <c r="U34" s="311"/>
+      <c r="U34" s="331"/>
       <c r="V34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="W34" s="308"/>
+      <c r="W34" s="358"/>
       <c r="X34" s="117"/>
-      <c r="Y34" s="311"/>
+      <c r="Y34" s="331"/>
       <c r="Z34" s="117"/>
-      <c r="AA34" s="311"/>
+      <c r="AA34" s="331"/>
       <c r="AB34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AC34" s="311"/>
+      <c r="AC34" s="331"/>
       <c r="AD34" s="117"/>
-      <c r="AE34" s="311"/>
+      <c r="AE34" s="331"/>
       <c r="AF34" s="117"/>
-      <c r="AG34" s="311"/>
+      <c r="AG34" s="331"/>
       <c r="AH34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AI34" s="308"/>
+      <c r="AI34" s="358"/>
       <c r="AJ34" s="117"/>
-      <c r="AK34" s="311"/>
+      <c r="AK34" s="331"/>
       <c r="AL34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AM34" s="311"/>
+      <c r="AM34" s="331"/>
       <c r="AN34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AO34" s="311"/>
+      <c r="AO34" s="331"/>
       <c r="AP34" s="117"/>
-      <c r="AQ34" s="311"/>
+      <c r="AQ34" s="331"/>
       <c r="AR34" s="118"/>
-      <c r="AS34" s="311"/>
+      <c r="AS34" s="331"/>
       <c r="AT34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AU34" s="311"/>
+      <c r="AU34" s="331"/>
       <c r="AV34" s="117"/>
-      <c r="AW34" s="311"/>
+      <c r="AW34" s="331"/>
       <c r="AX34" s="117"/>
-      <c r="AY34" s="311"/>
+      <c r="AY34" s="331"/>
       <c r="AZ34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="BA34" s="308"/>
+      <c r="BA34" s="358"/>
       <c r="BB34" s="117"/>
-      <c r="BC34" s="311"/>
+      <c r="BC34" s="331"/>
       <c r="BD34" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="BE34" s="311"/>
+      <c r="BE34" s="331"/>
       <c r="BF34" s="192" t="s">
         <v>63</v>
       </c>
-      <c r="BG34" s="308"/>
+      <c r="BG34" s="358"/>
       <c r="BH34" s="117"/>
-      <c r="BI34" s="324"/>
+      <c r="BI34" s="356"/>
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1"/>
     </row>
@@ -8809,7 +8809,7 @@
       <c r="D36" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="366">
+      <c r="E36" s="309">
         <v>19</v>
       </c>
       <c r="F36" s="274"/>
@@ -8819,7 +8819,7 @@
       <c r="J36" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K36" s="350" t="s">
+      <c r="K36" s="320" t="s">
         <v>40</v>
       </c>
       <c r="L36" s="227"/>
@@ -8845,7 +8845,7 @@
         <v>40</v>
       </c>
       <c r="V36" s="66"/>
-      <c r="W36" s="318" t="s">
+      <c r="W36" s="351" t="s">
         <v>39</v>
       </c>
       <c r="X36" s="65" t="s">
@@ -8859,7 +8859,7 @@
         <v>40</v>
       </c>
       <c r="AB36" s="66"/>
-      <c r="AC36" s="318" t="s">
+      <c r="AC36" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AD36" s="65" t="s">
@@ -8875,7 +8875,7 @@
       <c r="AH36" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AI36" s="318" t="s">
+      <c r="AI36" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AJ36" s="66"/>
@@ -8889,7 +8889,7 @@
       <c r="AN36" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AO36" s="318" t="s">
+      <c r="AO36" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AP36" s="66"/>
@@ -8907,7 +8907,7 @@
       <c r="AV36" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AW36" s="318" t="s">
+      <c r="AW36" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AX36" s="66"/>
@@ -8917,7 +8917,7 @@
       <c r="AZ36" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BA36" s="318" t="s">
+      <c r="BA36" s="351" t="s">
         <v>39</v>
       </c>
       <c r="BB36" s="66"/>
@@ -8937,7 +8937,7 @@
       <c r="BH36" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="BI36" s="321" t="s">
+      <c r="BI36" s="359" t="s">
         <v>39</v>
       </c>
       <c r="BJ36" s="1"/>
@@ -8952,7 +8952,7 @@
       <c r="D37" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="368"/>
+      <c r="E37" s="311"/>
       <c r="F37" s="275"/>
       <c r="G37" s="275"/>
       <c r="H37" s="275"/>
@@ -8960,75 +8960,75 @@
       <c r="J37" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="K37" s="351"/>
+      <c r="K37" s="332"/>
       <c r="L37" s="233"/>
-      <c r="M37" s="311"/>
+      <c r="M37" s="331"/>
       <c r="N37" s="117"/>
-      <c r="O37" s="311"/>
+      <c r="O37" s="331"/>
       <c r="P37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="Q37" s="311"/>
+      <c r="Q37" s="331"/>
       <c r="R37" s="117"/>
-      <c r="S37" s="311"/>
+      <c r="S37" s="331"/>
       <c r="T37" s="117"/>
-      <c r="U37" s="311"/>
+      <c r="U37" s="331"/>
       <c r="V37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="W37" s="319"/>
+      <c r="W37" s="353"/>
       <c r="X37" s="117"/>
-      <c r="Y37" s="311"/>
+      <c r="Y37" s="331"/>
       <c r="Z37" s="117"/>
-      <c r="AA37" s="311"/>
+      <c r="AA37" s="331"/>
       <c r="AB37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AC37" s="319"/>
+      <c r="AC37" s="353"/>
       <c r="AD37" s="117"/>
-      <c r="AE37" s="311"/>
+      <c r="AE37" s="331"/>
       <c r="AF37" s="117"/>
-      <c r="AG37" s="311"/>
+      <c r="AG37" s="331"/>
       <c r="AH37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AI37" s="319"/>
+      <c r="AI37" s="353"/>
       <c r="AJ37" s="117"/>
-      <c r="AK37" s="311"/>
+      <c r="AK37" s="331"/>
       <c r="AL37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AM37" s="311"/>
+      <c r="AM37" s="331"/>
       <c r="AN37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AO37" s="319"/>
+      <c r="AO37" s="353"/>
       <c r="AP37" s="117"/>
-      <c r="AQ37" s="311"/>
+      <c r="AQ37" s="331"/>
       <c r="AR37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AS37" s="311"/>
+      <c r="AS37" s="331"/>
       <c r="AT37" s="117"/>
-      <c r="AU37" s="311"/>
+      <c r="AU37" s="331"/>
       <c r="AV37" s="117"/>
-      <c r="AW37" s="319"/>
+      <c r="AW37" s="353"/>
       <c r="AX37" s="117"/>
-      <c r="AY37" s="311"/>
+      <c r="AY37" s="331"/>
       <c r="AZ37" s="117"/>
-      <c r="BA37" s="319"/>
+      <c r="BA37" s="353"/>
       <c r="BB37" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BC37" s="311"/>
+      <c r="BC37" s="331"/>
       <c r="BD37" s="117"/>
-      <c r="BE37" s="311"/>
+      <c r="BE37" s="331"/>
       <c r="BF37" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BG37" s="311"/>
+      <c r="BG37" s="331"/>
       <c r="BH37" s="117"/>
-      <c r="BI37" s="322"/>
+      <c r="BI37" s="360"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
     </row>
@@ -9045,7 +9045,7 @@
       <c r="D38" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="366">
+      <c r="E38" s="309">
         <v>20</v>
       </c>
       <c r="F38" s="274"/>
@@ -9055,7 +9055,7 @@
       <c r="J38" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K38" s="350" t="s">
+      <c r="K38" s="320" t="s">
         <v>40</v>
       </c>
       <c r="L38" s="227"/>
@@ -9073,7 +9073,7 @@
       <c r="R38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="S38" s="318" t="s">
+      <c r="S38" s="351" t="s">
         <v>39</v>
       </c>
       <c r="T38" s="66"/>
@@ -9095,13 +9095,13 @@
         <v>40</v>
       </c>
       <c r="AB38" s="66"/>
-      <c r="AC38" s="316" t="s">
+      <c r="AC38" s="361" t="s">
         <v>40</v>
       </c>
       <c r="AD38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AE38" s="318" t="s">
+      <c r="AE38" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AF38" s="66"/>
@@ -9121,7 +9121,7 @@
       <c r="AL38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AM38" s="318" t="s">
+      <c r="AM38" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AN38" s="65" t="s">
@@ -9145,7 +9145,7 @@
       <c r="AV38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AW38" s="318" t="s">
+      <c r="AW38" s="351" t="s">
         <v>39</v>
       </c>
       <c r="AX38" s="66"/>
@@ -9169,7 +9169,7 @@
       <c r="BF38" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="BG38" s="315" t="s">
+      <c r="BG38" s="357" t="s">
         <v>39</v>
       </c>
       <c r="BH38" s="66"/>
@@ -9188,7 +9188,7 @@
       <c r="D39" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="E39" s="363"/>
+      <c r="E39" s="306"/>
       <c r="F39" s="276"/>
       <c r="G39" s="276"/>
       <c r="H39" s="276"/>
@@ -9196,77 +9196,77 @@
       <c r="J39" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K39" s="352"/>
+      <c r="K39" s="321"/>
       <c r="L39" s="141"/>
-      <c r="M39" s="304"/>
+      <c r="M39" s="313"/>
       <c r="N39" s="72"/>
-      <c r="O39" s="304"/>
+      <c r="O39" s="313"/>
       <c r="P39" s="72"/>
-      <c r="Q39" s="304"/>
+      <c r="Q39" s="313"/>
       <c r="R39" s="72"/>
-      <c r="S39" s="319"/>
+      <c r="S39" s="353"/>
       <c r="T39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="U39" s="304"/>
+      <c r="U39" s="313"/>
       <c r="V39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="W39" s="304"/>
+      <c r="W39" s="313"/>
       <c r="X39" s="72"/>
-      <c r="Y39" s="304"/>
+      <c r="Y39" s="313"/>
       <c r="Z39" s="72"/>
-      <c r="AA39" s="304"/>
+      <c r="AA39" s="313"/>
       <c r="AB39" s="72"/>
-      <c r="AC39" s="317"/>
+      <c r="AC39" s="362"/>
       <c r="AD39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AE39" s="319"/>
+      <c r="AE39" s="353"/>
       <c r="AF39" s="72"/>
-      <c r="AG39" s="304"/>
+      <c r="AG39" s="313"/>
       <c r="AH39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI39" s="304"/>
+      <c r="AI39" s="313"/>
       <c r="AJ39" s="72"/>
-      <c r="AK39" s="304"/>
+      <c r="AK39" s="313"/>
       <c r="AL39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AM39" s="319"/>
+      <c r="AM39" s="353"/>
       <c r="AN39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AO39" s="304"/>
+      <c r="AO39" s="313"/>
       <c r="AP39" s="72"/>
-      <c r="AQ39" s="304"/>
+      <c r="AQ39" s="313"/>
       <c r="AR39" s="72"/>
-      <c r="AS39" s="304"/>
+      <c r="AS39" s="313"/>
       <c r="AT39" s="72"/>
-      <c r="AU39" s="304"/>
+      <c r="AU39" s="313"/>
       <c r="AV39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AW39" s="319"/>
+      <c r="AW39" s="353"/>
       <c r="AX39" s="72"/>
-      <c r="AY39" s="304"/>
+      <c r="AY39" s="313"/>
       <c r="AZ39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BA39" s="304"/>
+      <c r="BA39" s="313"/>
       <c r="BB39" s="72"/>
-      <c r="BC39" s="304"/>
+      <c r="BC39" s="313"/>
       <c r="BD39" s="188" t="s">
         <v>113</v>
       </c>
-      <c r="BE39" s="304"/>
+      <c r="BE39" s="313"/>
       <c r="BF39" s="72"/>
-      <c r="BG39" s="308"/>
+      <c r="BG39" s="358"/>
       <c r="BH39" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="BI39" s="304"/>
+      <c r="BI39" s="313"/>
       <c r="BJ39" s="1"/>
       <c r="BK39" s="1"/>
     </row>
@@ -9430,7 +9430,7 @@
       <c r="D41" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="362">
+      <c r="E41" s="305">
         <v>10</v>
       </c>
       <c r="F41" s="278"/>
@@ -9440,7 +9440,7 @@
       <c r="J41" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K41" s="350" t="s">
+      <c r="K41" s="320" t="s">
         <v>40</v>
       </c>
       <c r="L41" s="235"/>
@@ -9466,7 +9466,7 @@
       <c r="V41" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="W41" s="313" t="s">
+      <c r="W41" s="363" t="s">
         <v>39</v>
       </c>
       <c r="X41" s="183"/>
@@ -9492,7 +9492,7 @@
       <c r="AH41" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="AI41" s="313" t="s">
+      <c r="AI41" s="363" t="s">
         <v>39</v>
       </c>
       <c r="AJ41" s="187"/>
@@ -9506,7 +9506,7 @@
       <c r="AN41" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="AO41" s="313" t="s">
+      <c r="AO41" s="363" t="s">
         <v>39</v>
       </c>
       <c r="AP41" s="183"/>
@@ -9563,75 +9563,75 @@
       <c r="D42" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="363"/>
+      <c r="E42" s="306"/>
       <c r="F42" s="279"/>
       <c r="G42" s="279"/>
       <c r="H42" s="279"/>
       <c r="I42" s="221"/>
       <c r="J42" s="264"/>
-      <c r="K42" s="352"/>
+      <c r="K42" s="321"/>
       <c r="L42" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="M42" s="304"/>
+      <c r="M42" s="313"/>
       <c r="N42" s="185"/>
-      <c r="O42" s="304"/>
+      <c r="O42" s="313"/>
       <c r="P42" s="185"/>
-      <c r="Q42" s="304"/>
+      <c r="Q42" s="313"/>
       <c r="R42" s="186"/>
-      <c r="S42" s="304"/>
+      <c r="S42" s="313"/>
       <c r="T42" s="185"/>
-      <c r="U42" s="304"/>
+      <c r="U42" s="313"/>
       <c r="V42" s="189" t="s">
         <v>63</v>
       </c>
-      <c r="W42" s="314"/>
+      <c r="W42" s="364"/>
       <c r="X42" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="Y42" s="304"/>
+      <c r="Y42" s="313"/>
       <c r="Z42" s="185"/>
-      <c r="AA42" s="304"/>
+      <c r="AA42" s="313"/>
       <c r="AB42" s="185"/>
-      <c r="AC42" s="304"/>
+      <c r="AC42" s="313"/>
       <c r="AD42" s="186"/>
-      <c r="AE42" s="304"/>
+      <c r="AE42" s="313"/>
       <c r="AF42" s="185"/>
-      <c r="AG42" s="304"/>
+      <c r="AG42" s="313"/>
       <c r="AH42" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="AI42" s="314"/>
+      <c r="AI42" s="364"/>
       <c r="AJ42" s="186"/>
-      <c r="AK42" s="304"/>
+      <c r="AK42" s="313"/>
       <c r="AL42" s="186"/>
-      <c r="AM42" s="304"/>
+      <c r="AM42" s="313"/>
       <c r="AN42" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="AO42" s="314"/>
+      <c r="AO42" s="364"/>
       <c r="AP42" s="185"/>
-      <c r="AQ42" s="304"/>
+      <c r="AQ42" s="313"/>
       <c r="AR42" s="185"/>
-      <c r="AS42" s="304"/>
+      <c r="AS42" s="313"/>
       <c r="AT42" s="185"/>
-      <c r="AU42" s="304"/>
+      <c r="AU42" s="313"/>
       <c r="AV42" s="185"/>
-      <c r="AW42" s="304"/>
+      <c r="AW42" s="313"/>
       <c r="AX42" s="185"/>
-      <c r="AY42" s="304"/>
+      <c r="AY42" s="313"/>
       <c r="AZ42" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="BA42" s="304"/>
+      <c r="BA42" s="313"/>
       <c r="BB42" s="185"/>
-      <c r="BC42" s="304"/>
+      <c r="BC42" s="313"/>
       <c r="BD42" s="185"/>
-      <c r="BE42" s="304"/>
+      <c r="BE42" s="313"/>
       <c r="BF42" s="185"/>
-      <c r="BG42" s="304"/>
+      <c r="BG42" s="313"/>
       <c r="BH42" s="185"/>
-      <c r="BI42" s="304"/>
+      <c r="BI42" s="313"/>
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
     </row>
@@ -9648,137 +9648,137 @@
       <c r="D43" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="362">
+      <c r="E43" s="305">
         <v>17</v>
       </c>
-      <c r="F43" s="362">
+      <c r="F43" s="305">
         <v>5</v>
       </c>
-      <c r="G43" s="362">
+      <c r="G43" s="305">
         <v>2</v>
       </c>
-      <c r="H43" s="362">
+      <c r="H43" s="305">
         <v>7</v>
       </c>
       <c r="I43" s="222"/>
       <c r="J43" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="K43" s="345" t="s">
+      <c r="K43" s="326" t="s">
         <v>39</v>
       </c>
       <c r="L43" s="152"/>
-      <c r="M43" s="303" t="s">
+      <c r="M43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="N43" s="25"/>
-      <c r="O43" s="303" t="s">
+      <c r="O43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="P43" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="Q43" s="303" t="s">
+      <c r="Q43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="R43" s="25"/>
-      <c r="S43" s="303" t="s">
+      <c r="S43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="T43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="U43" s="309" t="s">
+      <c r="U43" s="367" t="s">
         <v>39</v>
       </c>
       <c r="V43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="W43" s="307" t="s">
+      <c r="W43" s="346" t="s">
         <v>39</v>
       </c>
       <c r="X43" s="152"/>
-      <c r="Y43" s="303" t="s">
+      <c r="Y43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="Z43" s="25"/>
-      <c r="AA43" s="303" t="s">
+      <c r="AA43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AB43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AC43" s="303" t="s">
+      <c r="AC43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AD43" s="25"/>
-      <c r="AE43" s="303" t="s">
+      <c r="AE43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AF43" s="25"/>
-      <c r="AG43" s="303" t="s">
+      <c r="AG43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AH43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI43" s="303" t="s">
+      <c r="AI43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AJ43" s="25"/>
-      <c r="AK43" s="303" t="s">
+      <c r="AK43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AL43" s="25"/>
-      <c r="AM43" s="303" t="s">
+      <c r="AM43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AN43" s="25"/>
-      <c r="AO43" s="303" t="s">
+      <c r="AO43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AP43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AQ43" s="303" t="s">
+      <c r="AQ43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AR43" s="25"/>
-      <c r="AS43" s="303" t="s">
+      <c r="AS43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AT43" s="25"/>
-      <c r="AU43" s="303" t="s">
+      <c r="AU43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AV43" s="25"/>
-      <c r="AW43" s="303" t="s">
+      <c r="AW43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AX43" s="25"/>
-      <c r="AY43" s="303" t="s">
+      <c r="AY43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="AZ43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BA43" s="307" t="s">
+      <c r="BA43" s="346" t="s">
         <v>39</v>
       </c>
       <c r="BB43" s="25"/>
-      <c r="BC43" s="303" t="s">
+      <c r="BC43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BD43" s="25"/>
-      <c r="BE43" s="303" t="s">
+      <c r="BE43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BF43" s="25"/>
-      <c r="BG43" s="303" t="s">
+      <c r="BG43" s="324" t="s">
         <v>40</v>
       </c>
       <c r="BH43" s="25"/>
-      <c r="BI43" s="305" t="s">
+      <c r="BI43" s="365" t="s">
         <v>39</v>
       </c>
       <c r="BJ43" s="1"/>
@@ -9793,80 +9793,80 @@
       <c r="D44" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="363"/>
-      <c r="F44" s="363"/>
-      <c r="G44" s="363"/>
-      <c r="H44" s="363"/>
+      <c r="E44" s="306"/>
+      <c r="F44" s="306"/>
+      <c r="G44" s="306"/>
+      <c r="H44" s="306"/>
       <c r="I44" s="218"/>
       <c r="J44" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K44" s="349"/>
+      <c r="K44" s="330"/>
       <c r="L44" s="141"/>
-      <c r="M44" s="304"/>
+      <c r="M44" s="313"/>
       <c r="N44" s="72"/>
-      <c r="O44" s="304"/>
+      <c r="O44" s="313"/>
       <c r="P44" s="72"/>
-      <c r="Q44" s="304"/>
+      <c r="Q44" s="313"/>
       <c r="R44" s="72"/>
-      <c r="S44" s="304"/>
+      <c r="S44" s="313"/>
       <c r="T44" s="72"/>
-      <c r="U44" s="310"/>
+      <c r="U44" s="368"/>
       <c r="V44" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="308"/>
+      <c r="W44" s="358"/>
       <c r="X44" s="141"/>
-      <c r="Y44" s="304"/>
+      <c r="Y44" s="313"/>
       <c r="Z44" s="72"/>
-      <c r="AA44" s="304"/>
+      <c r="AA44" s="313"/>
       <c r="AB44" s="72"/>
-      <c r="AC44" s="304"/>
+      <c r="AC44" s="313"/>
       <c r="AD44" s="72"/>
-      <c r="AE44" s="304"/>
+      <c r="AE44" s="313"/>
       <c r="AF44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AG44" s="304"/>
+      <c r="AG44" s="313"/>
       <c r="AH44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI44" s="304"/>
+      <c r="AI44" s="313"/>
       <c r="AJ44" s="72"/>
-      <c r="AK44" s="304"/>
+      <c r="AK44" s="313"/>
       <c r="AL44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AM44" s="304"/>
+      <c r="AM44" s="313"/>
       <c r="AN44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AO44" s="304"/>
+      <c r="AO44" s="313"/>
       <c r="AP44" s="72"/>
-      <c r="AQ44" s="304"/>
+      <c r="AQ44" s="313"/>
       <c r="AR44" s="72"/>
-      <c r="AS44" s="304"/>
+      <c r="AS44" s="313"/>
       <c r="AT44" s="72"/>
-      <c r="AU44" s="304"/>
+      <c r="AU44" s="313"/>
       <c r="AV44" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AW44" s="304"/>
+      <c r="AW44" s="313"/>
       <c r="AX44" s="117"/>
-      <c r="AY44" s="311"/>
+      <c r="AY44" s="331"/>
       <c r="AZ44" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="BA44" s="308"/>
+      <c r="BA44" s="358"/>
       <c r="BB44" s="117"/>
-      <c r="BC44" s="311"/>
+      <c r="BC44" s="331"/>
       <c r="BD44" s="117"/>
-      <c r="BE44" s="304"/>
-      <c r="BG44" s="304"/>
+      <c r="BE44" s="313"/>
+      <c r="BG44" s="313"/>
       <c r="BH44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BI44" s="306"/>
+      <c r="BI44" s="366"/>
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1"/>
     </row>
@@ -10717,6 +10717,314 @@
     <sortCondition ref="C7:C53"/>
   </sortState>
   <mergeCells count="332">
+    <mergeCell ref="BG43:BG44"/>
+    <mergeCell ref="BI43:BI44"/>
+    <mergeCell ref="BA43:BA44"/>
+    <mergeCell ref="AW43:AW44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="AQ43:AQ44"/>
+    <mergeCell ref="AS43:AS44"/>
+    <mergeCell ref="AU43:AU44"/>
+    <mergeCell ref="AY43:AY44"/>
+    <mergeCell ref="BC43:BC44"/>
+    <mergeCell ref="BE43:BE44"/>
+    <mergeCell ref="AE43:AE44"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AK43:AK44"/>
+    <mergeCell ref="AM43:AM44"/>
+    <mergeCell ref="AO43:AO44"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="BA38:BA39"/>
+    <mergeCell ref="BC38:BC39"/>
+    <mergeCell ref="BE38:BE39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="Y38:Y39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="Y41:Y42"/>
+    <mergeCell ref="AA41:AA42"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AO41:AO42"/>
+    <mergeCell ref="AM41:AM42"/>
+    <mergeCell ref="BG38:BG39"/>
+    <mergeCell ref="BI38:BI39"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AO38:AO39"/>
+    <mergeCell ref="AQ38:AQ39"/>
+    <mergeCell ref="AS38:AS39"/>
+    <mergeCell ref="AU38:AU39"/>
+    <mergeCell ref="AW38:AW39"/>
+    <mergeCell ref="AY38:AY39"/>
+    <mergeCell ref="BC18:BC19"/>
+    <mergeCell ref="BE18:BE19"/>
+    <mergeCell ref="BG18:BG19"/>
+    <mergeCell ref="BI18:BI19"/>
+    <mergeCell ref="S38:S39"/>
+    <mergeCell ref="AE38:AE39"/>
+    <mergeCell ref="AM38:AM39"/>
+    <mergeCell ref="AG38:AG39"/>
+    <mergeCell ref="AI38:AI39"/>
+    <mergeCell ref="AK38:AK39"/>
+    <mergeCell ref="BG36:BG37"/>
+    <mergeCell ref="BI36:BI37"/>
+    <mergeCell ref="W36:W37"/>
+    <mergeCell ref="AC36:AC37"/>
+    <mergeCell ref="AI36:AI37"/>
+    <mergeCell ref="AO36:AO37"/>
+    <mergeCell ref="AU36:AU37"/>
+    <mergeCell ref="AW36:AW37"/>
+    <mergeCell ref="AY36:AY37"/>
+    <mergeCell ref="BA36:BA37"/>
+    <mergeCell ref="BC36:BC37"/>
+    <mergeCell ref="BE36:BE37"/>
+    <mergeCell ref="AE36:AE37"/>
+    <mergeCell ref="AG36:AG37"/>
+    <mergeCell ref="AK36:AK37"/>
+    <mergeCell ref="AM36:AM37"/>
+    <mergeCell ref="AQ36:AQ37"/>
+    <mergeCell ref="AS36:AS37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="Y36:Y37"/>
+    <mergeCell ref="AA36:AA37"/>
+    <mergeCell ref="BG33:BG34"/>
+    <mergeCell ref="BI33:BI34"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AQ33:AQ34"/>
+    <mergeCell ref="AS33:AS34"/>
+    <mergeCell ref="AU33:AU34"/>
+    <mergeCell ref="AW33:AW34"/>
+    <mergeCell ref="AY33:AY34"/>
+    <mergeCell ref="BA33:BA34"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AE33:AE34"/>
+    <mergeCell ref="AG33:AG34"/>
+    <mergeCell ref="AK33:AK34"/>
+    <mergeCell ref="AM33:AM34"/>
+    <mergeCell ref="AO33:AO34"/>
+    <mergeCell ref="BC30:BC32"/>
+    <mergeCell ref="BE30:BE32"/>
+    <mergeCell ref="BI30:BI32"/>
+    <mergeCell ref="AK30:AK32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="AM30:AM32"/>
+    <mergeCell ref="AQ30:AQ32"/>
+    <mergeCell ref="AS30:AS32"/>
+    <mergeCell ref="AU30:AU32"/>
+    <mergeCell ref="AW30:AW32"/>
+    <mergeCell ref="AY30:AY32"/>
+    <mergeCell ref="U30:U32"/>
+    <mergeCell ref="Y30:Y32"/>
+    <mergeCell ref="AA30:AA32"/>
+    <mergeCell ref="AC30:AC32"/>
+    <mergeCell ref="AE30:AE32"/>
+    <mergeCell ref="AG30:AG32"/>
+    <mergeCell ref="BC33:BC34"/>
+    <mergeCell ref="BE33:BE34"/>
+    <mergeCell ref="BI24:BI25"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="S30:S32"/>
+    <mergeCell ref="W30:W32"/>
+    <mergeCell ref="AI30:AI32"/>
+    <mergeCell ref="AO30:AO32"/>
+    <mergeCell ref="BA30:BA32"/>
+    <mergeCell ref="BG30:BG32"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="AW24:AW25"/>
+    <mergeCell ref="AY24:AY25"/>
+    <mergeCell ref="BC24:BC25"/>
+    <mergeCell ref="BE24:BE25"/>
+    <mergeCell ref="BG24:BG25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="AI24:AI25"/>
+    <mergeCell ref="AO24:AO25"/>
+    <mergeCell ref="BA24:BA25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="AK24:AK25"/>
+    <mergeCell ref="AM24:AM25"/>
+    <mergeCell ref="AQ24:AQ25"/>
+    <mergeCell ref="AS24:AS25"/>
+    <mergeCell ref="AU24:AU25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="BA18:BA19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AS18:AS19"/>
+    <mergeCell ref="AU18:AU19"/>
+    <mergeCell ref="AW18:AW19"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="AM18:AM19"/>
+    <mergeCell ref="AO18:AO19"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="BE15:BE16"/>
+    <mergeCell ref="BI15:BI16"/>
+    <mergeCell ref="AO15:AO16"/>
+    <mergeCell ref="AI15:AI16"/>
+    <mergeCell ref="BC15:BC16"/>
+    <mergeCell ref="BG15:BG16"/>
+    <mergeCell ref="AQ15:AQ16"/>
+    <mergeCell ref="AS15:AS16"/>
+    <mergeCell ref="AU15:AU16"/>
+    <mergeCell ref="AW15:AW16"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="BA15:BA16"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AK15:AK16"/>
+    <mergeCell ref="AM15:AM16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="BI9:BI10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="BA9:BA10"/>
+    <mergeCell ref="AU9:AU10"/>
+    <mergeCell ref="AW9:AW10"/>
+    <mergeCell ref="AY9:AY10"/>
+    <mergeCell ref="BC9:BC10"/>
+    <mergeCell ref="BE9:BE10"/>
+    <mergeCell ref="BG9:BG10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="BG3:BG4"/>
+    <mergeCell ref="BI3:BI4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="BA3:BA4"/>
+    <mergeCell ref="BC3:BC4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AQ13:AQ14"/>
+    <mergeCell ref="AU13:AU14"/>
+    <mergeCell ref="AW13:AW14"/>
+    <mergeCell ref="AY13:AY14"/>
+    <mergeCell ref="BA13:BA14"/>
+    <mergeCell ref="BC13:BC14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="BE13:BE14"/>
+    <mergeCell ref="BG13:BG14"/>
+    <mergeCell ref="BI13:BI14"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AO13:AO14"/>
+    <mergeCell ref="AS13:AS14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="BA41:BA42"/>
+    <mergeCell ref="BC41:BC42"/>
+    <mergeCell ref="BE41:BE42"/>
+    <mergeCell ref="BG41:BG42"/>
+    <mergeCell ref="BI41:BI42"/>
+    <mergeCell ref="AY41:AY42"/>
+    <mergeCell ref="AW41:AW42"/>
+    <mergeCell ref="AU41:AU42"/>
+    <mergeCell ref="AS41:AS42"/>
+    <mergeCell ref="AQ41:AQ42"/>
+    <mergeCell ref="AK41:AK42"/>
+    <mergeCell ref="AE41:AE42"/>
+    <mergeCell ref="AG41:AG42"/>
+    <mergeCell ref="AC41:AC42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="O41:O42"/>
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="E13:E14"/>
     <mergeCell ref="E18:E19"/>
@@ -10741,314 +11049,6 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="AG13:AG14"/>
     <mergeCell ref="S3:S4"/>
-    <mergeCell ref="BE13:BE14"/>
-    <mergeCell ref="BG13:BG14"/>
-    <mergeCell ref="BI13:BI14"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AO13:AO14"/>
-    <mergeCell ref="AS13:AS14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="BA41:BA42"/>
-    <mergeCell ref="BC41:BC42"/>
-    <mergeCell ref="BE41:BE42"/>
-    <mergeCell ref="BG41:BG42"/>
-    <mergeCell ref="BI41:BI42"/>
-    <mergeCell ref="AY41:AY42"/>
-    <mergeCell ref="AW41:AW42"/>
-    <mergeCell ref="AU41:AU42"/>
-    <mergeCell ref="AS41:AS42"/>
-    <mergeCell ref="AQ41:AQ42"/>
-    <mergeCell ref="AK41:AK42"/>
-    <mergeCell ref="AE41:AE42"/>
-    <mergeCell ref="AG41:AG42"/>
-    <mergeCell ref="AC41:AC42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="AQ13:AQ14"/>
-    <mergeCell ref="AU13:AU14"/>
-    <mergeCell ref="AW13:AW14"/>
-    <mergeCell ref="AY13:AY14"/>
-    <mergeCell ref="BA13:BA14"/>
-    <mergeCell ref="BC13:BC14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="M30:M32"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="BG3:BG4"/>
-    <mergeCell ref="BI3:BI4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="BA3:BA4"/>
-    <mergeCell ref="BC3:BC4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="BI9:BI10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="BA9:BA10"/>
-    <mergeCell ref="AU9:AU10"/>
-    <mergeCell ref="AW9:AW10"/>
-    <mergeCell ref="AY9:AY10"/>
-    <mergeCell ref="BC9:BC10"/>
-    <mergeCell ref="BE9:BE10"/>
-    <mergeCell ref="BG9:BG10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AK15:AK16"/>
-    <mergeCell ref="AM15:AM16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="BE15:BE16"/>
-    <mergeCell ref="BI15:BI16"/>
-    <mergeCell ref="AO15:AO16"/>
-    <mergeCell ref="AI15:AI16"/>
-    <mergeCell ref="BC15:BC16"/>
-    <mergeCell ref="BG15:BG16"/>
-    <mergeCell ref="AQ15:AQ16"/>
-    <mergeCell ref="AS15:AS16"/>
-    <mergeCell ref="AU15:AU16"/>
-    <mergeCell ref="AW15:AW16"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="BA15:BA16"/>
-    <mergeCell ref="BA18:BA19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AS18:AS19"/>
-    <mergeCell ref="AU18:AU19"/>
-    <mergeCell ref="AW18:AW19"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="AM18:AM19"/>
-    <mergeCell ref="AO18:AO19"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="AU24:AU25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="BI24:BI25"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="S30:S32"/>
-    <mergeCell ref="W30:W32"/>
-    <mergeCell ref="AI30:AI32"/>
-    <mergeCell ref="AO30:AO32"/>
-    <mergeCell ref="BA30:BA32"/>
-    <mergeCell ref="BG30:BG32"/>
-    <mergeCell ref="O30:O32"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="AW24:AW25"/>
-    <mergeCell ref="AY24:AY25"/>
-    <mergeCell ref="BC24:BC25"/>
-    <mergeCell ref="BE24:BE25"/>
-    <mergeCell ref="BG24:BG25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="AI24:AI25"/>
-    <mergeCell ref="AO24:AO25"/>
-    <mergeCell ref="BA24:BA25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="AK24:AK25"/>
-    <mergeCell ref="AM24:AM25"/>
-    <mergeCell ref="AQ24:AQ25"/>
-    <mergeCell ref="AS24:AS25"/>
-    <mergeCell ref="BC30:BC32"/>
-    <mergeCell ref="BE30:BE32"/>
-    <mergeCell ref="BI30:BI32"/>
-    <mergeCell ref="AK30:AK32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="AM30:AM32"/>
-    <mergeCell ref="AQ30:AQ32"/>
-    <mergeCell ref="AS30:AS32"/>
-    <mergeCell ref="AU30:AU32"/>
-    <mergeCell ref="AW30:AW32"/>
-    <mergeCell ref="AY30:AY32"/>
-    <mergeCell ref="U30:U32"/>
-    <mergeCell ref="Y30:Y32"/>
-    <mergeCell ref="AA30:AA32"/>
-    <mergeCell ref="AC30:AC32"/>
-    <mergeCell ref="AE30:AE32"/>
-    <mergeCell ref="AG30:AG32"/>
-    <mergeCell ref="BC33:BC34"/>
-    <mergeCell ref="BE33:BE34"/>
-    <mergeCell ref="BG33:BG34"/>
-    <mergeCell ref="BI33:BI34"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AQ33:AQ34"/>
-    <mergeCell ref="AS33:AS34"/>
-    <mergeCell ref="AU33:AU34"/>
-    <mergeCell ref="AW33:AW34"/>
-    <mergeCell ref="AY33:AY34"/>
-    <mergeCell ref="BA33:BA34"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AE33:AE34"/>
-    <mergeCell ref="AG33:AG34"/>
-    <mergeCell ref="AK33:AK34"/>
-    <mergeCell ref="AM33:AM34"/>
-    <mergeCell ref="AO33:AO34"/>
-    <mergeCell ref="AK36:AK37"/>
-    <mergeCell ref="AM36:AM37"/>
-    <mergeCell ref="AQ36:AQ37"/>
-    <mergeCell ref="AS36:AS37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="Y36:Y37"/>
-    <mergeCell ref="AA36:AA37"/>
-    <mergeCell ref="BC18:BC19"/>
-    <mergeCell ref="BE18:BE19"/>
-    <mergeCell ref="BG18:BG19"/>
-    <mergeCell ref="BI18:BI19"/>
-    <mergeCell ref="S38:S39"/>
-    <mergeCell ref="AE38:AE39"/>
-    <mergeCell ref="AM38:AM39"/>
-    <mergeCell ref="AG38:AG39"/>
-    <mergeCell ref="AI38:AI39"/>
-    <mergeCell ref="AK38:AK39"/>
-    <mergeCell ref="BG36:BG37"/>
-    <mergeCell ref="BI36:BI37"/>
-    <mergeCell ref="W36:W37"/>
-    <mergeCell ref="AC36:AC37"/>
-    <mergeCell ref="AI36:AI37"/>
-    <mergeCell ref="AO36:AO37"/>
-    <mergeCell ref="AU36:AU37"/>
-    <mergeCell ref="AW36:AW37"/>
-    <mergeCell ref="AY36:AY37"/>
-    <mergeCell ref="BA36:BA37"/>
-    <mergeCell ref="BC36:BC37"/>
-    <mergeCell ref="BE36:BE37"/>
-    <mergeCell ref="AE36:AE37"/>
-    <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="BG38:BG39"/>
-    <mergeCell ref="BI38:BI39"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AO38:AO39"/>
-    <mergeCell ref="AQ38:AQ39"/>
-    <mergeCell ref="AS38:AS39"/>
-    <mergeCell ref="AU38:AU39"/>
-    <mergeCell ref="AW38:AW39"/>
-    <mergeCell ref="AY38:AY39"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="BA38:BA39"/>
-    <mergeCell ref="BC38:BC39"/>
-    <mergeCell ref="BE38:BE39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="Y38:Y39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="Y41:Y42"/>
-    <mergeCell ref="AA41:AA42"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AO41:AO42"/>
-    <mergeCell ref="AM41:AM42"/>
-    <mergeCell ref="BG43:BG44"/>
-    <mergeCell ref="BI43:BI44"/>
-    <mergeCell ref="BA43:BA44"/>
-    <mergeCell ref="AW43:AW44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="AQ43:AQ44"/>
-    <mergeCell ref="AS43:AS44"/>
-    <mergeCell ref="AU43:AU44"/>
-    <mergeCell ref="AY43:AY44"/>
-    <mergeCell ref="BC43:BC44"/>
-    <mergeCell ref="BE43:BE44"/>
-    <mergeCell ref="AE43:AE44"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AK43:AK44"/>
-    <mergeCell ref="AM43:AM44"/>
-    <mergeCell ref="AO43:AO44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11058,13 +11058,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AO38"/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="B34" sqref="A34:B34"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11072,10 +11072,10 @@
     <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
     <col min="2" max="5" width="20" style="5" customWidth="1"/>
     <col min="6" max="7" width="9.1640625" style="4"/>
-    <col min="31" max="31" width="13.6640625" customWidth="1"/>
+    <col min="30" max="30" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" s="286" t="s">
         <v>6</v>
       </c>
@@ -11098,89 +11098,86 @@
         <v>10</v>
       </c>
       <c r="H1" s="289" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" s="289" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" s="289" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" s="289" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L1" s="289" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M1" s="289" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N1" s="289" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O1" s="289" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P1" s="289" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q1" s="289" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R1" s="289" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S1" s="289" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T1" s="289" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U1" s="289" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V1" s="289" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="W1" s="289" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="X1" s="289" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y1" s="289" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z1" s="289" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA1" s="289" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AB1" s="289" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AC1" s="289" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AD1" s="289" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE1" s="289" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="285"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="9"/>
+      <c r="AE1" s="285"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="9"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2" s="290" t="s">
         <v>157</v>
       </c>
@@ -11218,29 +11215,29 @@
       <c r="M2" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" s="293" t="s">
+      <c r="N2" s="293" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="284" t="s">
         <v>40</v>
       </c>
       <c r="P2" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="294" t="s">
-        <v>39</v>
+      <c r="Q2" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="S2" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" s="294" t="s">
-        <v>39</v>
+      <c r="T2" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="U2" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="V2" s="284" t="s">
         <v>40</v>
@@ -11269,11 +11266,8 @@
       <c r="AD2" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="AE2" s="284" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="3" spans="1:41" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:40" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="290" t="s">
         <v>158</v>
       </c>
@@ -11318,14 +11312,14 @@
       <c r="P3" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="293" t="s">
-        <v>40</v>
+      <c r="Q3" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="R3" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="14" t="s">
-        <v>39</v>
+      <c r="S3" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="T3" s="293" t="s">
         <v>40</v>
@@ -11348,11 +11342,11 @@
       <c r="Z3" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AA3" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB3" s="14" t="s">
-        <v>39</v>
+      <c r="AA3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB3" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="AC3" s="293" t="s">
         <v>40</v>
@@ -11360,11 +11354,8 @@
       <c r="AD3" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AE3" s="293" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4" s="290" t="s">
         <v>159</v>
       </c>
@@ -11451,11 +11442,8 @@
       <c r="AD4" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AE4" s="293" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="290" t="s">
         <v>160</v>
       </c>
@@ -11473,26 +11461,26 @@
       <c r="G5" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>39</v>
+      <c r="H5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="J5" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="14" t="s">
-        <v>39</v>
+      <c r="K5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L5" s="293" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="O5" s="293" t="s">
         <v>40</v>
@@ -11503,11 +11491,11 @@
       <c r="Q5" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="S5" s="14" t="s">
-        <v>39</v>
+      <c r="R5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="T5" s="293" t="s">
         <v>40</v>
@@ -11515,11 +11503,11 @@
       <c r="U5" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="W5" s="14" t="s">
-        <v>39</v>
+      <c r="V5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="X5" s="293" t="s">
         <v>40</v>
@@ -11527,26 +11515,23 @@
       <c r="Y5" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB5" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC5" s="14" t="s">
-        <v>39</v>
+      <c r="Z5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA5" s="293" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="AD5" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AE5" s="293" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6" s="290" t="s">
         <v>161</v>
       </c>
@@ -11569,17 +11554,17 @@
       <c r="H6" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="294" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="294" t="s">
-        <v>39</v>
+      <c r="I6" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="284" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="M6" s="284" t="s">
         <v>40</v>
@@ -11599,14 +11584,14 @@
       <c r="R6" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="284" t="s">
-        <v>40</v>
+      <c r="S6" s="294" t="s">
+        <v>39</v>
       </c>
       <c r="T6" s="294" t="s">
         <v>39</v>
       </c>
-      <c r="U6" s="294" t="s">
-        <v>39</v>
+      <c r="U6" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="V6" s="284" t="s">
         <v>40</v>
@@ -11620,11 +11605,11 @@
       <c r="Y6" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="Z6" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA6" s="294" t="s">
-        <v>39</v>
+      <c r="Z6" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA6" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="AB6" s="284" t="s">
         <v>40</v>
@@ -11635,11 +11620,8 @@
       <c r="AD6" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="AE6" s="284" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7" s="290" t="s">
         <v>162</v>
       </c>
@@ -11666,11 +11648,11 @@
       <c r="J7" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>39</v>
+      <c r="K7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="M7" s="293" t="s">
         <v>40</v>
@@ -11684,20 +11666,20 @@
       <c r="P7" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>39</v>
+      <c r="Q7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="S7" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="T7" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>39</v>
+      <c r="T7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U7" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="V7" s="293" t="s">
         <v>40</v>
@@ -11711,11 +11693,11 @@
       <c r="Y7" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="Z7" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA7" s="14" t="s">
-        <v>39</v>
+      <c r="Z7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA7" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="AB7" s="293" t="s">
         <v>40</v>
@@ -11726,11 +11708,8 @@
       <c r="AD7" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AE7" s="293" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8" s="290" t="s">
         <v>163</v>
       </c>
@@ -11757,11 +11736,11 @@
       <c r="J8" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="K8" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>39</v>
+      <c r="K8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="M8" s="293" t="s">
         <v>40</v>
@@ -11769,11 +11748,11 @@
       <c r="N8" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="14" t="s">
-        <v>39</v>
+      <c r="O8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="Q8" s="293" t="s">
         <v>40</v>
@@ -11784,29 +11763,29 @@
       <c r="S8" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="T8" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="U8" s="14" t="s">
-        <v>39</v>
+      <c r="T8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="V8" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="W8" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="X8" s="14" t="s">
-        <v>39</v>
+      <c r="W8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="Y8" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="Z8" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA8" s="14" t="s">
-        <v>39</v>
+      <c r="Z8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA8" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="AB8" s="293" t="s">
         <v>40</v>
@@ -11817,11 +11796,8 @@
       <c r="AD8" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AE8" s="293" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9" s="290" t="s">
         <v>164</v>
       </c>
@@ -11850,11 +11826,11 @@
       <c r="J9" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="294" t="s">
-        <v>39</v>
+      <c r="K9" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="M9" s="284" t="s">
         <v>40</v>
@@ -11868,20 +11844,20 @@
       <c r="P9" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="294" t="s">
-        <v>39</v>
+      <c r="Q9" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="S9" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="T9" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" s="294" t="s">
-        <v>39</v>
+      <c r="T9" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="U9" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="V9" s="284" t="s">
         <v>40</v>
@@ -11895,11 +11871,11 @@
       <c r="Y9" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="Z9" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA9" s="294" t="s">
-        <v>39</v>
+      <c r="Z9" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA9" s="297" t="s">
+        <v>40</v>
       </c>
       <c r="AB9" s="297" t="s">
         <v>40</v>
@@ -11910,11 +11886,8 @@
       <c r="AD9" s="297" t="s">
         <v>40</v>
       </c>
-      <c r="AE9" s="297" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10" s="290" t="s">
         <v>165</v>
       </c>
@@ -11934,11 +11907,11 @@
       <c r="G10" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="294" t="s">
-        <v>39</v>
+      <c r="H10" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="J10" s="284" t="s">
         <v>40</v>
@@ -11961,26 +11934,26 @@
       <c r="P10" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="R10" s="294" t="s">
-        <v>39</v>
+      <c r="Q10" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="S10" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="T10" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="U10" s="294" t="s">
-        <v>39</v>
-      </c>
-      <c r="V10" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="W10" s="294" t="s">
-        <v>39</v>
+      <c r="T10" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="U10" s="284" t="s">
+        <v>40</v>
+      </c>
+      <c r="V10" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="X10" s="284" t="s">
         <v>40</v>
@@ -11988,26 +11961,23 @@
       <c r="Y10" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="Z10" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA10" s="294" t="s">
-        <v>39</v>
+      <c r="Z10" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA10" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="AB10" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="AC10" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD10" s="294" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE10" s="284" t="s">
+      <c r="AC10" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD10" s="284" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11" s="290" t="s">
         <v>166</v>
       </c>
@@ -12025,8 +11995,8 @@
       <c r="G11" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="14" t="s">
-        <v>39</v>
+      <c r="H11" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="I11" s="293" t="s">
         <v>40</v>
@@ -12085,20 +12055,17 @@
       <c r="AA11" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AB11" s="293" t="s">
-        <v>40</v>
+      <c r="AB11" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="AC11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AD11" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE11" s="293" t="s">
+      <c r="AD11" s="293" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12" s="290" t="s">
         <v>167</v>
       </c>
@@ -12145,11 +12112,11 @@
       <c r="P12" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="R12" s="294" t="s">
-        <v>39</v>
+      <c r="Q12" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="S12" s="284" t="s">
         <v>40</v>
@@ -12172,11 +12139,11 @@
       <c r="Y12" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="Z12" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA12" s="294" t="s">
-        <v>39</v>
+      <c r="Z12" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA12" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="AB12" s="284" t="s">
         <v>40</v>
@@ -12184,14 +12151,11 @@
       <c r="AC12" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="AD12" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE12" s="294" t="s">
+      <c r="AD12" s="294" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13" s="290" t="s">
         <v>168</v>
       </c>
@@ -12245,11 +12209,11 @@
       <c r="S13" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="T13" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>39</v>
+      <c r="T13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="V13" s="293" t="s">
         <v>40</v>
@@ -12263,11 +12227,11 @@
       <c r="Y13" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="Z13" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA13" s="14" t="s">
-        <v>39</v>
+      <c r="Z13" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA13" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="AB13" s="293" t="s">
         <v>40</v>
@@ -12278,11 +12242,8 @@
       <c r="AD13" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AE13" s="293" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14" s="290" t="s">
         <v>169</v>
       </c>
@@ -12309,11 +12270,11 @@
       <c r="J14" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="14" t="s">
-        <v>39</v>
+      <c r="K14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="M14" s="293" t="s">
         <v>40</v>
@@ -12327,20 +12288,20 @@
       <c r="P14" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="Q14" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="R14" s="14" t="s">
-        <v>39</v>
+      <c r="Q14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="S14" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="T14" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="U14" s="14" t="s">
-        <v>39</v>
+      <c r="T14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U14" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="V14" s="293" t="s">
         <v>40</v>
@@ -12354,11 +12315,11 @@
       <c r="Y14" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="Z14" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA14" s="14" t="s">
-        <v>39</v>
+      <c r="Z14" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA14" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="AB14" s="293" t="s">
         <v>40</v>
@@ -12369,11 +12330,8 @@
       <c r="AD14" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AE14" s="293" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15" s="290" t="s">
         <v>170</v>
       </c>
@@ -12391,29 +12349,29 @@
       <c r="G15" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>39</v>
+      <c r="H15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="J15" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="293" t="s">
-        <v>40</v>
+      <c r="K15" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="L15" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>39</v>
+      <c r="M15" s="293" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O15" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="P15" s="293" t="s">
         <v>40</v>
@@ -12436,20 +12394,20 @@
       <c r="V15" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="W15" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="X15" s="14" t="s">
-        <v>39</v>
+      <c r="W15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="Y15" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="Z15" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA15" s="14" t="s">
-        <v>39</v>
+      <c r="Z15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="AB15" s="293" t="s">
         <v>40</v>
@@ -12460,11 +12418,8 @@
       <c r="AD15" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AE15" s="293" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16" s="290" t="s">
         <v>171</v>
       </c>
@@ -12494,11 +12449,11 @@
       <c r="K16" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="14" t="s">
-        <v>39</v>
+      <c r="L16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="N16" s="293" t="s">
         <v>40</v>
@@ -12509,20 +12464,20 @@
       <c r="P16" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="Q16" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="R16" s="14" t="s">
-        <v>39</v>
+      <c r="Q16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="S16" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="T16" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="U16" s="14" t="s">
-        <v>39</v>
+      <c r="T16" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U16" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="V16" s="293" t="s">
         <v>40</v>
@@ -12551,11 +12506,8 @@
       <c r="AD16" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AE16" s="293" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="290" t="s">
         <v>172</v>
       </c>
@@ -12584,11 +12536,11 @@
       <c r="J17" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="L17" s="294" t="s">
-        <v>39</v>
+      <c r="K17" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="M17" s="284" t="s">
         <v>40</v>
@@ -12602,20 +12554,20 @@
       <c r="P17" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="Q17" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="R17" s="294" t="s">
-        <v>39</v>
+      <c r="Q17" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="R17" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="S17" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="U17" s="294" t="s">
-        <v>39</v>
+      <c r="T17" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="U17" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="V17" s="284" t="s">
         <v>40</v>
@@ -12629,11 +12581,11 @@
       <c r="Y17" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="Z17" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA17" s="294" t="s">
-        <v>39</v>
+      <c r="Z17" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA17" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="AB17" s="284" t="s">
         <v>40</v>
@@ -12644,11 +12596,8 @@
       <c r="AD17" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="AE17" s="284" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="290" t="s">
         <v>173</v>
       </c>
@@ -12693,17 +12642,17 @@
       <c r="P18" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="Q18" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="R18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="S18" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" s="14" t="s">
-        <v>39</v>
+      <c r="Q18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="R18" s="293" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="U18" s="293" t="s">
         <v>40</v>
@@ -12720,11 +12669,11 @@
       <c r="Y18" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="Z18" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA18" s="14" t="s">
-        <v>39</v>
+      <c r="Z18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA18" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="AB18" s="293" t="s">
         <v>40</v>
@@ -12735,11 +12684,8 @@
       <c r="AD18" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AE18" s="293" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="290" t="s">
         <v>174</v>
       </c>
@@ -12760,11 +12706,11 @@
       <c r="H19" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>39</v>
+      <c r="I19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="K19" s="293" t="s">
         <v>40</v>
@@ -12793,11 +12739,11 @@
       <c r="S19" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="T19" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="U19" s="14" t="s">
-        <v>39</v>
+      <c r="T19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U19" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="V19" s="293" t="s">
         <v>40</v>
@@ -12805,11 +12751,11 @@
       <c r="W19" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="X19" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y19" s="14" t="s">
-        <v>39</v>
+      <c r="X19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y19" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="Z19" s="293" t="s">
         <v>40</v>
@@ -12826,11 +12772,8 @@
       <c r="AD19" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AE19" s="293" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="290" t="s">
         <v>175</v>
       </c>
@@ -12848,8 +12791,8 @@
       <c r="G20" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="14" t="s">
-        <v>39</v>
+      <c r="H20" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="I20" s="293" t="s">
         <v>40</v>
@@ -12857,17 +12800,17 @@
       <c r="J20" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="M20" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>39</v>
+      <c r="K20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L20" s="293" t="s">
+        <v>40</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="N20" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="O20" s="293" t="s">
         <v>40</v>
@@ -12884,17 +12827,17 @@
       <c r="S20" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="T20" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="U20" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="V20" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="W20" s="14" t="s">
-        <v>39</v>
+      <c r="T20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20" s="293" t="s">
+        <v>40</v>
+      </c>
+      <c r="V20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="W20" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="X20" s="293" t="s">
         <v>40</v>
@@ -12917,11 +12860,8 @@
       <c r="AD20" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AE20" s="293" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="290" t="s">
         <v>176</v>
       </c>
@@ -12948,11 +12888,11 @@
       <c r="J21" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="K21" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>39</v>
+      <c r="K21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="M21" s="293" t="s">
         <v>40</v>
@@ -12975,11 +12915,11 @@
       <c r="S21" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="T21" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="U21" s="14" t="s">
-        <v>39</v>
+      <c r="T21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="U21" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="V21" s="293" t="s">
         <v>40</v>
@@ -13002,17 +12942,14 @@
       <c r="AB21" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AC21" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD21" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE21" s="293" t="s">
+      <c r="AC21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD21" s="293" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="290" t="s">
         <v>177</v>
       </c>
@@ -13037,17 +12974,17 @@
       <c r="H22" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="294" t="s">
-        <v>39</v>
-      </c>
-      <c r="K22" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="L22" s="294" t="s">
-        <v>39</v>
+      <c r="I22" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="284" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="L22" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="M22" s="284" t="s">
         <v>40</v>
@@ -13061,20 +12998,20 @@
       <c r="P22" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="Q22" s="284" t="s">
-        <v>40</v>
+      <c r="Q22" s="294" t="s">
+        <v>39</v>
       </c>
       <c r="R22" s="294" t="s">
         <v>39</v>
       </c>
-      <c r="S22" s="294" t="s">
-        <v>39</v>
-      </c>
-      <c r="T22" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="U22" s="294" t="s">
-        <v>39</v>
+      <c r="S22" s="284" t="s">
+        <v>40</v>
+      </c>
+      <c r="T22" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="U22" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="V22" s="284" t="s">
         <v>40</v>
@@ -13082,20 +13019,20 @@
       <c r="W22" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="X22" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y22" s="294" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z22" s="284" t="s">
-        <v>40</v>
+      <c r="X22" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y22" s="284" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z22" s="294" t="s">
+        <v>39</v>
       </c>
       <c r="AA22" s="294" t="s">
         <v>39</v>
       </c>
-      <c r="AB22" s="294" t="s">
-        <v>39</v>
+      <c r="AB22" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="AC22" s="284" t="s">
         <v>40</v>
@@ -13103,11 +13040,8 @@
       <c r="AD22" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="AE22" s="284" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="290" t="s">
         <v>178</v>
       </c>
@@ -13136,11 +13070,11 @@
       <c r="J23" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="K23" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="L23" s="294" t="s">
-        <v>39</v>
+      <c r="K23" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="L23" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="M23" s="284" t="s">
         <v>40</v>
@@ -13154,11 +13088,11 @@
       <c r="P23" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="Q23" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="R23" s="294" t="s">
-        <v>39</v>
+      <c r="Q23" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="R23" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="S23" s="284" t="s">
         <v>40</v>
@@ -13181,26 +13115,23 @@
       <c r="Y23" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="Z23" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA23" s="294" t="s">
-        <v>39</v>
+      <c r="Z23" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA23" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="AB23" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="AC23" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD23" s="298" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE23" s="284" t="s">
+      <c r="AC23" s="298" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD23" s="284" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="290" t="s">
         <v>179</v>
       </c>
@@ -13227,14 +13158,14 @@
       <c r="J24" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="293" t="s">
-        <v>40</v>
+      <c r="K24" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="L24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="14" t="s">
-        <v>39</v>
+      <c r="M24" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="N24" s="293" t="s">
         <v>40</v>
@@ -13251,23 +13182,23 @@
       <c r="R24" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="S24" s="293" t="s">
-        <v>40</v>
+      <c r="S24" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="T24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="U24" s="14" t="s">
-        <v>39</v>
+      <c r="U24" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="V24" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="W24" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="X24" s="14" t="s">
-        <v>39</v>
+      <c r="W24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="X24" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="Y24" s="293" t="s">
         <v>40</v>
@@ -13287,11 +13218,8 @@
       <c r="AD24" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AE24" s="293" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="300" t="s">
         <v>180</v>
       </c>
@@ -13320,38 +13248,38 @@
       <c r="J25" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="K25" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="L25" s="294" t="s">
-        <v>39</v>
+      <c r="K25" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="M25" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="N25" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="O25" s="294" t="s">
-        <v>39</v>
+      <c r="N25" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="O25" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="P25" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="Q25" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="R25" s="294" t="s">
-        <v>39</v>
+      <c r="Q25" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="R25" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="S25" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="T25" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="U25" s="294" t="s">
-        <v>39</v>
+      <c r="T25" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="U25" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="V25" s="284" t="s">
         <v>40</v>
@@ -13359,17 +13287,17 @@
       <c r="W25" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="X25" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y25" s="294" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z25" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA25" s="294" t="s">
-        <v>39</v>
+      <c r="X25" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y25" s="284" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z25" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA25" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="AB25" s="284" t="s">
         <v>40</v>
@@ -13377,14 +13305,11 @@
       <c r="AC25" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="AD25" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE25" s="294" t="s">
+      <c r="AD25" s="294" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="300" t="s">
         <v>181</v>
       </c>
@@ -13407,11 +13332,11 @@
       <c r="H26" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="J26" s="294" t="s">
-        <v>39</v>
+      <c r="I26" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="K26" s="284" t="s">
         <v>40</v>
@@ -13425,11 +13350,11 @@
       <c r="N26" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="O26" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="P26" s="294" t="s">
-        <v>39</v>
+      <c r="O26" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="P26" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="Q26" s="284" t="s">
         <v>40</v>
@@ -13437,11 +13362,11 @@
       <c r="R26" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="S26" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="T26" s="294" t="s">
-        <v>39</v>
+      <c r="S26" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="T26" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="U26" s="284" t="s">
         <v>40</v>
@@ -13452,11 +13377,11 @@
       <c r="W26" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="X26" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y26" s="294" t="s">
-        <v>39</v>
+      <c r="X26" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y26" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="Z26" s="284" t="s">
         <v>40</v>
@@ -13467,17 +13392,14 @@
       <c r="AB26" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="AC26" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD26" s="298" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE26" s="284" t="s">
+      <c r="AC26" s="298" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD26" s="284" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="300" t="s">
         <v>182</v>
       </c>
@@ -13528,14 +13450,14 @@
       <c r="R27" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="S27" s="293" t="s">
-        <v>40</v>
+      <c r="S27" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="T27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="U27" s="14" t="s">
-        <v>39</v>
+      <c r="U27" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="V27" s="293" t="s">
         <v>40</v>
@@ -13549,11 +13471,11 @@
       <c r="Y27" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="Z27" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA27" s="14" t="s">
-        <v>39</v>
+      <c r="Z27" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA27" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="AB27" s="293" t="s">
         <v>40</v>
@@ -13564,11 +13486,8 @@
       <c r="AD27" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AE27" s="293" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="300" t="s">
         <v>183</v>
       </c>
@@ -13597,11 +13516,11 @@
       <c r="J28" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="K28" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="L28" s="294" t="s">
-        <v>39</v>
+      <c r="K28" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="L28" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="M28" s="284" t="s">
         <v>40</v>
@@ -13615,20 +13534,20 @@
       <c r="P28" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="Q28" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="R28" s="294" t="s">
-        <v>39</v>
+      <c r="Q28" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="R28" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="S28" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="T28" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="U28" s="294" t="s">
-        <v>39</v>
+      <c r="T28" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="U28" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="V28" s="284" t="s">
         <v>40</v>
@@ -13657,11 +13576,8 @@
       <c r="AD28" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="AE28" s="284" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="300" t="s">
         <v>184</v>
       </c>
@@ -13687,14 +13603,14 @@
       <c r="I29" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="J29" s="284" t="s">
-        <v>40</v>
+      <c r="J29" s="294" t="s">
+        <v>39</v>
       </c>
       <c r="K29" s="294" t="s">
         <v>39</v>
       </c>
-      <c r="L29" s="294" t="s">
-        <v>39</v>
+      <c r="L29" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="M29" s="284" t="s">
         <v>40</v>
@@ -13735,11 +13651,11 @@
       <c r="Y29" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="Z29" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA29" s="294" t="s">
-        <v>39</v>
+      <c r="Z29" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA29" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="AB29" s="284" t="s">
         <v>40</v>
@@ -13747,14 +13663,11 @@
       <c r="AC29" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="AD29" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE29" s="294" t="s">
+      <c r="AD29" s="294" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="300" t="s">
         <v>185</v>
       </c>
@@ -13772,20 +13685,20 @@
       <c r="G30" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="I30" s="294" t="s">
-        <v>39</v>
+      <c r="H30" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="I30" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="J30" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="K30" s="284" t="s">
-        <v>40</v>
-      </c>
-      <c r="L30" s="294" t="s">
-        <v>39</v>
+      <c r="K30" s="294" t="s">
+        <v>39</v>
+      </c>
+      <c r="L30" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="M30" s="284" t="s">
         <v>40</v>
@@ -13805,14 +13718,14 @@
       <c r="R30" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="S30" s="284" t="s">
-        <v>40</v>
+      <c r="S30" s="294" t="s">
+        <v>39</v>
       </c>
       <c r="T30" s="294" t="s">
         <v>39</v>
       </c>
-      <c r="U30" s="294" t="s">
-        <v>39</v>
+      <c r="U30" s="284" t="s">
+        <v>40</v>
       </c>
       <c r="V30" s="284" t="s">
         <v>40</v>
@@ -13841,11 +13754,8 @@
       <c r="AD30" s="284" t="s">
         <v>40</v>
       </c>
-      <c r="AE30" s="284" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="290" t="s">
         <v>186</v>
       </c>
@@ -13917,11 +13827,11 @@
       <c r="Y31" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="Z31" s="293" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA31" s="14" t="s">
-        <v>39</v>
+      <c r="Z31" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA31" s="293" t="s">
+        <v>40</v>
       </c>
       <c r="AB31" s="293" t="s">
         <v>40</v>
@@ -13932,11 +13842,8 @@
       <c r="AD31" s="293" t="s">
         <v>40</v>
       </c>
-      <c r="AE31" s="293" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
       <c r="H32" s="2"/>
@@ -13962,32 +13869,31 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
     </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="M33" s="174"/>
       <c r="N33" s="174"/>
       <c r="O33" s="174"/>
-      <c r="P33" s="174"/>
-      <c r="Q33" s="282"/>
-      <c r="U33" s="174"/>
-      <c r="AB33" s="174"/>
-      <c r="AD33" s="174"/>
+      <c r="P33" s="282"/>
+      <c r="T33" s="174"/>
+      <c r="AA33" s="174"/>
+      <c r="AC33" s="174"/>
     </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="W34" s="174"/>
-      <c r="AC34" s="282"/>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="V34" s="174"/>
+      <c r="AB34" s="282"/>
     </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="N36" s="174"/>
-      <c r="O36" s="282"/>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="M36" s="174"/>
+      <c r="N36" s="282"/>
     </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="N37" s="174"/>
-      <c r="O37" s="282"/>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="M37" s="174"/>
+      <c r="N37" s="282"/>
     </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="O38" s="174"/>
+      <c r="N38" s="174"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -13997,6 +13903,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D879E14ABC0C0949BB8A7AD4556264B4" ma:contentTypeVersion="12" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="29e167d0c93a63a8286ab5675afb04b6">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="76424c09-1f09-411f-a39d-769041d462c4" xmlns:ns3="7a404e10-278a-4ba0-976a-2af2db24d8c8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="24b04f44be219caa97f08e98b44d806e" ns2:_="" ns3:_="">
     <xsd:import namespace="76424c09-1f09-411f-a39d-769041d462c4"/>
@@ -14197,15 +14112,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -14218,6 +14124,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A61665-5548-4139-8F1E-CD0E56231733}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF0E5D3A-3FAD-4C6C-84B3-8670B0922E98}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14236,14 +14150,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A61665-5548-4139-8F1E-CD0E56231733}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D997ED0D-A65E-4D53-86D9-B54CD319FBB7}">
   <ds:schemaRefs>

--- a/Offres_2022.xlsx
+++ b/Offres_2022.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume12321/Documents/GitHub/carpooling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D2A71EC-EF9D-8E4D-B445-D78C40FC4551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE34398-CE15-B848-BA51-462880A721CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14360" windowHeight="18000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14360" windowHeight="16400" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Offres" sheetId="1" r:id="rId1"/>
-    <sheet name="Matching" sheetId="2" r:id="rId2"/>
+    <sheet name="Réponses au formulaire 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Offres!$A$1:$BU$1</definedName>
@@ -3775,6 +3775,177 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="150" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="132" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="146" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="148" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="141" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="142" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="102" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3800,177 +3971,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="146" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="148" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="135" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="137" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="154" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="144" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="141" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="142" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="150" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="152" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="132" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="58" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="64" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="69" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="70" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="100" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="101" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="99" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="71" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="98" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="72" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4671,57 +4671,57 @@
       <c r="D3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="307">
+      <c r="E3" s="364">
         <v>9</v>
       </c>
-      <c r="F3" s="307">
+      <c r="F3" s="364">
         <v>3</v>
       </c>
-      <c r="G3" s="307">
+      <c r="G3" s="364">
         <v>0</v>
       </c>
-      <c r="H3" s="307">
+      <c r="H3" s="364">
         <v>1</v>
       </c>
       <c r="I3" s="205"/>
       <c r="J3" s="239" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="334" t="s">
+      <c r="K3" s="341" t="s">
         <v>40</v>
       </c>
       <c r="L3" s="224"/>
-      <c r="M3" s="314" t="s">
+      <c r="M3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="N3" s="31"/>
-      <c r="O3" s="314" t="s">
+      <c r="O3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="P3" s="31"/>
-      <c r="Q3" s="314" t="s">
+      <c r="Q3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="R3" s="31"/>
-      <c r="S3" s="314" t="s">
+      <c r="S3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="T3" s="31"/>
-      <c r="U3" s="314" t="s">
+      <c r="U3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="V3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="314" t="s">
+      <c r="W3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="X3" s="31"/>
-      <c r="Y3" s="314" t="s">
+      <c r="Y3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="Z3" s="31"/>
-      <c r="AA3" s="314" t="s">
+      <c r="AA3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AB3" s="31"/>
@@ -4729,71 +4729,71 @@
         <v>40</v>
       </c>
       <c r="AD3" s="31"/>
-      <c r="AE3" s="314" t="s">
+      <c r="AE3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AF3" s="31"/>
-      <c r="AG3" s="314" t="s">
+      <c r="AG3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AH3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="303" t="s">
+      <c r="AI3" s="360" t="s">
         <v>39</v>
       </c>
       <c r="AJ3" s="31"/>
-      <c r="AK3" s="314" t="s">
+      <c r="AK3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AL3" s="31"/>
-      <c r="AM3" s="314" t="s">
+      <c r="AM3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AN3" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AO3" s="340" t="s">
+      <c r="AO3" s="343" t="s">
         <v>39</v>
       </c>
       <c r="AP3" s="31"/>
-      <c r="AQ3" s="314" t="s">
+      <c r="AQ3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AR3" s="31"/>
-      <c r="AS3" s="314" t="s">
+      <c r="AS3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AT3" s="31"/>
-      <c r="AU3" s="314" t="s">
+      <c r="AU3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AV3" s="66"/>
-      <c r="AW3" s="314" t="s">
+      <c r="AW3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AX3" s="31"/>
-      <c r="AY3" s="314" t="s">
+      <c r="AY3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="AZ3" s="31"/>
-      <c r="BA3" s="314" t="s">
+      <c r="BA3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="BB3" s="31"/>
-      <c r="BC3" s="314" t="s">
+      <c r="BC3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="BD3" s="31"/>
-      <c r="BE3" s="314" t="s">
+      <c r="BE3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="BF3" s="31"/>
-      <c r="BG3" s="314" t="s">
+      <c r="BG3" s="339" t="s">
         <v>40</v>
       </c>
       <c r="BH3" s="31"/>
-      <c r="BI3" s="334" t="s">
+      <c r="BI3" s="341" t="s">
         <v>40</v>
       </c>
       <c r="BJ3" s="1"/>
@@ -4808,73 +4808,73 @@
       <c r="D4" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="308"/>
-      <c r="F4" s="308"/>
-      <c r="G4" s="308"/>
-      <c r="H4" s="308"/>
+      <c r="E4" s="365"/>
+      <c r="F4" s="365"/>
+      <c r="G4" s="365"/>
+      <c r="H4" s="365"/>
       <c r="I4" s="206"/>
       <c r="J4" s="240" t="s">
         <v>39</v>
       </c>
-      <c r="K4" s="335"/>
+      <c r="K4" s="342"/>
       <c r="L4" s="225"/>
-      <c r="M4" s="315"/>
+      <c r="M4" s="340"/>
       <c r="N4" s="38"/>
-      <c r="O4" s="315"/>
+      <c r="O4" s="340"/>
       <c r="P4" s="38"/>
-      <c r="Q4" s="315"/>
+      <c r="Q4" s="340"/>
       <c r="R4" s="38"/>
-      <c r="S4" s="315"/>
+      <c r="S4" s="340"/>
       <c r="T4" s="38"/>
-      <c r="U4" s="315"/>
+      <c r="U4" s="340"/>
       <c r="V4" s="38"/>
-      <c r="W4" s="315"/>
+      <c r="W4" s="340"/>
       <c r="X4" s="38"/>
-      <c r="Y4" s="315"/>
+      <c r="Y4" s="340"/>
       <c r="Z4" s="38"/>
-      <c r="AA4" s="315"/>
+      <c r="AA4" s="340"/>
       <c r="AB4" s="38"/>
       <c r="AC4" s="39"/>
       <c r="AD4" s="38"/>
-      <c r="AE4" s="315"/>
+      <c r="AE4" s="340"/>
       <c r="AF4" s="38"/>
-      <c r="AG4" s="315"/>
+      <c r="AG4" s="340"/>
       <c r="AH4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AI4" s="304"/>
+      <c r="AI4" s="361"/>
       <c r="AJ4" s="38"/>
-      <c r="AK4" s="315"/>
+      <c r="AK4" s="340"/>
       <c r="AL4" s="38"/>
-      <c r="AM4" s="315"/>
+      <c r="AM4" s="340"/>
       <c r="AN4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AO4" s="341"/>
+      <c r="AO4" s="344"/>
       <c r="AP4" s="38"/>
-      <c r="AQ4" s="315"/>
+      <c r="AQ4" s="340"/>
       <c r="AR4" s="38"/>
-      <c r="AS4" s="315"/>
+      <c r="AS4" s="340"/>
       <c r="AT4" s="38"/>
-      <c r="AU4" s="315"/>
+      <c r="AU4" s="340"/>
       <c r="AV4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="AW4" s="315"/>
+      <c r="AW4" s="340"/>
       <c r="AX4" s="38"/>
-      <c r="AY4" s="315"/>
+      <c r="AY4" s="340"/>
       <c r="AZ4" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="BA4" s="315"/>
+      <c r="BA4" s="340"/>
       <c r="BB4" s="38"/>
-      <c r="BC4" s="315"/>
+      <c r="BC4" s="340"/>
       <c r="BD4" s="38"/>
-      <c r="BE4" s="315"/>
+      <c r="BE4" s="340"/>
       <c r="BF4" s="38"/>
-      <c r="BG4" s="315"/>
+      <c r="BG4" s="340"/>
       <c r="BH4" s="38"/>
-      <c r="BI4" s="335"/>
+      <c r="BI4" s="342"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
     </row>
@@ -5403,23 +5403,23 @@
       <c r="D9" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="309">
+      <c r="E9" s="366">
         <v>19</v>
       </c>
-      <c r="F9" s="309">
+      <c r="F9" s="366">
         <v>5</v>
       </c>
-      <c r="G9" s="309">
+      <c r="G9" s="366">
         <v>2</v>
       </c>
-      <c r="H9" s="309">
+      <c r="H9" s="366">
         <v>9</v>
       </c>
       <c r="I9" s="209"/>
       <c r="J9" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K9" s="320" t="s">
+      <c r="K9" s="350" t="s">
         <v>40</v>
       </c>
       <c r="L9" s="227"/>
@@ -5437,7 +5437,7 @@
       <c r="R9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="S9" s="344" t="s">
+      <c r="S9" s="325" t="s">
         <v>39</v>
       </c>
       <c r="T9" s="66"/>
@@ -5447,7 +5447,7 @@
       <c r="V9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="W9" s="344" t="s">
+      <c r="W9" s="325" t="s">
         <v>39</v>
       </c>
       <c r="X9" s="66"/>
@@ -5485,13 +5485,13 @@
       <c r="AL9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AM9" s="344" t="s">
+      <c r="AM9" s="325" t="s">
         <v>39</v>
       </c>
       <c r="AN9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AO9" s="344" t="s">
+      <c r="AO9" s="325" t="s">
         <v>39</v>
       </c>
       <c r="AP9" s="66"/>
@@ -5519,7 +5519,7 @@
       <c r="AZ9" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BA9" s="344" t="s">
+      <c r="BA9" s="325" t="s">
         <v>39</v>
       </c>
       <c r="BB9" s="66"/>
@@ -5537,7 +5537,7 @@
         <v>40</v>
       </c>
       <c r="BH9" s="66"/>
-      <c r="BI9" s="342" t="s">
+      <c r="BI9" s="338" t="s">
         <v>40</v>
       </c>
       <c r="BJ9" s="1"/>
@@ -5552,81 +5552,81 @@
       <c r="D10" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="306"/>
-      <c r="F10" s="306"/>
-      <c r="G10" s="306"/>
-      <c r="H10" s="306"/>
+      <c r="E10" s="363"/>
+      <c r="F10" s="363"/>
+      <c r="G10" s="363"/>
+      <c r="H10" s="363"/>
       <c r="I10" s="210"/>
       <c r="J10" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K10" s="321"/>
+      <c r="K10" s="352"/>
       <c r="L10" s="141"/>
-      <c r="M10" s="313"/>
+      <c r="M10" s="304"/>
       <c r="N10" s="72"/>
-      <c r="O10" s="313"/>
+      <c r="O10" s="304"/>
       <c r="P10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="313"/>
+      <c r="Q10" s="304"/>
       <c r="R10" s="72"/>
-      <c r="S10" s="323"/>
+      <c r="S10" s="337"/>
       <c r="T10" s="72"/>
-      <c r="U10" s="313"/>
+      <c r="U10" s="304"/>
       <c r="V10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="W10" s="323"/>
+      <c r="W10" s="337"/>
       <c r="X10" s="72"/>
-      <c r="Y10" s="313"/>
+      <c r="Y10" s="304"/>
       <c r="Z10" s="72"/>
-      <c r="AA10" s="313"/>
+      <c r="AA10" s="304"/>
       <c r="AB10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AC10" s="313"/>
+      <c r="AC10" s="304"/>
       <c r="AD10" s="72"/>
-      <c r="AE10" s="313"/>
+      <c r="AE10" s="304"/>
       <c r="AF10" s="72"/>
-      <c r="AG10" s="313"/>
+      <c r="AG10" s="304"/>
       <c r="AH10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI10" s="313"/>
+      <c r="AI10" s="304"/>
       <c r="AJ10" s="72"/>
-      <c r="AK10" s="313"/>
+      <c r="AK10" s="304"/>
       <c r="AL10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AM10" s="323"/>
+      <c r="AM10" s="337"/>
       <c r="AN10" s="72"/>
-      <c r="AO10" s="323"/>
+      <c r="AO10" s="337"/>
       <c r="AP10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AQ10" s="313"/>
+      <c r="AQ10" s="304"/>
       <c r="AR10" s="72"/>
-      <c r="AS10" s="313"/>
+      <c r="AS10" s="304"/>
       <c r="AT10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AU10" s="313"/>
+      <c r="AU10" s="304"/>
       <c r="AV10" s="72"/>
-      <c r="AW10" s="313"/>
+      <c r="AW10" s="304"/>
       <c r="AX10" s="72"/>
-      <c r="AY10" s="313"/>
+      <c r="AY10" s="304"/>
       <c r="AZ10" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BA10" s="323"/>
+      <c r="BA10" s="337"/>
       <c r="BB10" s="72"/>
-      <c r="BC10" s="313"/>
+      <c r="BC10" s="304"/>
       <c r="BD10" s="72"/>
-      <c r="BE10" s="313"/>
+      <c r="BE10" s="304"/>
       <c r="BF10" s="72"/>
-      <c r="BG10" s="313"/>
+      <c r="BG10" s="304"/>
       <c r="BH10" s="72"/>
-      <c r="BI10" s="343"/>
+      <c r="BI10" s="335"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
     </row>
@@ -5927,7 +5927,7 @@
       <c r="D13" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="305">
+      <c r="E13" s="362">
         <v>11</v>
       </c>
       <c r="F13" s="271"/>
@@ -5937,7 +5937,7 @@
       <c r="J13" s="251" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="338" t="s">
+      <c r="K13" s="354" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="228"/>
@@ -5963,7 +5963,7 @@
       <c r="V13" s="175" t="s">
         <v>39</v>
       </c>
-      <c r="W13" s="318" t="s">
+      <c r="W13" s="358" t="s">
         <v>39</v>
       </c>
       <c r="X13" s="176"/>
@@ -5989,7 +5989,7 @@
       <c r="AH13" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="AI13" s="318" t="s">
+      <c r="AI13" s="358" t="s">
         <v>39</v>
       </c>
       <c r="AJ13" s="176"/>
@@ -6003,7 +6003,7 @@
       <c r="AN13" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="AO13" s="318" t="s">
+      <c r="AO13" s="358" t="s">
         <v>39</v>
       </c>
       <c r="AP13" s="176"/>
@@ -6029,23 +6029,23 @@
       <c r="AZ13" s="177" t="s">
         <v>39</v>
       </c>
-      <c r="BA13" s="322" t="s">
+      <c r="BA13" s="336" t="s">
         <v>39</v>
       </c>
       <c r="BB13" s="176"/>
-      <c r="BC13" s="316" t="s">
+      <c r="BC13" s="356" t="s">
         <v>40</v>
       </c>
       <c r="BD13" s="176"/>
-      <c r="BE13" s="316" t="s">
+      <c r="BE13" s="356" t="s">
         <v>40</v>
       </c>
       <c r="BF13" s="176"/>
-      <c r="BG13" s="316" t="s">
+      <c r="BG13" s="356" t="s">
         <v>40</v>
       </c>
       <c r="BH13" s="176"/>
-      <c r="BI13" s="316" t="s">
+      <c r="BI13" s="356" t="s">
         <v>40</v>
       </c>
       <c r="BJ13" s="1"/>
@@ -6060,7 +6060,7 @@
       <c r="D14" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="306"/>
+      <c r="E14" s="363"/>
       <c r="F14" s="272"/>
       <c r="G14" s="272"/>
       <c r="H14" s="272"/>
@@ -6068,71 +6068,71 @@
       <c r="J14" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="339"/>
+      <c r="K14" s="355"/>
       <c r="L14" s="229"/>
-      <c r="M14" s="313"/>
+      <c r="M14" s="304"/>
       <c r="N14" s="178"/>
-      <c r="O14" s="313"/>
+      <c r="O14" s="304"/>
       <c r="P14" s="178"/>
-      <c r="Q14" s="313"/>
+      <c r="Q14" s="304"/>
       <c r="R14" s="178"/>
-      <c r="S14" s="313"/>
+      <c r="S14" s="304"/>
       <c r="T14" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="313"/>
+      <c r="U14" s="304"/>
       <c r="V14" s="179"/>
-      <c r="W14" s="319"/>
+      <c r="W14" s="359"/>
       <c r="X14" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="Y14" s="313"/>
+      <c r="Y14" s="304"/>
       <c r="Z14" s="178"/>
-      <c r="AA14" s="313"/>
+      <c r="AA14" s="304"/>
       <c r="AB14" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="AC14" s="313"/>
+      <c r="AC14" s="304"/>
       <c r="AD14" s="178"/>
-      <c r="AE14" s="313"/>
+      <c r="AE14" s="304"/>
       <c r="AF14" s="178"/>
-      <c r="AG14" s="313"/>
+      <c r="AG14" s="304"/>
       <c r="AH14" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="AI14" s="319"/>
+      <c r="AI14" s="359"/>
       <c r="AJ14" s="178"/>
-      <c r="AK14" s="313"/>
+      <c r="AK14" s="304"/>
       <c r="AL14" s="178"/>
-      <c r="AM14" s="313"/>
+      <c r="AM14" s="304"/>
       <c r="AN14" s="191" t="s">
         <v>62</v>
       </c>
-      <c r="AO14" s="319"/>
+      <c r="AO14" s="359"/>
       <c r="AP14" s="191" t="s">
         <v>63</v>
       </c>
-      <c r="AQ14" s="313"/>
+      <c r="AQ14" s="304"/>
       <c r="AR14" s="178"/>
-      <c r="AS14" s="313"/>
+      <c r="AS14" s="304"/>
       <c r="AT14" s="178"/>
-      <c r="AU14" s="313"/>
+      <c r="AU14" s="304"/>
       <c r="AV14" s="178"/>
-      <c r="AW14" s="313"/>
+      <c r="AW14" s="304"/>
       <c r="AX14" s="178"/>
-      <c r="AY14" s="313"/>
+      <c r="AY14" s="304"/>
       <c r="AZ14" s="148" t="s">
         <v>39</v>
       </c>
-      <c r="BA14" s="323"/>
+      <c r="BA14" s="337"/>
       <c r="BB14" s="178"/>
-      <c r="BC14" s="317"/>
+      <c r="BC14" s="357"/>
       <c r="BD14" s="178"/>
-      <c r="BE14" s="317"/>
+      <c r="BE14" s="357"/>
       <c r="BF14" s="178"/>
-      <c r="BG14" s="317"/>
+      <c r="BG14" s="357"/>
       <c r="BH14" s="178"/>
-      <c r="BI14" s="317"/>
+      <c r="BI14" s="357"/>
       <c r="BJ14" s="1"/>
       <c r="BK14" s="1"/>
     </row>
@@ -6149,7 +6149,7 @@
       <c r="D15" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="E15" s="305">
+      <c r="E15" s="362">
         <v>20</v>
       </c>
       <c r="F15" s="201"/>
@@ -6159,125 +6159,125 @@
       <c r="J15" s="252" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="337" t="s">
+      <c r="K15" s="353" t="s">
         <v>39</v>
       </c>
       <c r="L15" s="140"/>
-      <c r="M15" s="336" t="s">
+      <c r="M15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="N15" s="89"/>
-      <c r="O15" s="336" t="s">
+      <c r="O15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="P15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="322" t="s">
+      <c r="Q15" s="336" t="s">
         <v>39</v>
       </c>
       <c r="R15" s="89"/>
-      <c r="S15" s="336" t="s">
+      <c r="S15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="T15" s="89"/>
-      <c r="U15" s="336" t="s">
+      <c r="U15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="V15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="W15" s="336" t="s">
+      <c r="W15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="X15" s="89"/>
-      <c r="Y15" s="336" t="s">
+      <c r="Y15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="Z15" s="89"/>
-      <c r="AA15" s="336" t="s">
+      <c r="AA15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AB15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AC15" s="336" t="s">
+      <c r="AC15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AD15" s="89"/>
-      <c r="AE15" s="336" t="s">
+      <c r="AE15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AF15" s="89"/>
-      <c r="AG15" s="336" t="s">
+      <c r="AG15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AH15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AI15" s="322" t="s">
+      <c r="AI15" s="336" t="s">
         <v>39</v>
       </c>
       <c r="AJ15" s="89"/>
-      <c r="AK15" s="336" t="s">
+      <c r="AK15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AL15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AM15" s="336" t="s">
+      <c r="AM15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AN15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AO15" s="322" t="s">
+      <c r="AO15" s="336" t="s">
         <v>39</v>
       </c>
       <c r="AP15" s="89"/>
-      <c r="AQ15" s="336" t="s">
+      <c r="AQ15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AR15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AS15" s="322" t="s">
+      <c r="AS15" s="336" t="s">
         <v>39</v>
       </c>
       <c r="AT15" s="90"/>
-      <c r="AU15" s="336" t="s">
+      <c r="AU15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AV15" s="89"/>
-      <c r="AW15" s="336" t="s">
+      <c r="AW15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AX15" s="89"/>
-      <c r="AY15" s="336" t="s">
+      <c r="AY15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="AZ15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="BA15" s="322" t="s">
+      <c r="BA15" s="336" t="s">
         <v>39</v>
       </c>
       <c r="BB15" s="89"/>
-      <c r="BC15" s="336" t="s">
+      <c r="BC15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="BD15" s="89"/>
-      <c r="BE15" s="336" t="s">
+      <c r="BE15" s="333" t="s">
         <v>40</v>
       </c>
       <c r="BF15" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="BG15" s="322" t="s">
+      <c r="BG15" s="336" t="s">
         <v>39</v>
       </c>
       <c r="BH15" s="89"/>
-      <c r="BI15" s="345" t="s">
+      <c r="BI15" s="334" t="s">
         <v>40</v>
       </c>
       <c r="BJ15" s="1"/>
@@ -6292,7 +6292,7 @@
       <c r="D16" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="306"/>
+      <c r="E16" s="363"/>
       <c r="F16" s="270"/>
       <c r="G16" s="270"/>
       <c r="H16" s="270"/>
@@ -6300,75 +6300,75 @@
       <c r="J16" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K16" s="330"/>
+      <c r="K16" s="349"/>
       <c r="L16" s="141"/>
-      <c r="M16" s="313"/>
+      <c r="M16" s="304"/>
       <c r="N16" s="72"/>
-      <c r="O16" s="313"/>
+      <c r="O16" s="304"/>
       <c r="P16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="323"/>
+      <c r="Q16" s="337"/>
       <c r="R16" s="72"/>
-      <c r="S16" s="313"/>
+      <c r="S16" s="304"/>
       <c r="T16" s="72"/>
-      <c r="U16" s="313"/>
+      <c r="U16" s="304"/>
       <c r="V16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="W16" s="313"/>
+      <c r="W16" s="304"/>
       <c r="X16" s="72"/>
-      <c r="Y16" s="313"/>
+      <c r="Y16" s="304"/>
       <c r="Z16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AA16" s="313"/>
+      <c r="AA16" s="304"/>
       <c r="AB16" s="72"/>
-      <c r="AC16" s="313"/>
+      <c r="AC16" s="304"/>
       <c r="AD16" s="72"/>
-      <c r="AE16" s="313"/>
+      <c r="AE16" s="304"/>
       <c r="AF16" s="72"/>
-      <c r="AG16" s="313"/>
+      <c r="AG16" s="304"/>
       <c r="AH16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI16" s="323"/>
+      <c r="AI16" s="337"/>
       <c r="AJ16" s="72"/>
-      <c r="AK16" s="313"/>
+      <c r="AK16" s="304"/>
       <c r="AL16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AM16" s="313"/>
+      <c r="AM16" s="304"/>
       <c r="AN16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AO16" s="323"/>
+      <c r="AO16" s="337"/>
       <c r="AP16" s="72"/>
-      <c r="AQ16" s="313"/>
+      <c r="AQ16" s="304"/>
       <c r="AR16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AS16" s="323"/>
+      <c r="AS16" s="337"/>
       <c r="AT16" s="92"/>
-      <c r="AU16" s="313"/>
+      <c r="AU16" s="304"/>
       <c r="AV16" s="72"/>
-      <c r="AW16" s="313"/>
+      <c r="AW16" s="304"/>
       <c r="AX16" s="72"/>
-      <c r="AY16" s="313"/>
+      <c r="AY16" s="304"/>
       <c r="AZ16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BA16" s="323"/>
+      <c r="BA16" s="337"/>
       <c r="BB16" s="72"/>
-      <c r="BC16" s="313"/>
+      <c r="BC16" s="304"/>
       <c r="BD16" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BE16" s="313"/>
+      <c r="BE16" s="304"/>
       <c r="BF16" s="72"/>
-      <c r="BG16" s="323"/>
+      <c r="BG16" s="337"/>
       <c r="BH16" s="72"/>
-      <c r="BI16" s="343"/>
+      <c r="BI16" s="335"/>
       <c r="BJ16" s="1"/>
       <c r="BK16" s="1"/>
     </row>
@@ -6530,7 +6530,7 @@
       <c r="D18" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="305">
+      <c r="E18" s="362">
         <v>12</v>
       </c>
       <c r="F18" s="273"/>
@@ -6540,117 +6540,117 @@
       <c r="J18" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="326" t="s">
+      <c r="K18" s="345" t="s">
         <v>39</v>
       </c>
       <c r="L18" s="152"/>
-      <c r="M18" s="324" t="s">
+      <c r="M18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="N18" s="25"/>
-      <c r="O18" s="324" t="s">
+      <c r="O18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="P18" s="25"/>
-      <c r="Q18" s="324" t="s">
+      <c r="Q18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="R18" s="25"/>
-      <c r="S18" s="324" t="s">
+      <c r="S18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="T18" s="25"/>
-      <c r="U18" s="324" t="s">
+      <c r="U18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="V18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="W18" s="324" t="s">
+      <c r="W18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="X18" s="25"/>
-      <c r="Y18" s="324" t="s">
+      <c r="Y18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="Z18" s="25"/>
-      <c r="AA18" s="324" t="s">
+      <c r="AA18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AB18" s="25"/>
-      <c r="AC18" s="324" t="s">
+      <c r="AC18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AD18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AE18" s="324" t="s">
+      <c r="AE18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AF18" s="25"/>
-      <c r="AG18" s="324" t="s">
+      <c r="AG18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AH18" s="52"/>
-      <c r="AI18" s="346" t="s">
+      <c r="AI18" s="307" t="s">
         <v>39</v>
       </c>
       <c r="AJ18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AK18" s="324" t="s">
+      <c r="AK18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AL18" s="25"/>
-      <c r="AM18" s="324" t="s">
+      <c r="AM18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AN18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AO18" s="324" t="s">
+      <c r="AO18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AP18" s="25"/>
-      <c r="AQ18" s="324" t="s">
+      <c r="AQ18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AR18" s="25"/>
-      <c r="AS18" s="324" t="s">
+      <c r="AS18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AT18" s="25"/>
-      <c r="AU18" s="324" t="s">
+      <c r="AU18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AV18" s="25"/>
-      <c r="AW18" s="324" t="s">
+      <c r="AW18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AX18" s="25"/>
-      <c r="AY18" s="324" t="s">
+      <c r="AY18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AZ18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BA18" s="346" t="s">
+      <c r="BA18" s="307" t="s">
         <v>39</v>
       </c>
       <c r="BB18" s="25"/>
-      <c r="BC18" s="324" t="s">
+      <c r="BC18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BD18" s="25"/>
-      <c r="BE18" s="324" t="s">
+      <c r="BE18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BF18" s="25"/>
-      <c r="BG18" s="324" t="s">
+      <c r="BG18" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BH18" s="25"/>
-      <c r="BI18" s="359" t="s">
+      <c r="BI18" s="321" t="s">
         <v>39</v>
       </c>
       <c r="BJ18" s="1"/>
@@ -6665,7 +6665,7 @@
       <c r="D19" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="306"/>
+      <c r="E19" s="363"/>
       <c r="F19" s="273"/>
       <c r="G19" s="273"/>
       <c r="H19" s="273"/>
@@ -6673,67 +6673,67 @@
       <c r="J19" s="255" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="327"/>
+      <c r="K19" s="346"/>
       <c r="L19" s="230"/>
-      <c r="M19" s="325"/>
+      <c r="M19" s="320"/>
       <c r="N19" s="43"/>
-      <c r="O19" s="325"/>
+      <c r="O19" s="320"/>
       <c r="P19" s="43"/>
-      <c r="Q19" s="325"/>
+      <c r="Q19" s="320"/>
       <c r="R19" s="43"/>
-      <c r="S19" s="325"/>
+      <c r="S19" s="320"/>
       <c r="T19" s="43"/>
-      <c r="U19" s="325"/>
+      <c r="U19" s="320"/>
       <c r="V19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="W19" s="325"/>
+      <c r="W19" s="320"/>
       <c r="X19" s="43"/>
-      <c r="Y19" s="325"/>
+      <c r="Y19" s="320"/>
       <c r="Z19" s="43"/>
-      <c r="AA19" s="325"/>
+      <c r="AA19" s="320"/>
       <c r="AB19" s="43"/>
-      <c r="AC19" s="325"/>
+      <c r="AC19" s="320"/>
       <c r="AD19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AE19" s="325"/>
+      <c r="AE19" s="320"/>
       <c r="AF19" s="43"/>
-      <c r="AG19" s="325"/>
+      <c r="AG19" s="320"/>
       <c r="AH19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AI19" s="347"/>
+      <c r="AI19" s="332"/>
       <c r="AJ19" s="43"/>
-      <c r="AK19" s="325"/>
+      <c r="AK19" s="320"/>
       <c r="AL19" s="43"/>
-      <c r="AM19" s="325"/>
+      <c r="AM19" s="320"/>
       <c r="AN19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AO19" s="325"/>
+      <c r="AO19" s="320"/>
       <c r="AP19" s="43"/>
-      <c r="AQ19" s="325"/>
+      <c r="AQ19" s="320"/>
       <c r="AR19" s="43"/>
-      <c r="AS19" s="325"/>
+      <c r="AS19" s="320"/>
       <c r="AT19" s="43"/>
-      <c r="AU19" s="325"/>
+      <c r="AU19" s="320"/>
       <c r="AV19" s="43"/>
-      <c r="AW19" s="325"/>
+      <c r="AW19" s="320"/>
       <c r="AX19" s="43"/>
-      <c r="AY19" s="325"/>
+      <c r="AY19" s="320"/>
       <c r="AZ19" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="BA19" s="347"/>
+      <c r="BA19" s="332"/>
       <c r="BB19" s="43"/>
-      <c r="BC19" s="325"/>
+      <c r="BC19" s="320"/>
       <c r="BD19" s="43"/>
-      <c r="BE19" s="325"/>
+      <c r="BE19" s="320"/>
       <c r="BF19" s="43"/>
-      <c r="BG19" s="325"/>
+      <c r="BG19" s="320"/>
       <c r="BH19" s="43"/>
-      <c r="BI19" s="360"/>
+      <c r="BI19" s="322"/>
       <c r="BJ19" s="1"/>
       <c r="BK19" s="1"/>
     </row>
@@ -7311,7 +7311,7 @@
       <c r="D24" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="305">
+      <c r="E24" s="362">
         <v>12</v>
       </c>
       <c r="F24" s="273"/>
@@ -7319,121 +7319,121 @@
       <c r="H24" s="273"/>
       <c r="I24" s="215"/>
       <c r="J24" s="257"/>
-      <c r="K24" s="326" t="s">
+      <c r="K24" s="345" t="s">
         <v>39</v>
       </c>
       <c r="L24" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="M24" s="324" t="s">
+      <c r="M24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="N24" s="25"/>
-      <c r="O24" s="324" t="s">
+      <c r="O24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="P24" s="25"/>
-      <c r="Q24" s="324" t="s">
+      <c r="Q24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="R24" s="25"/>
-      <c r="S24" s="324" t="s">
+      <c r="S24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="T24" s="25"/>
-      <c r="U24" s="324" t="s">
+      <c r="U24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="V24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="W24" s="346" t="s">
+      <c r="W24" s="307" t="s">
         <v>39</v>
       </c>
       <c r="X24" s="25"/>
-      <c r="Y24" s="324" t="s">
+      <c r="Y24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="Z24" s="25"/>
-      <c r="AA24" s="324" t="s">
+      <c r="AA24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AB24" s="25"/>
-      <c r="AC24" s="324" t="s">
+      <c r="AC24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AD24" s="25"/>
-      <c r="AE24" s="324" t="s">
+      <c r="AE24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AF24" s="25"/>
-      <c r="AG24" s="324" t="s">
+      <c r="AG24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AH24" s="196" t="s">
         <v>39</v>
       </c>
-      <c r="AI24" s="346" t="s">
+      <c r="AI24" s="307" t="s">
         <v>39</v>
       </c>
       <c r="AJ24" s="89"/>
-      <c r="AK24" s="324" t="s">
+      <c r="AK24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AL24" s="25"/>
-      <c r="AM24" s="324" t="s">
+      <c r="AM24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AN24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AO24" s="346" t="s">
+      <c r="AO24" s="307" t="s">
         <v>39</v>
       </c>
       <c r="AP24" s="25"/>
-      <c r="AQ24" s="324" t="s">
+      <c r="AQ24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AR24" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="AS24" s="324" t="s">
+      <c r="AS24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AT24" s="25"/>
-      <c r="AU24" s="324" t="s">
+      <c r="AU24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AV24" s="25"/>
-      <c r="AW24" s="324" t="s">
+      <c r="AW24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AX24" s="25"/>
-      <c r="AY24" s="324" t="s">
+      <c r="AY24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AZ24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BA24" s="346" t="s">
+      <c r="BA24" s="307" t="s">
         <v>39</v>
       </c>
       <c r="BB24" s="25"/>
-      <c r="BC24" s="324" t="s">
+      <c r="BC24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BD24" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BE24" s="324" t="s">
+      <c r="BE24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BF24" s="25"/>
-      <c r="BG24" s="324" t="s">
+      <c r="BG24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BH24" s="25"/>
-      <c r="BI24" s="324" t="s">
+      <c r="BI24" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BJ24" s="1"/>
@@ -7448,7 +7448,7 @@
       <c r="D25" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="306"/>
+      <c r="E25" s="363"/>
       <c r="F25" s="273"/>
       <c r="G25" s="273"/>
       <c r="H25" s="273"/>
@@ -7456,64 +7456,64 @@
       <c r="J25" s="255" t="s">
         <v>39</v>
       </c>
-      <c r="K25" s="327"/>
+      <c r="K25" s="346"/>
       <c r="L25" s="230"/>
-      <c r="M25" s="325"/>
+      <c r="M25" s="320"/>
       <c r="N25" s="43"/>
-      <c r="O25" s="325"/>
+      <c r="O25" s="320"/>
       <c r="P25" s="43"/>
-      <c r="Q25" s="325"/>
+      <c r="Q25" s="320"/>
       <c r="R25" s="43"/>
-      <c r="S25" s="325"/>
+      <c r="S25" s="320"/>
       <c r="T25" s="43"/>
-      <c r="U25" s="325"/>
+      <c r="U25" s="320"/>
       <c r="V25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="W25" s="347"/>
+      <c r="W25" s="332"/>
       <c r="X25" s="43"/>
-      <c r="Y25" s="325"/>
+      <c r="Y25" s="320"/>
       <c r="Z25" s="43"/>
-      <c r="AA25" s="325"/>
+      <c r="AA25" s="320"/>
       <c r="AB25" s="43"/>
-      <c r="AC25" s="325"/>
+      <c r="AC25" s="320"/>
       <c r="AD25" s="43"/>
-      <c r="AE25" s="325"/>
+      <c r="AE25" s="320"/>
       <c r="AF25" s="43"/>
-      <c r="AG25" s="325"/>
+      <c r="AG25" s="320"/>
       <c r="AH25" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI25" s="347"/>
+      <c r="AI25" s="332"/>
       <c r="AJ25" s="43"/>
-      <c r="AK25" s="325"/>
+      <c r="AK25" s="320"/>
       <c r="AL25" s="43"/>
-      <c r="AM25" s="325"/>
+      <c r="AM25" s="320"/>
       <c r="AN25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="AO25" s="347"/>
+      <c r="AO25" s="332"/>
       <c r="AP25" s="43"/>
-      <c r="AQ25" s="325"/>
+      <c r="AQ25" s="320"/>
       <c r="AR25" s="43"/>
-      <c r="AS25" s="325"/>
+      <c r="AS25" s="320"/>
       <c r="AT25" s="43"/>
-      <c r="AU25" s="325"/>
+      <c r="AU25" s="320"/>
       <c r="AV25" s="43"/>
-      <c r="AW25" s="325"/>
+      <c r="AW25" s="320"/>
       <c r="AX25" s="43"/>
-      <c r="AY25" s="325"/>
+      <c r="AY25" s="320"/>
       <c r="AZ25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="BA25" s="347"/>
-      <c r="BC25" s="325"/>
+      <c r="BA25" s="332"/>
+      <c r="BC25" s="320"/>
       <c r="BD25" s="43"/>
-      <c r="BE25" s="325"/>
+      <c r="BE25" s="320"/>
       <c r="BF25" s="43"/>
-      <c r="BG25" s="325"/>
+      <c r="BG25" s="320"/>
       <c r="BH25" s="43"/>
-      <c r="BI25" s="325"/>
+      <c r="BI25" s="320"/>
       <c r="BJ25" s="1"/>
       <c r="BK25" s="1"/>
     </row>
@@ -8114,7 +8114,7 @@
       <c r="D30" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="E30" s="309">
+      <c r="E30" s="366">
         <v>21</v>
       </c>
       <c r="F30" s="202"/>
@@ -8124,7 +8124,7 @@
       <c r="J30" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K30" s="348" t="s">
+      <c r="K30" s="329" t="s">
         <v>39</v>
       </c>
       <c r="L30" s="227"/>
@@ -8140,7 +8140,7 @@
         <v>40</v>
       </c>
       <c r="R30" s="66"/>
-      <c r="S30" s="351" t="s">
+      <c r="S30" s="318" t="s">
         <v>39</v>
       </c>
       <c r="T30" s="66"/>
@@ -8150,7 +8150,7 @@
       <c r="V30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="W30" s="351" t="s">
+      <c r="W30" s="318" t="s">
         <v>39</v>
       </c>
       <c r="X30" s="66"/>
@@ -8176,11 +8176,11 @@
       <c r="AH30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AI30" s="351" t="s">
+      <c r="AI30" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AJ30" s="66"/>
-      <c r="AK30" s="351" t="s">
+      <c r="AK30" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AL30" s="65" t="s">
@@ -8192,7 +8192,7 @@
       <c r="AN30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AO30" s="351" t="s">
+      <c r="AO30" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AP30" s="66"/>
@@ -8208,7 +8208,7 @@
         <v>40</v>
       </c>
       <c r="AV30" s="66"/>
-      <c r="AW30" s="351" t="s">
+      <c r="AW30" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AX30" s="66"/>
@@ -8216,13 +8216,13 @@
         <v>40</v>
       </c>
       <c r="AZ30" s="66"/>
-      <c r="BA30" s="351" t="s">
+      <c r="BA30" s="318" t="s">
         <v>39</v>
       </c>
       <c r="BB30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BC30" s="351" t="s">
+      <c r="BC30" s="318" t="s">
         <v>39</v>
       </c>
       <c r="BD30" s="66"/>
@@ -8232,11 +8232,11 @@
       <c r="BF30" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BG30" s="354" t="s">
+      <c r="BG30" s="323" t="s">
         <v>40</v>
       </c>
       <c r="BH30" s="66"/>
-      <c r="BI30" s="354" t="s">
+      <c r="BI30" s="323" t="s">
         <v>40</v>
       </c>
       <c r="BJ30" s="1"/>
@@ -8251,7 +8251,7 @@
       <c r="D31" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="310"/>
+      <c r="E31" s="367"/>
       <c r="F31" s="273"/>
       <c r="G31" s="273"/>
       <c r="H31" s="273"/>
@@ -8259,66 +8259,66 @@
       <c r="J31" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="K31" s="349"/>
+      <c r="K31" s="330"/>
       <c r="L31" s="232"/>
-      <c r="M31" s="333"/>
+      <c r="M31" s="327"/>
       <c r="N31" s="21"/>
-      <c r="O31" s="333"/>
+      <c r="O31" s="327"/>
       <c r="P31" s="21"/>
-      <c r="Q31" s="333"/>
+      <c r="Q31" s="327"/>
       <c r="R31" s="21"/>
-      <c r="S31" s="352"/>
+      <c r="S31" s="326"/>
       <c r="T31" s="21"/>
-      <c r="U31" s="333"/>
+      <c r="U31" s="327"/>
       <c r="V31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="W31" s="352"/>
+      <c r="W31" s="326"/>
       <c r="X31" s="21"/>
-      <c r="Y31" s="333"/>
+      <c r="Y31" s="327"/>
       <c r="Z31" s="21"/>
-      <c r="AA31" s="333"/>
+      <c r="AA31" s="327"/>
       <c r="AB31" s="21"/>
-      <c r="AC31" s="333"/>
+      <c r="AC31" s="327"/>
       <c r="AD31" s="21"/>
-      <c r="AE31" s="333"/>
+      <c r="AE31" s="327"/>
       <c r="AF31" s="21"/>
-      <c r="AG31" s="333"/>
+      <c r="AG31" s="327"/>
       <c r="AH31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AI31" s="352"/>
-      <c r="AK31" s="352"/>
+      <c r="AI31" s="326"/>
+      <c r="AK31" s="326"/>
       <c r="AL31" s="21"/>
-      <c r="AM31" s="333"/>
+      <c r="AM31" s="327"/>
       <c r="AN31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AO31" s="352"/>
+      <c r="AO31" s="326"/>
       <c r="AP31" s="21"/>
-      <c r="AQ31" s="333"/>
+      <c r="AQ31" s="327"/>
       <c r="AR31" s="21"/>
-      <c r="AS31" s="333"/>
+      <c r="AS31" s="327"/>
       <c r="AT31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="AU31" s="333"/>
+      <c r="AU31" s="327"/>
       <c r="AV31" s="21"/>
-      <c r="AW31" s="352"/>
+      <c r="AW31" s="326"/>
       <c r="AX31" s="21"/>
-      <c r="AY31" s="333"/>
+      <c r="AY31" s="327"/>
       <c r="AZ31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="BA31" s="352"/>
+      <c r="BA31" s="326"/>
       <c r="BB31" s="21"/>
-      <c r="BC31" s="352"/>
+      <c r="BC31" s="326"/>
       <c r="BD31" s="21"/>
-      <c r="BE31" s="333"/>
+      <c r="BE31" s="327"/>
       <c r="BF31" s="21"/>
-      <c r="BG31" s="355"/>
+      <c r="BG31" s="328"/>
       <c r="BH31" s="21"/>
-      <c r="BI31" s="355"/>
+      <c r="BI31" s="328"/>
       <c r="BJ31" s="1"/>
       <c r="BK31" s="1"/>
     </row>
@@ -8331,7 +8331,7 @@
       <c r="D32" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="E32" s="311"/>
+      <c r="E32" s="368"/>
       <c r="F32" s="198"/>
       <c r="G32" s="198"/>
       <c r="H32" s="198"/>
@@ -8339,71 +8339,71 @@
       <c r="J32" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="K32" s="350"/>
+      <c r="K32" s="331"/>
       <c r="L32" s="233"/>
-      <c r="M32" s="331"/>
+      <c r="M32" s="311"/>
       <c r="N32" s="117"/>
-      <c r="O32" s="331"/>
+      <c r="O32" s="311"/>
       <c r="P32" s="117"/>
-      <c r="Q32" s="331"/>
+      <c r="Q32" s="311"/>
       <c r="R32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="S32" s="353"/>
+      <c r="S32" s="319"/>
       <c r="T32" s="117"/>
-      <c r="U32" s="331"/>
+      <c r="U32" s="311"/>
       <c r="V32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="W32" s="353"/>
+      <c r="W32" s="319"/>
       <c r="X32" s="118"/>
-      <c r="Y32" s="331"/>
+      <c r="Y32" s="311"/>
       <c r="Z32" s="117"/>
-      <c r="AA32" s="331"/>
+      <c r="AA32" s="311"/>
       <c r="AB32" s="117"/>
-      <c r="AC32" s="331"/>
+      <c r="AC32" s="311"/>
       <c r="AD32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AE32" s="331"/>
+      <c r="AE32" s="311"/>
       <c r="AF32" s="117"/>
-      <c r="AG32" s="331"/>
+      <c r="AG32" s="311"/>
       <c r="AH32" s="118"/>
-      <c r="AI32" s="353"/>
+      <c r="AI32" s="319"/>
       <c r="AJ32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AK32" s="353"/>
+      <c r="AK32" s="319"/>
       <c r="AL32" s="117"/>
-      <c r="AM32" s="331"/>
+      <c r="AM32" s="311"/>
       <c r="AN32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AO32" s="353"/>
+      <c r="AO32" s="319"/>
       <c r="AP32" s="117"/>
-      <c r="AQ32" s="331"/>
+      <c r="AQ32" s="311"/>
       <c r="AR32" s="117"/>
-      <c r="AS32" s="331"/>
+      <c r="AS32" s="311"/>
       <c r="AT32" s="118"/>
-      <c r="AU32" s="331"/>
+      <c r="AU32" s="311"/>
       <c r="AV32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AW32" s="353"/>
+      <c r="AW32" s="319"/>
       <c r="AX32" s="117"/>
-      <c r="AY32" s="331"/>
+      <c r="AY32" s="311"/>
       <c r="AZ32" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="BA32" s="353"/>
+      <c r="BA32" s="319"/>
       <c r="BB32" s="117"/>
-      <c r="BC32" s="353"/>
+      <c r="BC32" s="319"/>
       <c r="BD32" s="117"/>
-      <c r="BE32" s="331"/>
+      <c r="BE32" s="311"/>
       <c r="BF32" s="117"/>
-      <c r="BG32" s="356"/>
+      <c r="BG32" s="324"/>
       <c r="BH32" s="117"/>
-      <c r="BI32" s="356"/>
+      <c r="BI32" s="324"/>
       <c r="BJ32" s="1"/>
       <c r="BK32" s="1"/>
     </row>
@@ -8420,7 +8420,7 @@
       <c r="D33" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="309">
+      <c r="E33" s="366">
         <v>20</v>
       </c>
       <c r="F33" s="202"/>
@@ -8430,7 +8430,7 @@
       <c r="J33" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K33" s="328" t="s">
+      <c r="K33" s="347" t="s">
         <v>39</v>
       </c>
       <c r="L33" s="227"/>
@@ -8458,7 +8458,7 @@
       <c r="V33" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="W33" s="344" t="s">
+      <c r="W33" s="325" t="s">
         <v>39</v>
       </c>
       <c r="X33" s="66"/>
@@ -8486,7 +8486,7 @@
       <c r="AH33" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AI33" s="344" t="s">
+      <c r="AI33" s="325" t="s">
         <v>39</v>
       </c>
       <c r="AJ33" s="66"/>
@@ -8530,7 +8530,7 @@
       <c r="AZ33" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BA33" s="344" t="s">
+      <c r="BA33" s="325" t="s">
         <v>39</v>
       </c>
       <c r="BB33" s="66"/>
@@ -8544,11 +8544,11 @@
         <v>40</v>
       </c>
       <c r="BF33" s="66"/>
-      <c r="BG33" s="357" t="s">
+      <c r="BG33" s="315" t="s">
         <v>39</v>
       </c>
       <c r="BH33" s="66"/>
-      <c r="BI33" s="354" t="s">
+      <c r="BI33" s="323" t="s">
         <v>40</v>
       </c>
       <c r="BJ33" s="1"/>
@@ -8563,7 +8563,7 @@
       <c r="D34" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="311"/>
+      <c r="E34" s="368"/>
       <c r="F34" s="198"/>
       <c r="G34" s="198"/>
       <c r="H34" s="198"/>
@@ -8571,77 +8571,77 @@
       <c r="J34" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="K34" s="329"/>
+      <c r="K34" s="348"/>
       <c r="L34" s="233"/>
-      <c r="M34" s="331"/>
+      <c r="M34" s="311"/>
       <c r="N34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="O34" s="331"/>
+      <c r="O34" s="311"/>
       <c r="P34" s="117"/>
-      <c r="Q34" s="331"/>
+      <c r="Q34" s="311"/>
       <c r="R34" s="117"/>
-      <c r="S34" s="331"/>
+      <c r="S34" s="311"/>
       <c r="T34" s="117"/>
-      <c r="U34" s="331"/>
+      <c r="U34" s="311"/>
       <c r="V34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="W34" s="358"/>
+      <c r="W34" s="308"/>
       <c r="X34" s="117"/>
-      <c r="Y34" s="331"/>
+      <c r="Y34" s="311"/>
       <c r="Z34" s="117"/>
-      <c r="AA34" s="331"/>
+      <c r="AA34" s="311"/>
       <c r="AB34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AC34" s="331"/>
+      <c r="AC34" s="311"/>
       <c r="AD34" s="117"/>
-      <c r="AE34" s="331"/>
+      <c r="AE34" s="311"/>
       <c r="AF34" s="117"/>
-      <c r="AG34" s="331"/>
+      <c r="AG34" s="311"/>
       <c r="AH34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AI34" s="358"/>
+      <c r="AI34" s="308"/>
       <c r="AJ34" s="117"/>
-      <c r="AK34" s="331"/>
+      <c r="AK34" s="311"/>
       <c r="AL34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AM34" s="331"/>
+      <c r="AM34" s="311"/>
       <c r="AN34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AO34" s="331"/>
+      <c r="AO34" s="311"/>
       <c r="AP34" s="117"/>
-      <c r="AQ34" s="331"/>
+      <c r="AQ34" s="311"/>
       <c r="AR34" s="118"/>
-      <c r="AS34" s="331"/>
+      <c r="AS34" s="311"/>
       <c r="AT34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AU34" s="331"/>
+      <c r="AU34" s="311"/>
       <c r="AV34" s="117"/>
-      <c r="AW34" s="331"/>
+      <c r="AW34" s="311"/>
       <c r="AX34" s="117"/>
-      <c r="AY34" s="331"/>
+      <c r="AY34" s="311"/>
       <c r="AZ34" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="BA34" s="358"/>
+      <c r="BA34" s="308"/>
       <c r="BB34" s="117"/>
-      <c r="BC34" s="331"/>
+      <c r="BC34" s="311"/>
       <c r="BD34" s="192" t="s">
         <v>62</v>
       </c>
-      <c r="BE34" s="331"/>
+      <c r="BE34" s="311"/>
       <c r="BF34" s="192" t="s">
         <v>63</v>
       </c>
-      <c r="BG34" s="358"/>
+      <c r="BG34" s="308"/>
       <c r="BH34" s="117"/>
-      <c r="BI34" s="356"/>
+      <c r="BI34" s="324"/>
       <c r="BJ34" s="1"/>
       <c r="BK34" s="1"/>
     </row>
@@ -8809,7 +8809,7 @@
       <c r="D36" s="64" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="309">
+      <c r="E36" s="366">
         <v>19</v>
       </c>
       <c r="F36" s="274"/>
@@ -8819,7 +8819,7 @@
       <c r="J36" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K36" s="320" t="s">
+      <c r="K36" s="350" t="s">
         <v>40</v>
       </c>
       <c r="L36" s="227"/>
@@ -8845,7 +8845,7 @@
         <v>40</v>
       </c>
       <c r="V36" s="66"/>
-      <c r="W36" s="351" t="s">
+      <c r="W36" s="318" t="s">
         <v>39</v>
       </c>
       <c r="X36" s="65" t="s">
@@ -8859,7 +8859,7 @@
         <v>40</v>
       </c>
       <c r="AB36" s="66"/>
-      <c r="AC36" s="351" t="s">
+      <c r="AC36" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AD36" s="65" t="s">
@@ -8875,7 +8875,7 @@
       <c r="AH36" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AI36" s="351" t="s">
+      <c r="AI36" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AJ36" s="66"/>
@@ -8889,7 +8889,7 @@
       <c r="AN36" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AO36" s="351" t="s">
+      <c r="AO36" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AP36" s="66"/>
@@ -8907,7 +8907,7 @@
       <c r="AV36" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AW36" s="351" t="s">
+      <c r="AW36" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AX36" s="66"/>
@@ -8917,7 +8917,7 @@
       <c r="AZ36" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BA36" s="351" t="s">
+      <c r="BA36" s="318" t="s">
         <v>39</v>
       </c>
       <c r="BB36" s="66"/>
@@ -8937,7 +8937,7 @@
       <c r="BH36" s="173" t="s">
         <v>62</v>
       </c>
-      <c r="BI36" s="359" t="s">
+      <c r="BI36" s="321" t="s">
         <v>39</v>
       </c>
       <c r="BJ36" s="1"/>
@@ -8952,7 +8952,7 @@
       <c r="D37" s="115" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="311"/>
+      <c r="E37" s="368"/>
       <c r="F37" s="275"/>
       <c r="G37" s="275"/>
       <c r="H37" s="275"/>
@@ -8960,75 +8960,75 @@
       <c r="J37" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="K37" s="332"/>
+      <c r="K37" s="351"/>
       <c r="L37" s="233"/>
-      <c r="M37" s="331"/>
+      <c r="M37" s="311"/>
       <c r="N37" s="117"/>
-      <c r="O37" s="331"/>
+      <c r="O37" s="311"/>
       <c r="P37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="Q37" s="331"/>
+      <c r="Q37" s="311"/>
       <c r="R37" s="117"/>
-      <c r="S37" s="331"/>
+      <c r="S37" s="311"/>
       <c r="T37" s="117"/>
-      <c r="U37" s="331"/>
+      <c r="U37" s="311"/>
       <c r="V37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="W37" s="353"/>
+      <c r="W37" s="319"/>
       <c r="X37" s="117"/>
-      <c r="Y37" s="331"/>
+      <c r="Y37" s="311"/>
       <c r="Z37" s="117"/>
-      <c r="AA37" s="331"/>
+      <c r="AA37" s="311"/>
       <c r="AB37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AC37" s="353"/>
+      <c r="AC37" s="319"/>
       <c r="AD37" s="117"/>
-      <c r="AE37" s="331"/>
+      <c r="AE37" s="311"/>
       <c r="AF37" s="117"/>
-      <c r="AG37" s="331"/>
+      <c r="AG37" s="311"/>
       <c r="AH37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AI37" s="353"/>
+      <c r="AI37" s="319"/>
       <c r="AJ37" s="117"/>
-      <c r="AK37" s="331"/>
+      <c r="AK37" s="311"/>
       <c r="AL37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AM37" s="331"/>
+      <c r="AM37" s="311"/>
       <c r="AN37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AO37" s="353"/>
+      <c r="AO37" s="319"/>
       <c r="AP37" s="117"/>
-      <c r="AQ37" s="331"/>
+      <c r="AQ37" s="311"/>
       <c r="AR37" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AS37" s="331"/>
+      <c r="AS37" s="311"/>
       <c r="AT37" s="117"/>
-      <c r="AU37" s="331"/>
+      <c r="AU37" s="311"/>
       <c r="AV37" s="117"/>
-      <c r="AW37" s="353"/>
+      <c r="AW37" s="319"/>
       <c r="AX37" s="117"/>
-      <c r="AY37" s="331"/>
+      <c r="AY37" s="311"/>
       <c r="AZ37" s="117"/>
-      <c r="BA37" s="353"/>
+      <c r="BA37" s="319"/>
       <c r="BB37" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BC37" s="331"/>
+      <c r="BC37" s="311"/>
       <c r="BD37" s="117"/>
-      <c r="BE37" s="331"/>
+      <c r="BE37" s="311"/>
       <c r="BF37" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BG37" s="331"/>
+      <c r="BG37" s="311"/>
       <c r="BH37" s="117"/>
-      <c r="BI37" s="360"/>
+      <c r="BI37" s="322"/>
       <c r="BJ37" s="1"/>
       <c r="BK37" s="1"/>
     </row>
@@ -9045,7 +9045,7 @@
       <c r="D38" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="309">
+      <c r="E38" s="366">
         <v>20</v>
       </c>
       <c r="F38" s="274"/>
@@ -9055,7 +9055,7 @@
       <c r="J38" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K38" s="320" t="s">
+      <c r="K38" s="350" t="s">
         <v>40</v>
       </c>
       <c r="L38" s="227"/>
@@ -9073,7 +9073,7 @@
       <c r="R38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="S38" s="351" t="s">
+      <c r="S38" s="318" t="s">
         <v>39</v>
       </c>
       <c r="T38" s="66"/>
@@ -9095,13 +9095,13 @@
         <v>40</v>
       </c>
       <c r="AB38" s="66"/>
-      <c r="AC38" s="361" t="s">
+      <c r="AC38" s="316" t="s">
         <v>40</v>
       </c>
       <c r="AD38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AE38" s="351" t="s">
+      <c r="AE38" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AF38" s="66"/>
@@ -9121,7 +9121,7 @@
       <c r="AL38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AM38" s="351" t="s">
+      <c r="AM38" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AN38" s="65" t="s">
@@ -9145,7 +9145,7 @@
       <c r="AV38" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="AW38" s="351" t="s">
+      <c r="AW38" s="318" t="s">
         <v>39</v>
       </c>
       <c r="AX38" s="66"/>
@@ -9169,7 +9169,7 @@
       <c r="BF38" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="BG38" s="357" t="s">
+      <c r="BG38" s="315" t="s">
         <v>39</v>
       </c>
       <c r="BH38" s="66"/>
@@ -9188,7 +9188,7 @@
       <c r="D39" s="91" t="s">
         <v>112</v>
       </c>
-      <c r="E39" s="306"/>
+      <c r="E39" s="363"/>
       <c r="F39" s="276"/>
       <c r="G39" s="276"/>
       <c r="H39" s="276"/>
@@ -9196,77 +9196,77 @@
       <c r="J39" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K39" s="321"/>
+      <c r="K39" s="352"/>
       <c r="L39" s="141"/>
-      <c r="M39" s="313"/>
+      <c r="M39" s="304"/>
       <c r="N39" s="72"/>
-      <c r="O39" s="313"/>
+      <c r="O39" s="304"/>
       <c r="P39" s="72"/>
-      <c r="Q39" s="313"/>
+      <c r="Q39" s="304"/>
       <c r="R39" s="72"/>
-      <c r="S39" s="353"/>
+      <c r="S39" s="319"/>
       <c r="T39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="U39" s="313"/>
+      <c r="U39" s="304"/>
       <c r="V39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="W39" s="313"/>
+      <c r="W39" s="304"/>
       <c r="X39" s="72"/>
-      <c r="Y39" s="313"/>
+      <c r="Y39" s="304"/>
       <c r="Z39" s="72"/>
-      <c r="AA39" s="313"/>
+      <c r="AA39" s="304"/>
       <c r="AB39" s="72"/>
-      <c r="AC39" s="362"/>
+      <c r="AC39" s="317"/>
       <c r="AD39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AE39" s="353"/>
+      <c r="AE39" s="319"/>
       <c r="AF39" s="72"/>
-      <c r="AG39" s="313"/>
+      <c r="AG39" s="304"/>
       <c r="AH39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI39" s="313"/>
+      <c r="AI39" s="304"/>
       <c r="AJ39" s="72"/>
-      <c r="AK39" s="313"/>
+      <c r="AK39" s="304"/>
       <c r="AL39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AM39" s="353"/>
+      <c r="AM39" s="319"/>
       <c r="AN39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AO39" s="313"/>
+      <c r="AO39" s="304"/>
       <c r="AP39" s="72"/>
-      <c r="AQ39" s="313"/>
+      <c r="AQ39" s="304"/>
       <c r="AR39" s="72"/>
-      <c r="AS39" s="313"/>
+      <c r="AS39" s="304"/>
       <c r="AT39" s="72"/>
-      <c r="AU39" s="313"/>
+      <c r="AU39" s="304"/>
       <c r="AV39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AW39" s="353"/>
+      <c r="AW39" s="319"/>
       <c r="AX39" s="72"/>
-      <c r="AY39" s="313"/>
+      <c r="AY39" s="304"/>
       <c r="AZ39" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BA39" s="313"/>
+      <c r="BA39" s="304"/>
       <c r="BB39" s="72"/>
-      <c r="BC39" s="313"/>
+      <c r="BC39" s="304"/>
       <c r="BD39" s="188" t="s">
         <v>113</v>
       </c>
-      <c r="BE39" s="313"/>
+      <c r="BE39" s="304"/>
       <c r="BF39" s="72"/>
-      <c r="BG39" s="358"/>
+      <c r="BG39" s="308"/>
       <c r="BH39" s="188" t="s">
         <v>114</v>
       </c>
-      <c r="BI39" s="313"/>
+      <c r="BI39" s="304"/>
       <c r="BJ39" s="1"/>
       <c r="BK39" s="1"/>
     </row>
@@ -9430,7 +9430,7 @@
       <c r="D41" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="E41" s="305">
+      <c r="E41" s="362">
         <v>10</v>
       </c>
       <c r="F41" s="278"/>
@@ -9440,7 +9440,7 @@
       <c r="J41" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="K41" s="320" t="s">
+      <c r="K41" s="350" t="s">
         <v>40</v>
       </c>
       <c r="L41" s="235"/>
@@ -9466,7 +9466,7 @@
       <c r="V41" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="W41" s="363" t="s">
+      <c r="W41" s="313" t="s">
         <v>39</v>
       </c>
       <c r="X41" s="183"/>
@@ -9492,7 +9492,7 @@
       <c r="AH41" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="AI41" s="363" t="s">
+      <c r="AI41" s="313" t="s">
         <v>39</v>
       </c>
       <c r="AJ41" s="187"/>
@@ -9506,7 +9506,7 @@
       <c r="AN41" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="AO41" s="363" t="s">
+      <c r="AO41" s="313" t="s">
         <v>39</v>
       </c>
       <c r="AP41" s="183"/>
@@ -9563,75 +9563,75 @@
       <c r="D42" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="E42" s="306"/>
+      <c r="E42" s="363"/>
       <c r="F42" s="279"/>
       <c r="G42" s="279"/>
       <c r="H42" s="279"/>
       <c r="I42" s="221"/>
       <c r="J42" s="264"/>
-      <c r="K42" s="321"/>
+      <c r="K42" s="352"/>
       <c r="L42" s="153" t="s">
         <v>39</v>
       </c>
-      <c r="M42" s="313"/>
+      <c r="M42" s="304"/>
       <c r="N42" s="185"/>
-      <c r="O42" s="313"/>
+      <c r="O42" s="304"/>
       <c r="P42" s="185"/>
-      <c r="Q42" s="313"/>
+      <c r="Q42" s="304"/>
       <c r="R42" s="186"/>
-      <c r="S42" s="313"/>
+      <c r="S42" s="304"/>
       <c r="T42" s="185"/>
-      <c r="U42" s="313"/>
+      <c r="U42" s="304"/>
       <c r="V42" s="189" t="s">
         <v>63</v>
       </c>
-      <c r="W42" s="364"/>
+      <c r="W42" s="314"/>
       <c r="X42" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="Y42" s="313"/>
+      <c r="Y42" s="304"/>
       <c r="Z42" s="185"/>
-      <c r="AA42" s="313"/>
+      <c r="AA42" s="304"/>
       <c r="AB42" s="185"/>
-      <c r="AC42" s="313"/>
+      <c r="AC42" s="304"/>
       <c r="AD42" s="186"/>
-      <c r="AE42" s="313"/>
+      <c r="AE42" s="304"/>
       <c r="AF42" s="185"/>
-      <c r="AG42" s="313"/>
+      <c r="AG42" s="304"/>
       <c r="AH42" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="AI42" s="364"/>
+      <c r="AI42" s="314"/>
       <c r="AJ42" s="186"/>
-      <c r="AK42" s="313"/>
+      <c r="AK42" s="304"/>
       <c r="AL42" s="186"/>
-      <c r="AM42" s="313"/>
+      <c r="AM42" s="304"/>
       <c r="AN42" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="AO42" s="364"/>
+      <c r="AO42" s="314"/>
       <c r="AP42" s="185"/>
-      <c r="AQ42" s="313"/>
+      <c r="AQ42" s="304"/>
       <c r="AR42" s="185"/>
-      <c r="AS42" s="313"/>
+      <c r="AS42" s="304"/>
       <c r="AT42" s="185"/>
-      <c r="AU42" s="313"/>
+      <c r="AU42" s="304"/>
       <c r="AV42" s="185"/>
-      <c r="AW42" s="313"/>
+      <c r="AW42" s="304"/>
       <c r="AX42" s="185"/>
-      <c r="AY42" s="313"/>
+      <c r="AY42" s="304"/>
       <c r="AZ42" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="BA42" s="313"/>
+      <c r="BA42" s="304"/>
       <c r="BB42" s="185"/>
-      <c r="BC42" s="313"/>
+      <c r="BC42" s="304"/>
       <c r="BD42" s="185"/>
-      <c r="BE42" s="313"/>
+      <c r="BE42" s="304"/>
       <c r="BF42" s="185"/>
-      <c r="BG42" s="313"/>
+      <c r="BG42" s="304"/>
       <c r="BH42" s="185"/>
-      <c r="BI42" s="313"/>
+      <c r="BI42" s="304"/>
       <c r="BJ42" s="1"/>
       <c r="BK42" s="1"/>
     </row>
@@ -9648,137 +9648,137 @@
       <c r="D43" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E43" s="305">
+      <c r="E43" s="362">
         <v>17</v>
       </c>
-      <c r="F43" s="305">
+      <c r="F43" s="362">
         <v>5</v>
       </c>
-      <c r="G43" s="305">
+      <c r="G43" s="362">
         <v>2</v>
       </c>
-      <c r="H43" s="305">
+      <c r="H43" s="362">
         <v>7</v>
       </c>
       <c r="I43" s="222"/>
       <c r="J43" s="254" t="s">
         <v>39</v>
       </c>
-      <c r="K43" s="326" t="s">
+      <c r="K43" s="345" t="s">
         <v>39</v>
       </c>
       <c r="L43" s="152"/>
-      <c r="M43" s="324" t="s">
+      <c r="M43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="N43" s="25"/>
-      <c r="O43" s="324" t="s">
+      <c r="O43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="P43" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="Q43" s="324" t="s">
+      <c r="Q43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="R43" s="25"/>
-      <c r="S43" s="324" t="s">
+      <c r="S43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="T43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="U43" s="367" t="s">
+      <c r="U43" s="309" t="s">
         <v>39</v>
       </c>
       <c r="V43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="W43" s="346" t="s">
+      <c r="W43" s="307" t="s">
         <v>39</v>
       </c>
       <c r="X43" s="152"/>
-      <c r="Y43" s="324" t="s">
+      <c r="Y43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="Z43" s="25"/>
-      <c r="AA43" s="324" t="s">
+      <c r="AA43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AB43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AC43" s="324" t="s">
+      <c r="AC43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AD43" s="25"/>
-      <c r="AE43" s="324" t="s">
+      <c r="AE43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AF43" s="25"/>
-      <c r="AG43" s="324" t="s">
+      <c r="AG43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AH43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AI43" s="324" t="s">
+      <c r="AI43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AJ43" s="25"/>
-      <c r="AK43" s="324" t="s">
+      <c r="AK43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AL43" s="25"/>
-      <c r="AM43" s="324" t="s">
+      <c r="AM43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AN43" s="25"/>
-      <c r="AO43" s="324" t="s">
+      <c r="AO43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AP43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="AQ43" s="324" t="s">
+      <c r="AQ43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AR43" s="25"/>
-      <c r="AS43" s="324" t="s">
+      <c r="AS43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AT43" s="25"/>
-      <c r="AU43" s="324" t="s">
+      <c r="AU43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AV43" s="25"/>
-      <c r="AW43" s="324" t="s">
+      <c r="AW43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AX43" s="25"/>
-      <c r="AY43" s="324" t="s">
+      <c r="AY43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="AZ43" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BA43" s="346" t="s">
+      <c r="BA43" s="307" t="s">
         <v>39</v>
       </c>
       <c r="BB43" s="25"/>
-      <c r="BC43" s="324" t="s">
+      <c r="BC43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BD43" s="25"/>
-      <c r="BE43" s="324" t="s">
+      <c r="BE43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BF43" s="25"/>
-      <c r="BG43" s="324" t="s">
+      <c r="BG43" s="303" t="s">
         <v>40</v>
       </c>
       <c r="BH43" s="25"/>
-      <c r="BI43" s="365" t="s">
+      <c r="BI43" s="305" t="s">
         <v>39</v>
       </c>
       <c r="BJ43" s="1"/>
@@ -9793,80 +9793,80 @@
       <c r="D44" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="306"/>
-      <c r="F44" s="306"/>
-      <c r="G44" s="306"/>
-      <c r="H44" s="306"/>
+      <c r="E44" s="363"/>
+      <c r="F44" s="363"/>
+      <c r="G44" s="363"/>
+      <c r="H44" s="363"/>
       <c r="I44" s="218"/>
       <c r="J44" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="K44" s="330"/>
+      <c r="K44" s="349"/>
       <c r="L44" s="141"/>
-      <c r="M44" s="313"/>
+      <c r="M44" s="304"/>
       <c r="N44" s="72"/>
-      <c r="O44" s="313"/>
+      <c r="O44" s="304"/>
       <c r="P44" s="72"/>
-      <c r="Q44" s="313"/>
+      <c r="Q44" s="304"/>
       <c r="R44" s="72"/>
-      <c r="S44" s="313"/>
+      <c r="S44" s="304"/>
       <c r="T44" s="72"/>
-      <c r="U44" s="368"/>
+      <c r="U44" s="310"/>
       <c r="V44" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="W44" s="358"/>
+      <c r="W44" s="308"/>
       <c r="X44" s="141"/>
-      <c r="Y44" s="313"/>
+      <c r="Y44" s="304"/>
       <c r="Z44" s="72"/>
-      <c r="AA44" s="313"/>
+      <c r="AA44" s="304"/>
       <c r="AB44" s="72"/>
-      <c r="AC44" s="313"/>
+      <c r="AC44" s="304"/>
       <c r="AD44" s="72"/>
-      <c r="AE44" s="313"/>
+      <c r="AE44" s="304"/>
       <c r="AF44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AG44" s="313"/>
+      <c r="AG44" s="304"/>
       <c r="AH44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AI44" s="313"/>
+      <c r="AI44" s="304"/>
       <c r="AJ44" s="72"/>
-      <c r="AK44" s="313"/>
+      <c r="AK44" s="304"/>
       <c r="AL44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AM44" s="313"/>
+      <c r="AM44" s="304"/>
       <c r="AN44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="AO44" s="313"/>
+      <c r="AO44" s="304"/>
       <c r="AP44" s="72"/>
-      <c r="AQ44" s="313"/>
+      <c r="AQ44" s="304"/>
       <c r="AR44" s="72"/>
-      <c r="AS44" s="313"/>
+      <c r="AS44" s="304"/>
       <c r="AT44" s="72"/>
-      <c r="AU44" s="313"/>
+      <c r="AU44" s="304"/>
       <c r="AV44" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="AW44" s="313"/>
+      <c r="AW44" s="304"/>
       <c r="AX44" s="117"/>
-      <c r="AY44" s="331"/>
+      <c r="AY44" s="311"/>
       <c r="AZ44" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="BA44" s="358"/>
+      <c r="BA44" s="308"/>
       <c r="BB44" s="117"/>
-      <c r="BC44" s="331"/>
+      <c r="BC44" s="311"/>
       <c r="BD44" s="117"/>
-      <c r="BE44" s="313"/>
-      <c r="BG44" s="313"/>
+      <c r="BE44" s="304"/>
+      <c r="BG44" s="304"/>
       <c r="BH44" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="BI44" s="366"/>
+      <c r="BI44" s="306"/>
       <c r="BJ44" s="1"/>
       <c r="BK44" s="1"/>
     </row>
@@ -10717,56 +10717,264 @@
     <sortCondition ref="C7:C53"/>
   </sortState>
   <mergeCells count="332">
-    <mergeCell ref="BG43:BG44"/>
-    <mergeCell ref="BI43:BI44"/>
-    <mergeCell ref="BA43:BA44"/>
-    <mergeCell ref="AW43:AW44"/>
-    <mergeCell ref="W43:W44"/>
-    <mergeCell ref="U43:U44"/>
-    <mergeCell ref="AQ43:AQ44"/>
-    <mergeCell ref="AS43:AS44"/>
-    <mergeCell ref="AU43:AU44"/>
-    <mergeCell ref="AY43:AY44"/>
-    <mergeCell ref="BC43:BC44"/>
-    <mergeCell ref="BE43:BE44"/>
-    <mergeCell ref="AE43:AE44"/>
-    <mergeCell ref="AG43:AG44"/>
-    <mergeCell ref="AI43:AI44"/>
-    <mergeCell ref="AK43:AK44"/>
-    <mergeCell ref="AM43:AM44"/>
-    <mergeCell ref="AO43:AO44"/>
-    <mergeCell ref="Q43:Q44"/>
-    <mergeCell ref="S43:S44"/>
-    <mergeCell ref="Y43:Y44"/>
-    <mergeCell ref="AA43:AA44"/>
-    <mergeCell ref="AC43:AC44"/>
-    <mergeCell ref="BA38:BA39"/>
-    <mergeCell ref="BC38:BC39"/>
-    <mergeCell ref="BE38:BE39"/>
-    <mergeCell ref="O38:O39"/>
-    <mergeCell ref="Q38:Q39"/>
-    <mergeCell ref="U38:U39"/>
-    <mergeCell ref="W38:W39"/>
-    <mergeCell ref="Y38:Y39"/>
-    <mergeCell ref="AA38:AA39"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="S41:S42"/>
-    <mergeCell ref="U41:U42"/>
-    <mergeCell ref="Y41:Y42"/>
-    <mergeCell ref="AA41:AA42"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="AI41:AI42"/>
-    <mergeCell ref="AO41:AO42"/>
-    <mergeCell ref="AM41:AM42"/>
-    <mergeCell ref="BG38:BG39"/>
-    <mergeCell ref="BI38:BI39"/>
-    <mergeCell ref="AC38:AC39"/>
-    <mergeCell ref="AO38:AO39"/>
-    <mergeCell ref="AQ38:AQ39"/>
-    <mergeCell ref="AS38:AS39"/>
-    <mergeCell ref="AU38:AU39"/>
-    <mergeCell ref="AW38:AW39"/>
-    <mergeCell ref="AY38:AY39"/>
+    <mergeCell ref="AI3:AI4"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="AG13:AG14"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="BE13:BE14"/>
+    <mergeCell ref="BG13:BG14"/>
+    <mergeCell ref="BI13:BI14"/>
+    <mergeCell ref="AI13:AI14"/>
+    <mergeCell ref="AO13:AO14"/>
+    <mergeCell ref="AS13:AS14"/>
+    <mergeCell ref="W13:W14"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="BA41:BA42"/>
+    <mergeCell ref="BC41:BC42"/>
+    <mergeCell ref="BE41:BE42"/>
+    <mergeCell ref="BG41:BG42"/>
+    <mergeCell ref="BI41:BI42"/>
+    <mergeCell ref="AY41:AY42"/>
+    <mergeCell ref="AW41:AW42"/>
+    <mergeCell ref="AU41:AU42"/>
+    <mergeCell ref="AS41:AS42"/>
+    <mergeCell ref="AQ41:AQ42"/>
+    <mergeCell ref="AK41:AK42"/>
+    <mergeCell ref="AE41:AE42"/>
+    <mergeCell ref="AG41:AG42"/>
+    <mergeCell ref="AC41:AC42"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="O41:O42"/>
+    <mergeCell ref="AK13:AK14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="AQ13:AQ14"/>
+    <mergeCell ref="AU13:AU14"/>
+    <mergeCell ref="AW13:AW14"/>
+    <mergeCell ref="AY13:AY14"/>
+    <mergeCell ref="BA13:BA14"/>
+    <mergeCell ref="BC13:BC14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="O13:O14"/>
+    <mergeCell ref="Q13:Q14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="Y13:Y14"/>
+    <mergeCell ref="AA13:AA14"/>
+    <mergeCell ref="AC13:AC14"/>
+    <mergeCell ref="AE13:AE14"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="M43:M44"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="BG3:BG4"/>
+    <mergeCell ref="BI3:BI4"/>
+    <mergeCell ref="AO3:AO4"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="Q9:Q10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="Y9:Y10"/>
+    <mergeCell ref="AA9:AA10"/>
+    <mergeCell ref="AC9:AC10"/>
+    <mergeCell ref="AS3:AS4"/>
+    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="BA3:BA4"/>
+    <mergeCell ref="BC3:BC4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="AG3:AG4"/>
+    <mergeCell ref="AK3:AK4"/>
+    <mergeCell ref="AM3:AM4"/>
+    <mergeCell ref="AQ3:AQ4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="BI9:BI10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="S9:S10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="BA9:BA10"/>
+    <mergeCell ref="AU9:AU10"/>
+    <mergeCell ref="AW9:AW10"/>
+    <mergeCell ref="AY9:AY10"/>
+    <mergeCell ref="BC9:BC10"/>
+    <mergeCell ref="BE9:BE10"/>
+    <mergeCell ref="BG9:BG10"/>
+    <mergeCell ref="AE9:AE10"/>
+    <mergeCell ref="AG9:AG10"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AK9:AK10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AA15:AA16"/>
+    <mergeCell ref="AC15:AC16"/>
+    <mergeCell ref="AE15:AE16"/>
+    <mergeCell ref="AG15:AG16"/>
+    <mergeCell ref="AK15:AK16"/>
+    <mergeCell ref="AM15:AM16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="U15:U16"/>
+    <mergeCell ref="W15:W16"/>
+    <mergeCell ref="Y15:Y16"/>
+    <mergeCell ref="BE15:BE16"/>
+    <mergeCell ref="BI15:BI16"/>
+    <mergeCell ref="AO15:AO16"/>
+    <mergeCell ref="AI15:AI16"/>
+    <mergeCell ref="BC15:BC16"/>
+    <mergeCell ref="BG15:BG16"/>
+    <mergeCell ref="AQ15:AQ16"/>
+    <mergeCell ref="AS15:AS16"/>
+    <mergeCell ref="AU15:AU16"/>
+    <mergeCell ref="AW15:AW16"/>
+    <mergeCell ref="AY15:AY16"/>
+    <mergeCell ref="BA15:BA16"/>
+    <mergeCell ref="BA18:BA19"/>
+    <mergeCell ref="O18:O19"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="U18:U19"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="Y18:Y19"/>
+    <mergeCell ref="AA18:AA19"/>
+    <mergeCell ref="AC18:AC19"/>
+    <mergeCell ref="AS18:AS19"/>
+    <mergeCell ref="AU18:AU19"/>
+    <mergeCell ref="AW18:AW19"/>
+    <mergeCell ref="AY18:AY19"/>
+    <mergeCell ref="AE18:AE19"/>
+    <mergeCell ref="AG18:AG19"/>
+    <mergeCell ref="AK18:AK19"/>
+    <mergeCell ref="AM18:AM19"/>
+    <mergeCell ref="AO18:AO19"/>
+    <mergeCell ref="AQ18:AQ19"/>
+    <mergeCell ref="AI18:AI19"/>
+    <mergeCell ref="AU24:AU25"/>
+    <mergeCell ref="O24:O25"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="S24:S25"/>
+    <mergeCell ref="U24:U25"/>
+    <mergeCell ref="Y24:Y25"/>
+    <mergeCell ref="AA24:AA25"/>
+    <mergeCell ref="AC24:AC25"/>
+    <mergeCell ref="AE24:AE25"/>
+    <mergeCell ref="BI24:BI25"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="S30:S32"/>
+    <mergeCell ref="W30:W32"/>
+    <mergeCell ref="AI30:AI32"/>
+    <mergeCell ref="AO30:AO32"/>
+    <mergeCell ref="BA30:BA32"/>
+    <mergeCell ref="BG30:BG32"/>
+    <mergeCell ref="O30:O32"/>
+    <mergeCell ref="Q30:Q32"/>
+    <mergeCell ref="AW24:AW25"/>
+    <mergeCell ref="AY24:AY25"/>
+    <mergeCell ref="BC24:BC25"/>
+    <mergeCell ref="BE24:BE25"/>
+    <mergeCell ref="BG24:BG25"/>
+    <mergeCell ref="W24:W25"/>
+    <mergeCell ref="AI24:AI25"/>
+    <mergeCell ref="AO24:AO25"/>
+    <mergeCell ref="BA24:BA25"/>
+    <mergeCell ref="AG24:AG25"/>
+    <mergeCell ref="AK24:AK25"/>
+    <mergeCell ref="AM24:AM25"/>
+    <mergeCell ref="AQ24:AQ25"/>
+    <mergeCell ref="AS24:AS25"/>
+    <mergeCell ref="BC30:BC32"/>
+    <mergeCell ref="BE30:BE32"/>
+    <mergeCell ref="BI30:BI32"/>
+    <mergeCell ref="AK30:AK32"/>
+    <mergeCell ref="O33:O34"/>
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="S33:S34"/>
+    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="Y33:Y34"/>
+    <mergeCell ref="AA33:AA34"/>
+    <mergeCell ref="AM30:AM32"/>
+    <mergeCell ref="AQ30:AQ32"/>
+    <mergeCell ref="AS30:AS32"/>
+    <mergeCell ref="AU30:AU32"/>
+    <mergeCell ref="AW30:AW32"/>
+    <mergeCell ref="AY30:AY32"/>
+    <mergeCell ref="U30:U32"/>
+    <mergeCell ref="Y30:Y32"/>
+    <mergeCell ref="AA30:AA32"/>
+    <mergeCell ref="AC30:AC32"/>
+    <mergeCell ref="AE30:AE32"/>
+    <mergeCell ref="AG30:AG32"/>
+    <mergeCell ref="BC33:BC34"/>
+    <mergeCell ref="BE33:BE34"/>
+    <mergeCell ref="BG33:BG34"/>
+    <mergeCell ref="BI33:BI34"/>
+    <mergeCell ref="W33:W34"/>
+    <mergeCell ref="AI33:AI34"/>
+    <mergeCell ref="AQ33:AQ34"/>
+    <mergeCell ref="AS33:AS34"/>
+    <mergeCell ref="AU33:AU34"/>
+    <mergeCell ref="AW33:AW34"/>
+    <mergeCell ref="AY33:AY34"/>
+    <mergeCell ref="BA33:BA34"/>
+    <mergeCell ref="AC33:AC34"/>
+    <mergeCell ref="AE33:AE34"/>
+    <mergeCell ref="AG33:AG34"/>
+    <mergeCell ref="AK33:AK34"/>
+    <mergeCell ref="AM33:AM34"/>
+    <mergeCell ref="AO33:AO34"/>
+    <mergeCell ref="AK36:AK37"/>
+    <mergeCell ref="AM36:AM37"/>
+    <mergeCell ref="AQ36:AQ37"/>
+    <mergeCell ref="AS36:AS37"/>
+    <mergeCell ref="O36:O37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="S36:S37"/>
+    <mergeCell ref="U36:U37"/>
+    <mergeCell ref="Y36:Y37"/>
+    <mergeCell ref="AA36:AA37"/>
     <mergeCell ref="BC18:BC19"/>
     <mergeCell ref="BE18:BE19"/>
     <mergeCell ref="BG18:BG19"/>
@@ -10791,264 +10999,56 @@
     <mergeCell ref="BE36:BE37"/>
     <mergeCell ref="AE36:AE37"/>
     <mergeCell ref="AG36:AG37"/>
-    <mergeCell ref="AK36:AK37"/>
-    <mergeCell ref="AM36:AM37"/>
-    <mergeCell ref="AQ36:AQ37"/>
-    <mergeCell ref="AS36:AS37"/>
-    <mergeCell ref="O36:O37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="S36:S37"/>
-    <mergeCell ref="U36:U37"/>
-    <mergeCell ref="Y36:Y37"/>
-    <mergeCell ref="AA36:AA37"/>
-    <mergeCell ref="BG33:BG34"/>
-    <mergeCell ref="BI33:BI34"/>
-    <mergeCell ref="W33:W34"/>
-    <mergeCell ref="AI33:AI34"/>
-    <mergeCell ref="AQ33:AQ34"/>
-    <mergeCell ref="AS33:AS34"/>
-    <mergeCell ref="AU33:AU34"/>
-    <mergeCell ref="AW33:AW34"/>
-    <mergeCell ref="AY33:AY34"/>
-    <mergeCell ref="BA33:BA34"/>
-    <mergeCell ref="AC33:AC34"/>
-    <mergeCell ref="AE33:AE34"/>
-    <mergeCell ref="AG33:AG34"/>
-    <mergeCell ref="AK33:AK34"/>
-    <mergeCell ref="AM33:AM34"/>
-    <mergeCell ref="AO33:AO34"/>
-    <mergeCell ref="BC30:BC32"/>
-    <mergeCell ref="BE30:BE32"/>
-    <mergeCell ref="BI30:BI32"/>
-    <mergeCell ref="AK30:AK32"/>
-    <mergeCell ref="O33:O34"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="S33:S34"/>
-    <mergeCell ref="U33:U34"/>
-    <mergeCell ref="Y33:Y34"/>
-    <mergeCell ref="AA33:AA34"/>
-    <mergeCell ref="AM30:AM32"/>
-    <mergeCell ref="AQ30:AQ32"/>
-    <mergeCell ref="AS30:AS32"/>
-    <mergeCell ref="AU30:AU32"/>
-    <mergeCell ref="AW30:AW32"/>
-    <mergeCell ref="AY30:AY32"/>
-    <mergeCell ref="U30:U32"/>
-    <mergeCell ref="Y30:Y32"/>
-    <mergeCell ref="AA30:AA32"/>
-    <mergeCell ref="AC30:AC32"/>
-    <mergeCell ref="AE30:AE32"/>
-    <mergeCell ref="AG30:AG32"/>
-    <mergeCell ref="BC33:BC34"/>
-    <mergeCell ref="BE33:BE34"/>
-    <mergeCell ref="BI24:BI25"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="S30:S32"/>
-    <mergeCell ref="W30:W32"/>
-    <mergeCell ref="AI30:AI32"/>
-    <mergeCell ref="AO30:AO32"/>
-    <mergeCell ref="BA30:BA32"/>
-    <mergeCell ref="BG30:BG32"/>
-    <mergeCell ref="O30:O32"/>
-    <mergeCell ref="Q30:Q32"/>
-    <mergeCell ref="AW24:AW25"/>
-    <mergeCell ref="AY24:AY25"/>
-    <mergeCell ref="BC24:BC25"/>
-    <mergeCell ref="BE24:BE25"/>
-    <mergeCell ref="BG24:BG25"/>
-    <mergeCell ref="W24:W25"/>
-    <mergeCell ref="AI24:AI25"/>
-    <mergeCell ref="AO24:AO25"/>
-    <mergeCell ref="BA24:BA25"/>
-    <mergeCell ref="AG24:AG25"/>
-    <mergeCell ref="AK24:AK25"/>
-    <mergeCell ref="AM24:AM25"/>
-    <mergeCell ref="AQ24:AQ25"/>
-    <mergeCell ref="AS24:AS25"/>
-    <mergeCell ref="AU24:AU25"/>
-    <mergeCell ref="O24:O25"/>
-    <mergeCell ref="Q24:Q25"/>
-    <mergeCell ref="S24:S25"/>
-    <mergeCell ref="U24:U25"/>
-    <mergeCell ref="Y24:Y25"/>
-    <mergeCell ref="AA24:AA25"/>
-    <mergeCell ref="AC24:AC25"/>
-    <mergeCell ref="AE24:AE25"/>
-    <mergeCell ref="BA18:BA19"/>
-    <mergeCell ref="O18:O19"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="U18:U19"/>
-    <mergeCell ref="W18:W19"/>
-    <mergeCell ref="Y18:Y19"/>
-    <mergeCell ref="AA18:AA19"/>
-    <mergeCell ref="AC18:AC19"/>
-    <mergeCell ref="AS18:AS19"/>
-    <mergeCell ref="AU18:AU19"/>
-    <mergeCell ref="AW18:AW19"/>
-    <mergeCell ref="AY18:AY19"/>
-    <mergeCell ref="AE18:AE19"/>
-    <mergeCell ref="AG18:AG19"/>
-    <mergeCell ref="AK18:AK19"/>
-    <mergeCell ref="AM18:AM19"/>
-    <mergeCell ref="AO18:AO19"/>
-    <mergeCell ref="AQ18:AQ19"/>
-    <mergeCell ref="AI18:AI19"/>
-    <mergeCell ref="BE15:BE16"/>
-    <mergeCell ref="BI15:BI16"/>
-    <mergeCell ref="AO15:AO16"/>
-    <mergeCell ref="AI15:AI16"/>
-    <mergeCell ref="BC15:BC16"/>
-    <mergeCell ref="BG15:BG16"/>
-    <mergeCell ref="AQ15:AQ16"/>
-    <mergeCell ref="AS15:AS16"/>
-    <mergeCell ref="AU15:AU16"/>
-    <mergeCell ref="AW15:AW16"/>
-    <mergeCell ref="AY15:AY16"/>
-    <mergeCell ref="BA15:BA16"/>
-    <mergeCell ref="AA15:AA16"/>
-    <mergeCell ref="AC15:AC16"/>
-    <mergeCell ref="AE15:AE16"/>
-    <mergeCell ref="AG15:AG16"/>
-    <mergeCell ref="AK15:AK16"/>
-    <mergeCell ref="AM15:AM16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="U15:U16"/>
-    <mergeCell ref="W15:W16"/>
-    <mergeCell ref="Y15:Y16"/>
-    <mergeCell ref="BI9:BI10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="S9:S10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="BA9:BA10"/>
-    <mergeCell ref="AU9:AU10"/>
-    <mergeCell ref="AW9:AW10"/>
-    <mergeCell ref="AY9:AY10"/>
-    <mergeCell ref="BC9:BC10"/>
-    <mergeCell ref="BE9:BE10"/>
-    <mergeCell ref="BG9:BG10"/>
-    <mergeCell ref="AE9:AE10"/>
-    <mergeCell ref="AG9:AG10"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AK9:AK10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="BG3:BG4"/>
-    <mergeCell ref="BI3:BI4"/>
-    <mergeCell ref="AO3:AO4"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="Q9:Q10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="Y9:Y10"/>
-    <mergeCell ref="AA9:AA10"/>
-    <mergeCell ref="AC9:AC10"/>
-    <mergeCell ref="AS3:AS4"/>
-    <mergeCell ref="AU3:AU4"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="BA3:BA4"/>
-    <mergeCell ref="BC3:BC4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="AG3:AG4"/>
-    <mergeCell ref="AK3:AK4"/>
-    <mergeCell ref="AM3:AM4"/>
-    <mergeCell ref="AQ3:AQ4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="M9:M10"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="M43:M44"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="M30:M32"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="O43:O44"/>
-    <mergeCell ref="AK13:AK14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="AQ13:AQ14"/>
-    <mergeCell ref="AU13:AU14"/>
-    <mergeCell ref="AW13:AW14"/>
-    <mergeCell ref="AY13:AY14"/>
-    <mergeCell ref="BA13:BA14"/>
-    <mergeCell ref="BC13:BC14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="O13:O14"/>
-    <mergeCell ref="Q13:Q14"/>
-    <mergeCell ref="S13:S14"/>
-    <mergeCell ref="U13:U14"/>
-    <mergeCell ref="Y13:Y14"/>
-    <mergeCell ref="AA13:AA14"/>
-    <mergeCell ref="AC13:AC14"/>
-    <mergeCell ref="AE13:AE14"/>
-    <mergeCell ref="BE13:BE14"/>
-    <mergeCell ref="BG13:BG14"/>
-    <mergeCell ref="BI13:BI14"/>
-    <mergeCell ref="AI13:AI14"/>
-    <mergeCell ref="AO13:AO14"/>
-    <mergeCell ref="AS13:AS14"/>
-    <mergeCell ref="W13:W14"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="BA41:BA42"/>
-    <mergeCell ref="BC41:BC42"/>
-    <mergeCell ref="BE41:BE42"/>
-    <mergeCell ref="BG41:BG42"/>
-    <mergeCell ref="BI41:BI42"/>
-    <mergeCell ref="AY41:AY42"/>
-    <mergeCell ref="AW41:AW42"/>
-    <mergeCell ref="AU41:AU42"/>
-    <mergeCell ref="AS41:AS42"/>
-    <mergeCell ref="AQ41:AQ42"/>
-    <mergeCell ref="AK41:AK42"/>
-    <mergeCell ref="AE41:AE42"/>
-    <mergeCell ref="AG41:AG42"/>
-    <mergeCell ref="AC41:AC42"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="O41:O42"/>
-    <mergeCell ref="AI3:AI4"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="AG13:AG14"/>
-    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="BG38:BG39"/>
+    <mergeCell ref="BI38:BI39"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AO38:AO39"/>
+    <mergeCell ref="AQ38:AQ39"/>
+    <mergeCell ref="AS38:AS39"/>
+    <mergeCell ref="AU38:AU39"/>
+    <mergeCell ref="AW38:AW39"/>
+    <mergeCell ref="AY38:AY39"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="Y43:Y44"/>
+    <mergeCell ref="AA43:AA44"/>
+    <mergeCell ref="AC43:AC44"/>
+    <mergeCell ref="BA38:BA39"/>
+    <mergeCell ref="BC38:BC39"/>
+    <mergeCell ref="BE38:BE39"/>
+    <mergeCell ref="O38:O39"/>
+    <mergeCell ref="Q38:Q39"/>
+    <mergeCell ref="U38:U39"/>
+    <mergeCell ref="W38:W39"/>
+    <mergeCell ref="Y38:Y39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="S41:S42"/>
+    <mergeCell ref="U41:U42"/>
+    <mergeCell ref="Y41:Y42"/>
+    <mergeCell ref="AA41:AA42"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="AI41:AI42"/>
+    <mergeCell ref="AO41:AO42"/>
+    <mergeCell ref="AM41:AM42"/>
+    <mergeCell ref="BG43:BG44"/>
+    <mergeCell ref="BI43:BI44"/>
+    <mergeCell ref="BA43:BA44"/>
+    <mergeCell ref="AW43:AW44"/>
+    <mergeCell ref="W43:W44"/>
+    <mergeCell ref="U43:U44"/>
+    <mergeCell ref="AQ43:AQ44"/>
+    <mergeCell ref="AS43:AS44"/>
+    <mergeCell ref="AU43:AU44"/>
+    <mergeCell ref="AY43:AY44"/>
+    <mergeCell ref="BC43:BC44"/>
+    <mergeCell ref="BE43:BE44"/>
+    <mergeCell ref="AE43:AE44"/>
+    <mergeCell ref="AG43:AG44"/>
+    <mergeCell ref="AI43:AI44"/>
+    <mergeCell ref="AK43:AK44"/>
+    <mergeCell ref="AM43:AM44"/>
+    <mergeCell ref="AO43:AO44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11061,7 +11061,7 @@
   <dimension ref="A1:AN38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
@@ -13903,12 +13903,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="76424c09-1f09-411f-a39d-769041d462c4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="7a404e10-278a-4ba0-976a-2af2db24d8c8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14113,20 +14115,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="76424c09-1f09-411f-a39d-769041d462c4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="7a404e10-278a-4ba0-976a-2af2db24d8c8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A61665-5548-4139-8F1E-CD0E56231733}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D997ED0D-A65E-4D53-86D9-B54CD319FBB7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="76424c09-1f09-411f-a39d-769041d462c4"/>
+    <ds:schemaRef ds:uri="7a404e10-278a-4ba0-976a-2af2db24d8c8"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14151,12 +14154,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D997ED0D-A65E-4D53-86D9-B54CD319FBB7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{67A61665-5548-4139-8F1E-CD0E56231733}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="76424c09-1f09-411f-a39d-769041d462c4"/>
-    <ds:schemaRef ds:uri="7a404e10-278a-4ba0-976a-2af2db24d8c8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>